--- a/data/c19stats-ac-kennzahlen.xlsx
+++ b/data/c19stats-ac-kennzahlen.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U161"/>
+  <dimension ref="A1:U164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10657,20 +10657,35 @@
       <c r="G159">
         <v>0</v>
       </c>
+      <c r="H159">
+        <v>4.142857142857143</v>
+      </c>
       <c r="I159">
         <v>0</v>
       </c>
+      <c r="J159">
+        <v>7.58876576486639</v>
+      </c>
       <c r="K159">
         <v>0</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
+      <c r="M159">
+        <v>8.857142857142858</v>
+      </c>
       <c r="N159">
         <v>0</v>
       </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
       <c r="P159">
         <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>4.714285714285714</v>
       </c>
       <c r="R159">
         <v>385.0827684912641</v>
@@ -10707,20 +10722,35 @@
       <c r="G160">
         <v>1</v>
       </c>
+      <c r="H160">
+        <v>2.428571428571428</v>
+      </c>
       <c r="I160">
         <v>1.234567901234568</v>
       </c>
+      <c r="J160">
+        <v>5.402847679270441</v>
+      </c>
       <c r="K160">
         <v>18</v>
       </c>
       <c r="L160">
         <v>7</v>
       </c>
+      <c r="M160">
+        <v>8.857142857142858</v>
+      </c>
       <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
         <v>0</v>
       </c>
       <c r="P160">
         <v>17</v>
+      </c>
+      <c r="Q160">
+        <v>6.428571428571429</v>
       </c>
       <c r="R160">
         <v>388.3232966973616</v>
@@ -10757,20 +10787,35 @@
       <c r="G161">
         <v>0</v>
       </c>
+      <c r="H161">
+        <v>2.428571428571428</v>
+      </c>
       <c r="I161">
         <v>0</v>
       </c>
+      <c r="J161">
+        <v>5.402847679270441</v>
+      </c>
       <c r="K161">
         <v>0</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
+      <c r="M161">
+        <v>8.857142857142858</v>
+      </c>
       <c r="N161">
         <v>0</v>
       </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
       <c r="P161">
         <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>6.428571428571429</v>
       </c>
       <c r="R161">
         <v>388.3232966973616</v>
@@ -10782,6 +10827,156 @@
         <v>11.72285552591155</v>
       </c>
       <c r="U161">
+        <v>11.16181937655838</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B162">
+        <v>2157</v>
+      </c>
+      <c r="C162">
+        <v>1060</v>
+      </c>
+      <c r="D162">
+        <v>100</v>
+      </c>
+      <c r="E162">
+        <v>1975</v>
+      </c>
+      <c r="F162">
+        <v>82</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>388.3232966973616</v>
+      </c>
+      <c r="S162">
+        <v>428.4905812919395</v>
+      </c>
+      <c r="T162">
+        <v>11.72285552591155</v>
+      </c>
+      <c r="U162">
+        <v>11.16181937655838</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
+      <c r="A163" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B163">
+        <v>2170</v>
+      </c>
+      <c r="C163">
+        <v>1068</v>
+      </c>
+      <c r="D163">
+        <v>100</v>
+      </c>
+      <c r="E163">
+        <v>1999</v>
+      </c>
+      <c r="F163">
+        <v>71</v>
+      </c>
+      <c r="G163">
+        <v>-11</v>
+      </c>
+      <c r="I163">
+        <v>-13.41463414634146</v>
+      </c>
+      <c r="K163">
+        <v>13</v>
+      </c>
+      <c r="L163">
+        <v>8</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>24</v>
+      </c>
+      <c r="R163">
+        <v>390.6636781795433</v>
+      </c>
+      <c r="S163">
+        <v>431.7244724715013</v>
+      </c>
+      <c r="T163">
+        <v>11.31861912846633</v>
+      </c>
+      <c r="U163">
+        <v>11.16181937655838</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
+      <c r="A164" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B164">
+        <v>2170</v>
+      </c>
+      <c r="C164">
+        <v>1068</v>
+      </c>
+      <c r="D164">
+        <v>100</v>
+      </c>
+      <c r="E164">
+        <v>1999</v>
+      </c>
+      <c r="F164">
+        <v>71</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>390.6636781795433</v>
+      </c>
+      <c r="S164">
+        <v>431.7244724715013</v>
+      </c>
+      <c r="T164">
+        <v>11.31861912846633</v>
+      </c>
+      <c r="U164">
         <v>11.16181937655838</v>
       </c>
     </row>

--- a/data/c19stats-ac-kennzahlen.xlsx
+++ b/data/c19stats-ac-kennzahlen.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U164"/>
+  <dimension ref="A1:U168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10852,20 +10852,35 @@
       <c r="G162">
         <v>0</v>
       </c>
+      <c r="H162">
+        <v>-1.285714285714286</v>
+      </c>
       <c r="I162">
         <v>0</v>
       </c>
+      <c r="J162">
+        <v>-1.538802220125937</v>
+      </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
+      <c r="M162">
+        <v>6</v>
+      </c>
       <c r="N162">
         <v>0</v>
       </c>
+      <c r="O162">
+        <v>0.1428571428571428</v>
+      </c>
       <c r="P162">
         <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>7.142857142857143</v>
       </c>
       <c r="R162">
         <v>388.3232966973616</v>
@@ -10902,20 +10917,35 @@
       <c r="G163">
         <v>-11</v>
       </c>
+      <c r="H163">
+        <v>-1.285714285714286</v>
+      </c>
       <c r="I163">
         <v>-13.41463414634146</v>
       </c>
+      <c r="J163">
+        <v>-1.538802220125937</v>
+      </c>
       <c r="K163">
         <v>13</v>
       </c>
       <c r="L163">
         <v>8</v>
       </c>
+      <c r="M163">
+        <v>6</v>
+      </c>
       <c r="N163">
         <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0.1428571428571428</v>
       </c>
       <c r="P163">
         <v>24</v>
+      </c>
+      <c r="Q163">
+        <v>7.142857142857143</v>
       </c>
       <c r="R163">
         <v>390.6636781795433</v>
@@ -10952,20 +10982,35 @@
       <c r="G164">
         <v>0</v>
       </c>
+      <c r="H164">
+        <v>0.1428571428571428</v>
+      </c>
       <c r="I164">
         <v>0</v>
       </c>
+      <c r="J164">
+        <v>0.4673706193802354</v>
+      </c>
       <c r="K164">
         <v>0</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
+      <c r="M164">
+        <v>7.857142857142857</v>
+      </c>
       <c r="N164">
         <v>0</v>
       </c>
+      <c r="O164">
+        <v>0.1428571428571428</v>
+      </c>
       <c r="P164">
         <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>7.571428571428571</v>
       </c>
       <c r="R164">
         <v>390.6636781795433</v>
@@ -10978,6 +11023,221 @@
       </c>
       <c r="U164">
         <v>11.16181937655838</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21">
+      <c r="A165" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B165">
+        <v>2181</v>
+      </c>
+      <c r="C165">
+        <v>1070</v>
+      </c>
+      <c r="D165">
+        <v>101</v>
+      </c>
+      <c r="E165">
+        <v>2008</v>
+      </c>
+      <c r="F165">
+        <v>72</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="I165">
+        <v>1.408450704225352</v>
+      </c>
+      <c r="J165">
+        <v>0.4673706193802354</v>
+      </c>
+      <c r="K165">
+        <v>11</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P165">
+        <v>9</v>
+      </c>
+      <c r="Q165">
+        <v>7.571428571428571</v>
+      </c>
+      <c r="R165">
+        <v>392.6440009721584</v>
+      </c>
+      <c r="S165">
+        <v>432.5329452663918</v>
+      </c>
+      <c r="T165">
+        <v>6.872018756568841</v>
+      </c>
+      <c r="U165">
+        <v>7.561232480894385</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
+      <c r="A166" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B166">
+        <v>2181</v>
+      </c>
+      <c r="C166">
+        <v>1070</v>
+      </c>
+      <c r="D166">
+        <v>101</v>
+      </c>
+      <c r="E166">
+        <v>2008</v>
+      </c>
+      <c r="F166">
+        <v>72</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>392.6440009721584</v>
+      </c>
+      <c r="S166">
+        <v>432.5329452663918</v>
+      </c>
+      <c r="T166">
+        <v>6.872018756568841</v>
+      </c>
+      <c r="U166">
+        <v>7.561232480894385</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
+      <c r="A167" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B167">
+        <v>2212</v>
+      </c>
+      <c r="C167">
+        <v>1088</v>
+      </c>
+      <c r="D167">
+        <v>101</v>
+      </c>
+      <c r="E167">
+        <v>2028</v>
+      </c>
+      <c r="F167">
+        <v>83</v>
+      </c>
+      <c r="G167">
+        <v>11</v>
+      </c>
+      <c r="I167">
+        <v>15.27777777777778</v>
+      </c>
+      <c r="K167">
+        <v>31</v>
+      </c>
+      <c r="L167">
+        <v>18</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>20</v>
+      </c>
+      <c r="R167">
+        <v>398.2249106604377</v>
+      </c>
+      <c r="S167">
+        <v>439.8092004204058</v>
+      </c>
+      <c r="T167">
+        <v>11.31861912846633</v>
+      </c>
+      <c r="U167">
+        <v>9.901613963075981</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="A168" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B168">
+        <v>2212</v>
+      </c>
+      <c r="C168">
+        <v>1088</v>
+      </c>
+      <c r="D168">
+        <v>101</v>
+      </c>
+      <c r="E168">
+        <v>2028</v>
+      </c>
+      <c r="F168">
+        <v>83</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>398.2249106604377</v>
+      </c>
+      <c r="S168">
+        <v>439.8092004204058</v>
+      </c>
+      <c r="T168">
+        <v>11.31861912846633</v>
+      </c>
+      <c r="U168">
+        <v>9.901613963075981</v>
       </c>
     </row>
   </sheetData>

--- a/data/c19stats-ac-kennzahlen.xlsx
+++ b/data/c19stats-ac-kennzahlen.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U168"/>
+  <dimension ref="A1:U171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11112,20 +11112,35 @@
       <c r="G166">
         <v>0</v>
       </c>
+      <c r="H166">
+        <v>0.1428571428571428</v>
+      </c>
       <c r="I166">
         <v>0</v>
       </c>
+      <c r="J166">
+        <v>0.4673706193802354</v>
+      </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
         <v>0</v>
       </c>
+      <c r="M166">
+        <v>7.857142857142857</v>
+      </c>
       <c r="N166">
         <v>0</v>
       </c>
+      <c r="O166">
+        <v>0.1428571428571428</v>
+      </c>
       <c r="P166">
         <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>7.571428571428571</v>
       </c>
       <c r="R166">
         <v>392.6440009721584</v>
@@ -11162,20 +11177,35 @@
       <c r="G167">
         <v>11</v>
       </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
       <c r="I167">
         <v>15.27777777777778</v>
       </c>
+      <c r="J167">
+        <v>1.523161728065849</v>
+      </c>
       <c r="K167">
         <v>31</v>
       </c>
       <c r="L167">
         <v>18</v>
       </c>
+      <c r="M167">
+        <v>8.857142857142858</v>
+      </c>
       <c r="N167">
         <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0.1428571428571428</v>
       </c>
       <c r="P167">
         <v>20</v>
+      </c>
+      <c r="Q167">
+        <v>7.714285714285714</v>
       </c>
       <c r="R167">
         <v>398.2249106604377</v>
@@ -11212,20 +11242,35 @@
       <c r="G168">
         <v>0</v>
       </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
       <c r="I168">
         <v>0</v>
       </c>
+      <c r="J168">
+        <v>1.523161728065849</v>
+      </c>
       <c r="K168">
         <v>0</v>
       </c>
       <c r="L168">
         <v>0</v>
       </c>
+      <c r="M168">
+        <v>8.857142857142858</v>
+      </c>
       <c r="N168">
         <v>0</v>
       </c>
+      <c r="O168">
+        <v>0.1428571428571428</v>
+      </c>
       <c r="P168">
         <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>7.714285714285714</v>
       </c>
       <c r="R168">
         <v>398.2249106604377</v>
@@ -11238,6 +11283,156 @@
       </c>
       <c r="U168">
         <v>9.901613963075981</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
+      <c r="A169" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B169">
+        <v>2212</v>
+      </c>
+      <c r="C169">
+        <v>1088</v>
+      </c>
+      <c r="D169">
+        <v>101</v>
+      </c>
+      <c r="E169">
+        <v>2028</v>
+      </c>
+      <c r="F169">
+        <v>83</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>398.2249106604377</v>
+      </c>
+      <c r="S169">
+        <v>439.8092004204058</v>
+      </c>
+      <c r="T169">
+        <v>11.31861912846633</v>
+      </c>
+      <c r="U169">
+        <v>9.901613963075981</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B170">
+        <v>2232</v>
+      </c>
+      <c r="C170">
+        <v>1093</v>
+      </c>
+      <c r="D170">
+        <v>101</v>
+      </c>
+      <c r="E170">
+        <v>2053</v>
+      </c>
+      <c r="F170">
+        <v>78</v>
+      </c>
+      <c r="G170">
+        <v>-5</v>
+      </c>
+      <c r="I170">
+        <v>-6.024096385542169</v>
+      </c>
+      <c r="K170">
+        <v>20</v>
+      </c>
+      <c r="L170">
+        <v>5</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>25</v>
+      </c>
+      <c r="R170">
+        <v>401.8254975561017</v>
+      </c>
+      <c r="S170">
+        <v>441.8303824076319</v>
+      </c>
+      <c r="T170">
+        <v>10.10590993613065</v>
+      </c>
+      <c r="U170">
+        <v>11.16181937655838</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="A171" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B171">
+        <v>2232</v>
+      </c>
+      <c r="C171">
+        <v>1093</v>
+      </c>
+      <c r="D171">
+        <v>101</v>
+      </c>
+      <c r="E171">
+        <v>2053</v>
+      </c>
+      <c r="F171">
+        <v>78</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>401.8254975561017</v>
+      </c>
+      <c r="S171">
+        <v>441.8303824076319</v>
+      </c>
+      <c r="T171">
+        <v>10.10590993613065</v>
+      </c>
+      <c r="U171">
+        <v>11.16181937655838</v>
       </c>
     </row>
   </sheetData>

--- a/data/c19stats-ac-kennzahlen.xlsx
+++ b/data/c19stats-ac-kennzahlen.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U171"/>
+  <dimension ref="A1:U210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11307,20 +11307,35 @@
       <c r="G169">
         <v>0</v>
       </c>
+      <c r="H169">
+        <v>1.857142857142857</v>
+      </c>
       <c r="I169">
         <v>0</v>
       </c>
+      <c r="J169">
+        <v>2.604005766656367</v>
+      </c>
       <c r="K169">
         <v>0</v>
       </c>
       <c r="L169">
         <v>0</v>
       </c>
+      <c r="M169">
+        <v>9.571428571428571</v>
+      </c>
       <c r="N169">
         <v>0</v>
       </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
       <c r="P169">
         <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>7.714285714285714</v>
       </c>
       <c r="R169">
         <v>398.2249106604377</v>
@@ -11357,20 +11372,35 @@
       <c r="G170">
         <v>-5</v>
       </c>
+      <c r="H170">
+        <v>1.857142857142857</v>
+      </c>
       <c r="I170">
         <v>-6.024096385542169</v>
       </c>
+      <c r="J170">
+        <v>2.604005766656367</v>
+      </c>
       <c r="K170">
         <v>20</v>
       </c>
       <c r="L170">
         <v>5</v>
       </c>
+      <c r="M170">
+        <v>11.42857142857143</v>
+      </c>
       <c r="N170">
         <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0.1428571428571428</v>
       </c>
       <c r="P170">
         <v>25</v>
+      </c>
+      <c r="Q170">
+        <v>9.428571428571429</v>
       </c>
       <c r="R170">
         <v>401.8254975561017</v>
@@ -11407,20 +11437,35 @@
       <c r="G171">
         <v>0</v>
       </c>
+      <c r="H171">
+        <v>1.714285714285714</v>
+      </c>
       <c r="I171">
         <v>0</v>
       </c>
+      <c r="J171">
+        <v>2.102138353024247</v>
+      </c>
       <c r="K171">
         <v>0</v>
       </c>
       <c r="L171">
         <v>0</v>
       </c>
+      <c r="M171">
+        <v>8.857142857142858</v>
+      </c>
       <c r="N171">
         <v>0</v>
       </c>
+      <c r="O171">
+        <v>0.1428571428571428</v>
+      </c>
       <c r="P171">
         <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>7</v>
       </c>
       <c r="R171">
         <v>401.8254975561017</v>
@@ -11433,6 +11478,2496 @@
       </c>
       <c r="U171">
         <v>11.16181937655838</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
+      <c r="A172" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B172">
+        <v>2248</v>
+      </c>
+      <c r="C172">
+        <v>1102</v>
+      </c>
+      <c r="D172">
+        <v>101</v>
+      </c>
+      <c r="E172">
+        <v>2062</v>
+      </c>
+      <c r="F172">
+        <v>85</v>
+      </c>
+      <c r="G172">
+        <v>7</v>
+      </c>
+      <c r="H172">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="I172">
+        <v>8.974358974358974</v>
+      </c>
+      <c r="J172">
+        <v>1.651010533475374</v>
+      </c>
+      <c r="K172">
+        <v>16</v>
+      </c>
+      <c r="L172">
+        <v>9</v>
+      </c>
+      <c r="M172">
+        <v>9.857142857142858</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P172">
+        <v>9</v>
+      </c>
+      <c r="Q172">
+        <v>8.428571428571429</v>
+      </c>
+      <c r="R172">
+        <v>404.7059670726328</v>
+      </c>
+      <c r="S172">
+        <v>445.4685099846391</v>
+      </c>
+      <c r="T172">
+        <v>12.93556471824723</v>
+      </c>
+      <c r="U172">
+        <v>12.06196610047438</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
+      <c r="A173" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B173">
+        <v>2261</v>
+      </c>
+      <c r="C173">
+        <v>1106</v>
+      </c>
+      <c r="D173">
+        <v>102</v>
+      </c>
+      <c r="E173">
+        <v>2074</v>
+      </c>
+      <c r="F173">
+        <v>85</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1.651010533475374</v>
+      </c>
+      <c r="K173">
+        <v>13</v>
+      </c>
+      <c r="L173">
+        <v>4</v>
+      </c>
+      <c r="M173">
+        <v>9.857142857142858</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P173">
+        <v>12</v>
+      </c>
+      <c r="Q173">
+        <v>8.428571428571429</v>
+      </c>
+      <c r="R173">
+        <v>407.0463485548144</v>
+      </c>
+      <c r="S173">
+        <v>447.0854555744199</v>
+      </c>
+      <c r="T173">
+        <v>14.55251030802813</v>
+      </c>
+      <c r="U173">
+        <v>14.40234758265597</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="A174" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B174">
+        <v>2274</v>
+      </c>
+      <c r="C174">
+        <v>1112</v>
+      </c>
+      <c r="D174">
+        <v>102</v>
+      </c>
+      <c r="E174">
+        <v>2077</v>
+      </c>
+      <c r="F174">
+        <v>95</v>
+      </c>
+      <c r="G174">
+        <v>10</v>
+      </c>
+      <c r="H174">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="I174">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="J174">
+        <v>2.0457572220932</v>
+      </c>
+      <c r="K174">
+        <v>13</v>
+      </c>
+      <c r="L174">
+        <v>6</v>
+      </c>
+      <c r="M174">
+        <v>11.28571428571429</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P174">
+        <v>3</v>
+      </c>
+      <c r="Q174">
+        <v>9.571428571428571</v>
+      </c>
+      <c r="R174">
+        <v>409.386730036996</v>
+      </c>
+      <c r="S174">
+        <v>449.5108739590913</v>
+      </c>
+      <c r="T174">
+        <v>9.701673538685423</v>
+      </c>
+      <c r="U174">
+        <v>11.16181937655838</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
+      <c r="A175" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B175">
+        <v>2281</v>
+      </c>
+      <c r="C175">
+        <v>1114</v>
+      </c>
+      <c r="D175">
+        <v>102</v>
+      </c>
+      <c r="E175">
+        <v>2087</v>
+      </c>
+      <c r="F175">
+        <v>92</v>
+      </c>
+      <c r="G175">
+        <v>-3</v>
+      </c>
+      <c r="H175">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="I175">
+        <v>-3.157894736842105</v>
+      </c>
+      <c r="J175">
+        <v>2.0457572220932</v>
+      </c>
+      <c r="K175">
+        <v>7</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>11.28571428571429</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P175">
+        <v>10</v>
+      </c>
+      <c r="Q175">
+        <v>9.571428571428571</v>
+      </c>
+      <c r="R175">
+        <v>410.6469354504785</v>
+      </c>
+      <c r="S175">
+        <v>450.3193467539817</v>
+      </c>
+      <c r="T175">
+        <v>10.51014633357588</v>
+      </c>
+      <c r="U175">
+        <v>12.42202479004078</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
+      <c r="A176" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B176">
+        <v>2281</v>
+      </c>
+      <c r="C176">
+        <v>1114</v>
+      </c>
+      <c r="D176">
+        <v>102</v>
+      </c>
+      <c r="E176">
+        <v>2087</v>
+      </c>
+      <c r="F176">
+        <v>92</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>-2</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>-2.125539645832881</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>9.714285714285714</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>11.57142857142857</v>
+      </c>
+      <c r="R176">
+        <v>410.6469354504785</v>
+      </c>
+      <c r="S176">
+        <v>450.3193467539817</v>
+      </c>
+      <c r="T176">
+        <v>10.51014633357588</v>
+      </c>
+      <c r="U176">
+        <v>12.42202479004078</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
+      <c r="A177" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B177">
+        <v>2311</v>
+      </c>
+      <c r="C177">
+        <v>1126</v>
+      </c>
+      <c r="D177">
+        <v>102</v>
+      </c>
+      <c r="E177">
+        <v>2120</v>
+      </c>
+      <c r="F177">
+        <v>89</v>
+      </c>
+      <c r="G177">
+        <v>-3</v>
+      </c>
+      <c r="H177">
+        <v>-1.714285714285714</v>
+      </c>
+      <c r="I177">
+        <v>-3.260869565217391</v>
+      </c>
+      <c r="J177">
+        <v>-1.723125158911352</v>
+      </c>
+      <c r="K177">
+        <v>30</v>
+      </c>
+      <c r="L177">
+        <v>12</v>
+      </c>
+      <c r="M177">
+        <v>9</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>33</v>
+      </c>
+      <c r="Q177">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="R177">
+        <v>416.0478157939744</v>
+      </c>
+      <c r="S177">
+        <v>455.1701835233245</v>
+      </c>
+      <c r="T177">
+        <v>13.33980111569246</v>
+      </c>
+      <c r="U177">
+        <v>14.22231823787277</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
+      <c r="A178" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B178">
+        <v>2311</v>
+      </c>
+      <c r="C178">
+        <v>1126</v>
+      </c>
+      <c r="D178">
+        <v>102</v>
+      </c>
+      <c r="E178">
+        <v>2120</v>
+      </c>
+      <c r="F178">
+        <v>89</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>-2.857142857142857</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>-3.012407995333592</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>8.428571428571429</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>11.28571428571429</v>
+      </c>
+      <c r="R178">
+        <v>416.0478157939744</v>
+      </c>
+      <c r="S178">
+        <v>455.1701835233245</v>
+      </c>
+      <c r="T178">
+        <v>13.33980111569246</v>
+      </c>
+      <c r="U178">
+        <v>14.22231823787277</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
+      <c r="A179" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B179">
+        <v>2316</v>
+      </c>
+      <c r="C179">
+        <v>1128</v>
+      </c>
+      <c r="D179">
+        <v>102</v>
+      </c>
+      <c r="E179">
+        <v>2143</v>
+      </c>
+      <c r="F179">
+        <v>71</v>
+      </c>
+      <c r="G179">
+        <v>-18</v>
+      </c>
+      <c r="H179">
+        <v>-1.285714285714286</v>
+      </c>
+      <c r="I179">
+        <v>-20.22471910112359</v>
+      </c>
+      <c r="J179">
+        <v>-1.037470651975196</v>
+      </c>
+      <c r="K179">
+        <v>5</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>9.571428571428571</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>23</v>
+      </c>
+      <c r="Q179">
+        <v>10.85714285714286</v>
+      </c>
+      <c r="R179">
+        <v>416.9479625178905</v>
+      </c>
+      <c r="S179">
+        <v>455.9786563182149</v>
+      </c>
+      <c r="T179">
+        <v>10.51014633357588</v>
+      </c>
+      <c r="U179">
+        <v>12.24199544525758</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
+      <c r="A180" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B180">
+        <v>2324</v>
+      </c>
+      <c r="C180">
+        <v>1131</v>
+      </c>
+      <c r="D180">
+        <v>102</v>
+      </c>
+      <c r="E180">
+        <v>2149</v>
+      </c>
+      <c r="F180">
+        <v>73</v>
+      </c>
+      <c r="G180">
+        <v>2</v>
+      </c>
+      <c r="H180">
+        <v>-1.285714285714286</v>
+      </c>
+      <c r="I180">
+        <v>2.816901408450704</v>
+      </c>
+      <c r="J180">
+        <v>-1.037470651975196</v>
+      </c>
+      <c r="K180">
+        <v>8</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>9.571428571428571</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>6</v>
+      </c>
+      <c r="Q180">
+        <v>10.85714285714286</v>
+      </c>
+      <c r="R180">
+        <v>418.388197276156</v>
+      </c>
+      <c r="S180">
+        <v>457.1913655105506</v>
+      </c>
+      <c r="T180">
+        <v>10.10590993613065</v>
+      </c>
+      <c r="U180">
+        <v>11.34184872134158</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
+      <c r="A181" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B181">
+        <v>2333</v>
+      </c>
+      <c r="C181">
+        <v>1136</v>
+      </c>
+      <c r="D181">
+        <v>102</v>
+      </c>
+      <c r="E181">
+        <v>2156</v>
+      </c>
+      <c r="F181">
+        <v>75</v>
+      </c>
+      <c r="G181">
+        <v>2</v>
+      </c>
+      <c r="H181">
+        <v>-4.428571428571429</v>
+      </c>
+      <c r="I181">
+        <v>2.73972602739726</v>
+      </c>
+      <c r="J181">
+        <v>-4.874558132331404</v>
+      </c>
+      <c r="K181">
+        <v>9</v>
+      </c>
+      <c r="L181">
+        <v>5</v>
+      </c>
+      <c r="M181">
+        <v>6</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>7</v>
+      </c>
+      <c r="Q181">
+        <v>10.42857142857143</v>
+      </c>
+      <c r="R181">
+        <v>420.0084613792048</v>
+      </c>
+      <c r="S181">
+        <v>459.2125474977767</v>
+      </c>
+      <c r="T181">
+        <v>9.701673538685423</v>
+      </c>
+      <c r="U181">
+        <v>10.62173134220878</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B182">
+        <v>2348</v>
+      </c>
+      <c r="C182">
+        <v>1140</v>
+      </c>
+      <c r="D182">
+        <v>102</v>
+      </c>
+      <c r="E182">
+        <v>2163</v>
+      </c>
+      <c r="F182">
+        <v>83</v>
+      </c>
+      <c r="G182">
+        <v>8</v>
+      </c>
+      <c r="H182">
+        <v>-4.428571428571429</v>
+      </c>
+      <c r="I182">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="J182">
+        <v>-4.874558132331404</v>
+      </c>
+      <c r="K182">
+        <v>15</v>
+      </c>
+      <c r="L182">
+        <v>4</v>
+      </c>
+      <c r="M182">
+        <v>6</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>7</v>
+      </c>
+      <c r="Q182">
+        <v>10.42857142857143</v>
+      </c>
+      <c r="R182">
+        <v>422.7089015509528</v>
+      </c>
+      <c r="S182">
+        <v>460.8294930875576</v>
+      </c>
+      <c r="T182">
+        <v>10.51014633357588</v>
+      </c>
+      <c r="U182">
+        <v>12.06196610047438</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B183">
+        <v>2348</v>
+      </c>
+      <c r="C183">
+        <v>1140</v>
+      </c>
+      <c r="D183">
+        <v>102</v>
+      </c>
+      <c r="E183">
+        <v>2163</v>
+      </c>
+      <c r="F183">
+        <v>83</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>-2</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>-2.231617965175817</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>6.714285714285714</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>8.571428571428571</v>
+      </c>
+      <c r="R183">
+        <v>422.7089015509528</v>
+      </c>
+      <c r="S183">
+        <v>460.8294930875576</v>
+      </c>
+      <c r="T183">
+        <v>10.51014633357588</v>
+      </c>
+      <c r="U183">
+        <v>12.06196610047438</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B184">
+        <v>2353</v>
+      </c>
+      <c r="C184">
+        <v>1144</v>
+      </c>
+      <c r="D184">
+        <v>102</v>
+      </c>
+      <c r="E184">
+        <v>2193</v>
+      </c>
+      <c r="F184">
+        <v>58</v>
+      </c>
+      <c r="G184">
+        <v>-25</v>
+      </c>
+      <c r="H184">
+        <v>-3.142857142857143</v>
+      </c>
+      <c r="I184">
+        <v>-30.12048192771084</v>
+      </c>
+      <c r="J184">
+        <v>-4.137791850593587</v>
+      </c>
+      <c r="K184">
+        <v>5</v>
+      </c>
+      <c r="L184">
+        <v>4</v>
+      </c>
+      <c r="M184">
+        <v>6.571428571428571</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P184">
+        <v>30</v>
+      </c>
+      <c r="Q184">
+        <v>9.571428571428571</v>
+      </c>
+      <c r="R184">
+        <v>423.6090482748688</v>
+      </c>
+      <c r="S184">
+        <v>462.4464386773385</v>
+      </c>
+      <c r="T184">
+        <v>7.276255154014067</v>
+      </c>
+      <c r="U184">
+        <v>7.561232480894385</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B185">
+        <v>2353</v>
+      </c>
+      <c r="C185">
+        <v>1144</v>
+      </c>
+      <c r="D185">
+        <v>102</v>
+      </c>
+      <c r="E185">
+        <v>2193</v>
+      </c>
+      <c r="F185">
+        <v>58</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>-3.428571428571428</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>-4.52918128307891</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>6.428571428571429</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>9.714285714285714</v>
+      </c>
+      <c r="R185">
+        <v>423.6090482748688</v>
+      </c>
+      <c r="S185">
+        <v>462.4464386773385</v>
+      </c>
+      <c r="T185">
+        <v>7.276255154014067</v>
+      </c>
+      <c r="U185">
+        <v>7.561232480894385</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B186">
+        <v>2363</v>
+      </c>
+      <c r="C186">
+        <v>1149</v>
+      </c>
+      <c r="D186">
+        <v>103</v>
+      </c>
+      <c r="E186">
+        <v>2203</v>
+      </c>
+      <c r="F186">
+        <v>57</v>
+      </c>
+      <c r="G186">
+        <v>-1</v>
+      </c>
+      <c r="H186">
+        <v>-5.285714285714286</v>
+      </c>
+      <c r="I186">
+        <v>-1.724137931034483</v>
+      </c>
+      <c r="J186">
+        <v>-7.45355103097807</v>
+      </c>
+      <c r="K186">
+        <v>10</v>
+      </c>
+      <c r="L186">
+        <v>5</v>
+      </c>
+      <c r="M186">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P186">
+        <v>10</v>
+      </c>
+      <c r="Q186">
+        <v>10.28571428571429</v>
+      </c>
+      <c r="R186">
+        <v>425.4093417227008</v>
+      </c>
+      <c r="S186">
+        <v>464.4676206645646</v>
+      </c>
+      <c r="T186">
+        <v>8.488964346349746</v>
+      </c>
+      <c r="U186">
+        <v>8.461379204810385</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B187">
+        <v>2370</v>
+      </c>
+      <c r="C187">
+        <v>1151</v>
+      </c>
+      <c r="D187">
+        <v>103</v>
+      </c>
+      <c r="E187">
+        <v>2216</v>
+      </c>
+      <c r="F187">
+        <v>51</v>
+      </c>
+      <c r="G187">
+        <v>-6</v>
+      </c>
+      <c r="H187">
+        <v>-5.285714285714286</v>
+      </c>
+      <c r="I187">
+        <v>-10.52631578947368</v>
+      </c>
+      <c r="J187">
+        <v>-7.45355103097807</v>
+      </c>
+      <c r="K187">
+        <v>7</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P187">
+        <v>13</v>
+      </c>
+      <c r="Q187">
+        <v>10.28571428571429</v>
+      </c>
+      <c r="R187">
+        <v>426.6695471361832</v>
+      </c>
+      <c r="S187">
+        <v>465.2760934594551</v>
+      </c>
+      <c r="T187">
+        <v>8.08472794890452</v>
+      </c>
+      <c r="U187">
+        <v>8.281349860027184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B188">
+        <v>2378</v>
+      </c>
+      <c r="C188">
+        <v>1157</v>
+      </c>
+      <c r="D188">
+        <v>103</v>
+      </c>
+      <c r="E188">
+        <v>2224</v>
+      </c>
+      <c r="F188">
+        <v>51</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>-2.714285714285714</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>-5.324538084783354</v>
+      </c>
+      <c r="K188">
+        <v>8</v>
+      </c>
+      <c r="L188">
+        <v>6</v>
+      </c>
+      <c r="M188">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P188">
+        <v>8</v>
+      </c>
+      <c r="Q188">
+        <v>7.714285714285714</v>
+      </c>
+      <c r="R188">
+        <v>428.1097818944488</v>
+      </c>
+      <c r="S188">
+        <v>467.7015118441264</v>
+      </c>
+      <c r="T188">
+        <v>8.488964346349746</v>
+      </c>
+      <c r="U188">
+        <v>8.101320515243984</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B189">
+        <v>2384</v>
+      </c>
+      <c r="C189">
+        <v>1161</v>
+      </c>
+      <c r="D189">
+        <v>103</v>
+      </c>
+      <c r="E189">
+        <v>2235</v>
+      </c>
+      <c r="F189">
+        <v>46</v>
+      </c>
+      <c r="G189">
+        <v>-5</v>
+      </c>
+      <c r="H189">
+        <v>-2.714285714285714</v>
+      </c>
+      <c r="I189">
+        <v>-9.803921568627452</v>
+      </c>
+      <c r="J189">
+        <v>-5.324538084783354</v>
+      </c>
+      <c r="K189">
+        <v>6</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P189">
+        <v>11</v>
+      </c>
+      <c r="Q189">
+        <v>7.714285714285714</v>
+      </c>
+      <c r="R189">
+        <v>429.189957963148</v>
+      </c>
+      <c r="S189">
+        <v>469.3184574339073</v>
+      </c>
+      <c r="T189">
+        <v>8.488964346349746</v>
+      </c>
+      <c r="U189">
+        <v>6.481056412195188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B190">
+        <v>2384</v>
+      </c>
+      <c r="C190">
+        <v>1161</v>
+      </c>
+      <c r="D190">
+        <v>103</v>
+      </c>
+      <c r="E190">
+        <v>2235</v>
+      </c>
+      <c r="F190">
+        <v>46</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>-3.571428571428572</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>-7.642335230166706</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="R190">
+        <v>429.189957963148</v>
+      </c>
+      <c r="S190">
+        <v>469.3184574339073</v>
+      </c>
+      <c r="T190">
+        <v>8.488964346349746</v>
+      </c>
+      <c r="U190">
+        <v>6.481056412195188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B191">
+        <v>2389</v>
+      </c>
+      <c r="C191">
+        <v>1164</v>
+      </c>
+      <c r="D191">
+        <v>103</v>
+      </c>
+      <c r="E191">
+        <v>2247</v>
+      </c>
+      <c r="F191">
+        <v>39</v>
+      </c>
+      <c r="G191">
+        <v>-7</v>
+      </c>
+      <c r="H191">
+        <v>-2</v>
+      </c>
+      <c r="I191">
+        <v>-15.21739130434783</v>
+      </c>
+      <c r="J191">
+        <v>-3.906432974527608</v>
+      </c>
+      <c r="K191">
+        <v>5</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>12</v>
+      </c>
+      <c r="Q191">
+        <v>6.285714285714286</v>
+      </c>
+      <c r="R191">
+        <v>430.090104687064</v>
+      </c>
+      <c r="S191">
+        <v>470.531166626243</v>
+      </c>
+      <c r="T191">
+        <v>8.08472794890452</v>
+      </c>
+      <c r="U191">
+        <v>6.481056412195188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B192">
+        <v>2389</v>
+      </c>
+      <c r="C192">
+        <v>1164</v>
+      </c>
+      <c r="D192">
+        <v>103</v>
+      </c>
+      <c r="E192">
+        <v>2247</v>
+      </c>
+      <c r="F192">
+        <v>39</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>-0.7142857142857143</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>-0.431529499624133</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>5.571428571428571</v>
+      </c>
+      <c r="R192">
+        <v>430.090104687064</v>
+      </c>
+      <c r="S192">
+        <v>470.531166626243</v>
+      </c>
+      <c r="T192">
+        <v>8.08472794890452</v>
+      </c>
+      <c r="U192">
+        <v>6.481056412195188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B193">
+        <v>2393</v>
+      </c>
+      <c r="C193">
+        <v>1166</v>
+      </c>
+      <c r="D193">
+        <v>103</v>
+      </c>
+      <c r="E193">
+        <v>2258</v>
+      </c>
+      <c r="F193">
+        <v>32</v>
+      </c>
+      <c r="G193">
+        <v>-7</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>-17.94871794871795</v>
+      </c>
+      <c r="J193">
+        <v>0.969030724465503</v>
+      </c>
+      <c r="K193">
+        <v>4</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>4</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>11</v>
+      </c>
+      <c r="Q193">
+        <v>4</v>
+      </c>
+      <c r="R193">
+        <v>430.8102220661968</v>
+      </c>
+      <c r="S193">
+        <v>471.3396394211334</v>
+      </c>
+      <c r="T193">
+        <v>6.872018756568841</v>
+      </c>
+      <c r="U193">
+        <v>5.40088034349599</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B194">
+        <v>2400</v>
+      </c>
+      <c r="C194">
+        <v>1171</v>
+      </c>
+      <c r="D194">
+        <v>103</v>
+      </c>
+      <c r="E194">
+        <v>2260</v>
+      </c>
+      <c r="F194">
+        <v>37</v>
+      </c>
+      <c r="G194">
+        <v>5</v>
+      </c>
+      <c r="H194">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="I194">
+        <v>15.625</v>
+      </c>
+      <c r="J194">
+        <v>3.764061780366124</v>
+      </c>
+      <c r="K194">
+        <v>7</v>
+      </c>
+      <c r="L194">
+        <v>5</v>
+      </c>
+      <c r="M194">
+        <v>6.428571428571429</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>2</v>
+      </c>
+      <c r="Q194">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="R194">
+        <v>432.0704274796792</v>
+      </c>
+      <c r="S194">
+        <v>473.3608214083596</v>
+      </c>
+      <c r="T194">
+        <v>8.08472794890452</v>
+      </c>
+      <c r="U194">
+        <v>5.40088034349599</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B195">
+        <v>2412</v>
+      </c>
+      <c r="C195">
+        <v>1178</v>
+      </c>
+      <c r="D195">
+        <v>103</v>
+      </c>
+      <c r="E195">
+        <v>2263</v>
+      </c>
+      <c r="F195">
+        <v>46</v>
+      </c>
+      <c r="G195">
+        <v>9</v>
+      </c>
+      <c r="H195">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="I195">
+        <v>24.32432432432433</v>
+      </c>
+      <c r="J195">
+        <v>5.937974823844385</v>
+      </c>
+      <c r="K195">
+        <v>12</v>
+      </c>
+      <c r="L195">
+        <v>7</v>
+      </c>
+      <c r="M195">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>3</v>
+      </c>
+      <c r="Q195">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="R195">
+        <v>434.2307796170776</v>
+      </c>
+      <c r="S195">
+        <v>476.1904761904763</v>
+      </c>
+      <c r="T195">
+        <v>8.488964346349746</v>
+      </c>
+      <c r="U195">
+        <v>6.120997722628789</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B196">
+        <v>2412</v>
+      </c>
+      <c r="C196">
+        <v>1178</v>
+      </c>
+      <c r="D196">
+        <v>103</v>
+      </c>
+      <c r="E196">
+        <v>2263</v>
+      </c>
+      <c r="F196">
+        <v>46</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>5.937974823844385</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="R196">
+        <v>434.2307796170776</v>
+      </c>
+      <c r="S196">
+        <v>476.1904761904763</v>
+      </c>
+      <c r="T196">
+        <v>6.872018756568841</v>
+      </c>
+      <c r="U196">
+        <v>5.040821653929591</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B197">
+        <v>2429</v>
+      </c>
+      <c r="C197">
+        <v>1186</v>
+      </c>
+      <c r="D197">
+        <v>103</v>
+      </c>
+      <c r="E197">
+        <v>2271</v>
+      </c>
+      <c r="F197">
+        <v>55</v>
+      </c>
+      <c r="G197">
+        <v>9</v>
+      </c>
+      <c r="H197">
+        <v>7.714285714285714</v>
+      </c>
+      <c r="I197">
+        <v>19.56521739130435</v>
+      </c>
+      <c r="J197">
+        <v>16.554025439895</v>
+      </c>
+      <c r="K197">
+        <v>17</v>
+      </c>
+      <c r="L197">
+        <v>8</v>
+      </c>
+      <c r="M197">
+        <v>12</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>8</v>
+      </c>
+      <c r="Q197">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="R197">
+        <v>437.291278478392</v>
+      </c>
+      <c r="S197">
+        <v>479.4243673700381</v>
+      </c>
+      <c r="T197">
+        <v>10.10590993613065</v>
+      </c>
+      <c r="U197">
+        <v>8.101320515243984</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B198">
+        <v>2429</v>
+      </c>
+      <c r="C198">
+        <v>1186</v>
+      </c>
+      <c r="D198">
+        <v>103</v>
+      </c>
+      <c r="E198">
+        <v>2271</v>
+      </c>
+      <c r="F198">
+        <v>55</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>9.428571428571429</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>17.14580284853287</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>14.71428571428571</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>5.285714285714286</v>
+      </c>
+      <c r="R198">
+        <v>437.291278478392</v>
+      </c>
+      <c r="S198">
+        <v>479.4243673700381</v>
+      </c>
+      <c r="T198">
+        <v>8.893200743794972</v>
+      </c>
+      <c r="U198">
+        <v>7.201173791327986</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B199">
+        <v>2429</v>
+      </c>
+      <c r="C199">
+        <v>1186</v>
+      </c>
+      <c r="D199">
+        <v>103</v>
+      </c>
+      <c r="E199">
+        <v>2271</v>
+      </c>
+      <c r="F199">
+        <v>55</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>9.142857142857142</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>14.64177316003717</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>15.71428571428571</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>6.571428571428571</v>
+      </c>
+      <c r="R199">
+        <v>437.291278478392</v>
+      </c>
+      <c r="S199">
+        <v>479.4243673700381</v>
+      </c>
+      <c r="T199">
+        <v>8.893200743794972</v>
+      </c>
+      <c r="U199">
+        <v>7.201173791327986</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B200">
+        <v>2477</v>
+      </c>
+      <c r="C200">
+        <v>1210</v>
+      </c>
+      <c r="D200">
+        <v>103</v>
+      </c>
+      <c r="E200">
+        <v>2288</v>
+      </c>
+      <c r="F200">
+        <v>86</v>
+      </c>
+      <c r="G200">
+        <v>31</v>
+      </c>
+      <c r="H200">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="I200">
+        <v>56.36363636363636</v>
+      </c>
+      <c r="J200">
+        <v>16.0703445886086</v>
+      </c>
+      <c r="K200">
+        <v>48</v>
+      </c>
+      <c r="L200">
+        <v>24</v>
+      </c>
+      <c r="M200">
+        <v>19.71428571428572</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>17</v>
+      </c>
+      <c r="Q200">
+        <v>9</v>
+      </c>
+      <c r="R200">
+        <v>445.9326870279855</v>
+      </c>
+      <c r="S200">
+        <v>489.1260409087234</v>
+      </c>
+      <c r="T200">
+        <v>17.78640148758994</v>
+      </c>
+      <c r="U200">
+        <v>15.12246496178877</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B201">
+        <v>2503</v>
+      </c>
+      <c r="C201">
+        <v>1224</v>
+      </c>
+      <c r="D201">
+        <v>103</v>
+      </c>
+      <c r="E201">
+        <v>2297</v>
+      </c>
+      <c r="F201">
+        <v>103</v>
+      </c>
+      <c r="G201">
+        <v>17</v>
+      </c>
+      <c r="H201">
+        <v>9.428571428571429</v>
+      </c>
+      <c r="I201">
+        <v>19.76744186046512</v>
+      </c>
+      <c r="J201">
+        <v>13.27531353270797</v>
+      </c>
+      <c r="K201">
+        <v>26</v>
+      </c>
+      <c r="L201">
+        <v>14</v>
+      </c>
+      <c r="M201">
+        <v>17.28571428571428</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>9</v>
+      </c>
+      <c r="Q201">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="R201">
+        <v>450.6134499923487</v>
+      </c>
+      <c r="S201">
+        <v>494.7853504729566</v>
+      </c>
+      <c r="T201">
+        <v>21.42452906459697</v>
+      </c>
+      <c r="U201">
+        <v>18.54302251266957</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B202">
+        <v>2522</v>
+      </c>
+      <c r="C202">
+        <v>1232</v>
+      </c>
+      <c r="D202">
+        <v>103</v>
+      </c>
+      <c r="E202">
+        <v>2309</v>
+      </c>
+      <c r="F202">
+        <v>110</v>
+      </c>
+      <c r="G202">
+        <v>7</v>
+      </c>
+      <c r="H202">
+        <v>8.428571428571429</v>
+      </c>
+      <c r="I202">
+        <v>6.796116504854369</v>
+      </c>
+      <c r="J202">
+        <v>12.44886725171624</v>
+      </c>
+      <c r="K202">
+        <v>19</v>
+      </c>
+      <c r="L202">
+        <v>8</v>
+      </c>
+      <c r="M202">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P202">
+        <v>12</v>
+      </c>
+      <c r="Q202">
+        <v>11.28571428571429</v>
+      </c>
+      <c r="R202">
+        <v>454.0340075432295</v>
+      </c>
+      <c r="S202">
+        <v>498.0192416525184</v>
+      </c>
+      <c r="T202">
+        <v>21.8287654620422</v>
+      </c>
+      <c r="U202">
+        <v>19.80322792615196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B203">
+        <v>2550</v>
+      </c>
+      <c r="C203">
+        <v>1248</v>
+      </c>
+      <c r="D203">
+        <v>103</v>
+      </c>
+      <c r="E203">
+        <v>2326</v>
+      </c>
+      <c r="F203">
+        <v>121</v>
+      </c>
+      <c r="G203">
+        <v>11</v>
+      </c>
+      <c r="H203">
+        <v>8.428571428571429</v>
+      </c>
+      <c r="I203">
+        <v>10</v>
+      </c>
+      <c r="J203">
+        <v>12.44886725171624</v>
+      </c>
+      <c r="K203">
+        <v>28</v>
+      </c>
+      <c r="L203">
+        <v>16</v>
+      </c>
+      <c r="M203">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P203">
+        <v>17</v>
+      </c>
+      <c r="Q203">
+        <v>11.28571428571429</v>
+      </c>
+      <c r="R203">
+        <v>459.0748291971591</v>
+      </c>
+      <c r="S203">
+        <v>504.4870240116419</v>
+      </c>
+      <c r="T203">
+        <v>28.29654782116582</v>
+      </c>
+      <c r="U203">
+        <v>24.84404958008156</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B204">
+        <v>2550</v>
+      </c>
+      <c r="C204">
+        <v>1248</v>
+      </c>
+      <c r="D204">
+        <v>103</v>
+      </c>
+      <c r="E204">
+        <v>2326</v>
+      </c>
+      <c r="F204">
+        <v>121</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>4.020979350144127</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>15.28571428571429</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>11.57142857142857</v>
+      </c>
+      <c r="R204">
+        <v>459.0748291971591</v>
+      </c>
+      <c r="S204">
+        <v>504.4870240116419</v>
+      </c>
+      <c r="T204">
+        <v>25.06265664160401</v>
+      </c>
+      <c r="U204">
+        <v>21.78355071876716</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B205">
+        <v>2568</v>
+      </c>
+      <c r="C205">
+        <v>1252</v>
+      </c>
+      <c r="D205">
+        <v>104</v>
+      </c>
+      <c r="E205">
+        <v>2350</v>
+      </c>
+      <c r="F205">
+        <v>114</v>
+      </c>
+      <c r="G205">
+        <v>-7</v>
+      </c>
+      <c r="H205">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I205">
+        <v>-5.785123966942149</v>
+      </c>
+      <c r="J205">
+        <v>0.9396588269631388</v>
+      </c>
+      <c r="K205">
+        <v>18</v>
+      </c>
+      <c r="L205">
+        <v>4</v>
+      </c>
+      <c r="M205">
+        <v>13.85714285714286</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P205">
+        <v>24</v>
+      </c>
+      <c r="Q205">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="R205">
+        <v>462.3153574032568</v>
+      </c>
+      <c r="S205">
+        <v>506.1039696014229</v>
+      </c>
+      <c r="T205">
+        <v>26.67960223138492</v>
+      </c>
+      <c r="U205">
+        <v>25.02407892486475</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B206">
+        <v>2568</v>
+      </c>
+      <c r="C206">
+        <v>1252</v>
+      </c>
+      <c r="D206">
+        <v>104</v>
+      </c>
+      <c r="E206">
+        <v>2350</v>
+      </c>
+      <c r="F206">
+        <v>114</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1.279401030070444</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>14.14285714285714</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>12.71428571428571</v>
+      </c>
+      <c r="R206">
+        <v>462.3153574032568</v>
+      </c>
+      <c r="S206">
+        <v>506.1039696014229</v>
+      </c>
+      <c r="T206">
+        <v>26.67960223138492</v>
+      </c>
+      <c r="U206">
+        <v>25.02407892486475</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B207">
+        <v>2584</v>
+      </c>
+      <c r="C207">
+        <v>1261</v>
+      </c>
+      <c r="D207">
+        <v>104</v>
+      </c>
+      <c r="E207">
+        <v>2369</v>
+      </c>
+      <c r="F207">
+        <v>111</v>
+      </c>
+      <c r="G207">
+        <v>-3</v>
+      </c>
+      <c r="H207">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I207">
+        <v>-2.631578947368421</v>
+      </c>
+      <c r="J207">
+        <v>0.4510696975374309</v>
+      </c>
+      <c r="K207">
+        <v>16</v>
+      </c>
+      <c r="L207">
+        <v>9</v>
+      </c>
+      <c r="M207">
+        <v>13.28571428571429</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P207">
+        <v>19</v>
+      </c>
+      <c r="Q207">
+        <v>12.71428571428571</v>
+      </c>
+      <c r="R207">
+        <v>465.195826919788</v>
+      </c>
+      <c r="S207">
+        <v>509.74209717843</v>
+      </c>
+      <c r="T207">
+        <v>20.61605626970652</v>
+      </c>
+      <c r="U207">
+        <v>19.26313989180236</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B208">
+        <v>2600</v>
+      </c>
+      <c r="C208">
+        <v>1268</v>
+      </c>
+      <c r="D208">
+        <v>104</v>
+      </c>
+      <c r="E208">
+        <v>2387</v>
+      </c>
+      <c r="F208">
+        <v>109</v>
+      </c>
+      <c r="G208">
+        <v>-2</v>
+      </c>
+      <c r="I208">
+        <v>-1.801801801801802</v>
+      </c>
+      <c r="K208">
+        <v>16</v>
+      </c>
+      <c r="L208">
+        <v>7</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>18</v>
+      </c>
+      <c r="R208">
+        <v>468.0762964363191</v>
+      </c>
+      <c r="S208">
+        <v>512.5717519605465</v>
+      </c>
+      <c r="T208">
+        <v>17.78640148758994</v>
+      </c>
+      <c r="U208">
+        <v>17.46284644397037</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B209">
+        <v>2621</v>
+      </c>
+      <c r="C209">
+        <v>1279</v>
+      </c>
+      <c r="D209">
+        <v>104</v>
+      </c>
+      <c r="E209">
+        <v>2398</v>
+      </c>
+      <c r="F209">
+        <v>119</v>
+      </c>
+      <c r="G209">
+        <v>10</v>
+      </c>
+      <c r="I209">
+        <v>9.174311926605505</v>
+      </c>
+      <c r="K209">
+        <v>21</v>
+      </c>
+      <c r="L209">
+        <v>11</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>11</v>
+      </c>
+      <c r="R209">
+        <v>471.8569126767663</v>
+      </c>
+      <c r="S209">
+        <v>517.018352332444</v>
+      </c>
+      <c r="T209">
+        <v>18.99911067992562</v>
+      </c>
+      <c r="U209">
+        <v>17.82290513353677</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B210">
+        <v>2643</v>
+      </c>
+      <c r="C210">
+        <v>1293</v>
+      </c>
+      <c r="D210">
+        <v>104</v>
+      </c>
+      <c r="E210">
+        <v>2415</v>
+      </c>
+      <c r="F210">
+        <v>124</v>
+      </c>
+      <c r="G210">
+        <v>5</v>
+      </c>
+      <c r="I210">
+        <v>4.201680672268908</v>
+      </c>
+      <c r="K210">
+        <v>22</v>
+      </c>
+      <c r="L210">
+        <v>14</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <v>17</v>
+      </c>
+      <c r="R210">
+        <v>475.8175582619967</v>
+      </c>
+      <c r="S210">
+        <v>522.6776618966771</v>
+      </c>
+      <c r="T210">
+        <v>18.19063788503517</v>
+      </c>
+      <c r="U210">
+        <v>16.74272906483757</v>
       </c>
     </row>
   </sheetData>

--- a/data/c19stats-ac-kennzahlen.xlsx
+++ b/data/c19stats-ac-kennzahlen.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U210"/>
+  <dimension ref="A1:U223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1.620264103048797</v>
+        <v>1.615723503032174</v>
       </c>
       <c r="S2">
-        <v>1.616945589780904</v>
+        <v>1.606683804627249</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.800293447831997</v>
+        <v>1.795248336702416</v>
       </c>
       <c r="S3">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -637,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2.340381482181596</v>
+        <v>2.333822837713141</v>
       </c>
       <c r="S4">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>4.320704274796792</v>
+        <v>4.308596008085798</v>
       </c>
       <c r="S5">
-        <v>3.233891179561807</v>
+        <v>3.213367609254498</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>5.940968377845588</v>
+        <v>5.924319511117973</v>
       </c>
       <c r="S6">
-        <v>4.04236397445226</v>
+        <v>4.016709511568124</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>8.821437894376784</v>
+        <v>8.79671684984184</v>
       </c>
       <c r="S7">
-        <v>5.659309564233164</v>
+        <v>5.623393316195373</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -873,16 +873,16 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="R8">
-        <v>9.901613963075981</v>
+        <v>9.873865851863288</v>
       </c>
       <c r="S8">
-        <v>6.06354596167839</v>
+        <v>6.025064267352185</v>
       </c>
       <c r="T8">
-        <v>4.446600371897486</v>
+        <v>4.418380462724936</v>
       </c>
       <c r="U8">
-        <v>8.281349860027184</v>
+        <v>8.258142348831115</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -938,16 +938,16 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="R9">
-        <v>10.26167265264238</v>
+        <v>10.23291551920377</v>
       </c>
       <c r="S9">
-        <v>8.08472794890452</v>
+        <v>8.033419023136247</v>
       </c>
       <c r="T9">
-        <v>6.467782359123615</v>
+        <v>6.426735218508997</v>
       </c>
       <c r="U9">
-        <v>8.641408549593583</v>
+        <v>8.617192016171597</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1003,16 +1003,16 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="R10">
-        <v>10.44170199742558</v>
+        <v>10.41244035287401</v>
       </c>
       <c r="S10">
-        <v>8.08472794890452</v>
+        <v>8.033419023136247</v>
       </c>
       <c r="T10">
-        <v>6.06354596167839</v>
+        <v>6.025064267352185</v>
       </c>
       <c r="U10">
-        <v>8.641408549593583</v>
+        <v>8.617192016171597</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1068,16 +1068,16 @@
         <v>3.857142857142857</v>
       </c>
       <c r="R11">
-        <v>10.98179003177518</v>
+        <v>10.95101485388474</v>
       </c>
       <c r="S11">
-        <v>8.488964346349746</v>
+        <v>8.43508997429306</v>
       </c>
       <c r="T11">
-        <v>6.467782359123615</v>
+        <v>6.426735218508997</v>
       </c>
       <c r="U11">
-        <v>8.641408549593583</v>
+        <v>8.617192016171597</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1133,16 +1133,16 @@
         <v>4</v>
       </c>
       <c r="R12">
-        <v>11.34184872134158</v>
+        <v>11.31006452122522</v>
       </c>
       <c r="S12">
-        <v>8.893200743794972</v>
+        <v>8.836760925449871</v>
       </c>
       <c r="T12">
-        <v>5.659309564233164</v>
+        <v>5.623393316195373</v>
       </c>
       <c r="U12">
-        <v>7.021144446544787</v>
+        <v>7.001468513139423</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1198,16 +1198,16 @@
         <v>4</v>
       </c>
       <c r="R13">
-        <v>12.60205413482398</v>
+        <v>12.56673835691691</v>
       </c>
       <c r="S13">
-        <v>10.10590993613065</v>
+        <v>10.04177377892031</v>
       </c>
       <c r="T13">
-        <v>6.06354596167839</v>
+        <v>6.025064267352185</v>
       </c>
       <c r="U13">
-        <v>6.661085756978387</v>
+        <v>6.642418845798939</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1263,16 +1263,16 @@
         <v>4.714285714285714</v>
       </c>
       <c r="R14">
-        <v>15.30249430657197</v>
+        <v>15.25961086197054</v>
       </c>
       <c r="S14">
-        <v>13.74403751313768</v>
+        <v>13.65681233933162</v>
       </c>
       <c r="T14">
-        <v>8.08472794890452</v>
+        <v>8.033419023136247</v>
       </c>
       <c r="U14">
-        <v>6.481056412195188</v>
+        <v>6.462894012128698</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1328,16 +1328,16 @@
         <v>3.857142857142857</v>
       </c>
       <c r="R15">
-        <v>18.00293447831996</v>
+        <v>17.95248336702416</v>
       </c>
       <c r="S15">
-        <v>16.16945589780904</v>
+        <v>16.06683804627249</v>
       </c>
       <c r="T15">
-        <v>10.10590993613065</v>
+        <v>10.04177377892031</v>
       </c>
       <c r="U15">
-        <v>8.101320515243984</v>
+        <v>8.078617515160872</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1393,16 +1393,16 @@
         <v>3.857142857142857</v>
       </c>
       <c r="R16">
-        <v>27.90454844139595</v>
+        <v>27.82634921888745</v>
       </c>
       <c r="S16">
-        <v>30.31772980839195</v>
+        <v>30.12532133676093</v>
       </c>
       <c r="T16">
-        <v>22.23300185948743</v>
+        <v>22.09190231362468</v>
       </c>
       <c r="U16">
-        <v>17.64287578875357</v>
+        <v>17.59343369968368</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1458,16 +1458,16 @@
         <v>3.857142857142857</v>
       </c>
       <c r="R17">
-        <v>30.42495926836074</v>
+        <v>30.33969689027083</v>
       </c>
       <c r="S17">
-        <v>34.36009378284421</v>
+        <v>34.14203084832905</v>
       </c>
       <c r="T17">
-        <v>26.27536583393969</v>
+        <v>26.1086118251928</v>
       </c>
       <c r="U17">
-        <v>19.98325727093516</v>
+        <v>19.92725653739682</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1523,16 +1523,16 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="R18">
-        <v>37.98619174925513</v>
+        <v>37.87973990442098</v>
       </c>
       <c r="S18">
-        <v>40.4236397445226</v>
+        <v>40.16709511568124</v>
       </c>
       <c r="T18">
-        <v>31.93467539817285</v>
+        <v>31.73200514138817</v>
       </c>
       <c r="U18">
-        <v>27.00440171747995</v>
+        <v>26.92872505053624</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1588,16 +1588,16 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="R19">
-        <v>49.1480111258135</v>
+        <v>49.01027959197595</v>
       </c>
       <c r="S19">
-        <v>52.55073166787938</v>
+        <v>52.2172236503856</v>
       </c>
       <c r="T19">
-        <v>43.6575309240844</v>
+        <v>43.38046272493573</v>
       </c>
       <c r="U19">
-        <v>37.80616240447193</v>
+        <v>37.70021507075074</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1653,16 +1653,16 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="R20">
-        <v>60.12980115758869</v>
+        <v>59.96129444586069</v>
       </c>
       <c r="S20">
-        <v>65.08205998868138</v>
+        <v>64.66902313624678</v>
       </c>
       <c r="T20">
-        <v>54.97615005255073</v>
+        <v>54.62724935732648</v>
       </c>
       <c r="U20">
-        <v>47.52774702276471</v>
+        <v>47.39455608894379</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1718,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>72.91188463719585</v>
+        <v>72.70755763644785</v>
       </c>
       <c r="S21">
-        <v>77.61338830948338</v>
+        <v>77.12082262210798</v>
       </c>
       <c r="T21">
-        <v>63.86935079634571</v>
+        <v>63.46401028277634</v>
       </c>
       <c r="U21">
-        <v>57.60939033062389</v>
+        <v>57.44794677447732</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1783,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>79.75299973895746</v>
+        <v>79.52950131591703</v>
       </c>
       <c r="S22">
-        <v>84.48540706605223</v>
+        <v>83.94922879177378</v>
       </c>
       <c r="T22">
-        <v>68.31595116824319</v>
+        <v>67.88239074550128</v>
       </c>
       <c r="U22">
-        <v>61.75006526063748</v>
+        <v>61.57701794889287</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1848,16 +1848,16 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>92.89514190813102</v>
+        <v>92.63481417384467</v>
       </c>
       <c r="S23">
-        <v>99.44215377152558</v>
+        <v>98.81105398457584</v>
       </c>
       <c r="T23">
-        <v>69.12442396313364</v>
+        <v>68.68573264781492</v>
       </c>
       <c r="U23">
-        <v>64.99059346673508</v>
+        <v>64.80846495495722</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1913,16 +1913,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>95.41555273509582</v>
+        <v>95.14816184522805</v>
       </c>
       <c r="S24">
-        <v>100.6548629638613</v>
+        <v>100.0160668380463</v>
       </c>
       <c r="T24">
-        <v>66.29476918101706</v>
+        <v>65.87403598971723</v>
       </c>
       <c r="U24">
-        <v>64.99059346673508</v>
+        <v>64.80846495495722</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1978,16 +1978,16 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>97.21584618292782</v>
+        <v>96.94341018193046</v>
       </c>
       <c r="S25">
-        <v>105.505699733204</v>
+        <v>104.836118251928</v>
       </c>
       <c r="T25">
-        <v>65.08205998868138</v>
+        <v>64.66902313624678</v>
       </c>
       <c r="U25">
-        <v>59.22965443367269</v>
+        <v>59.06367027750949</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2043,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>111.2581350760174</v>
+        <v>110.9463472082093</v>
       </c>
       <c r="S26">
-        <v>127.3344651952462</v>
+        <v>126.5263496143959</v>
       </c>
       <c r="T26">
-        <v>74.78373352736679</v>
+        <v>74.30912596401028</v>
       </c>
       <c r="U26">
-        <v>62.11012395020389</v>
+        <v>61.93606761623335</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2108,16 +2108,16 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>124.9403652795406</v>
+        <v>124.5902345671477</v>
       </c>
       <c r="S27">
-        <v>143.09968469561</v>
+        <v>142.1915167095116</v>
       </c>
       <c r="T27">
-        <v>78.01762470692861</v>
+        <v>77.52249357326478</v>
       </c>
       <c r="U27">
-        <v>64.81056412195187</v>
+        <v>64.62894012128697</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>134.3018912082669</v>
+        <v>133.9255259180002</v>
       </c>
       <c r="S28">
-        <v>151.992885439405</v>
+        <v>151.0282776349614</v>
       </c>
       <c r="T28">
-        <v>74.37949712992157</v>
+        <v>73.90745501285346</v>
       </c>
       <c r="U28">
-        <v>61.39000657107108</v>
+        <v>61.21796828155239</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2238,16 +2238,16 @@
         <v>41.28571428571428</v>
       </c>
       <c r="R29">
-        <v>141.6830943443781</v>
+        <v>141.2860440984801</v>
       </c>
       <c r="S29">
-        <v>161.2903225806452</v>
+        <v>160.2667095115681</v>
       </c>
       <c r="T29">
-        <v>76.80491551459293</v>
+        <v>76.31748071979435</v>
       </c>
       <c r="U29">
-        <v>61.93009460542068</v>
+        <v>61.75654278256311</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2303,16 +2303,16 @@
         <v>47.28571428571428</v>
       </c>
       <c r="R30">
-        <v>148.3441801013565</v>
+        <v>147.9284629442791</v>
       </c>
       <c r="S30">
-        <v>164.5242137602069</v>
+        <v>163.4800771208226</v>
       </c>
       <c r="T30">
-        <v>65.08205998868138</v>
+        <v>64.66902313624678</v>
       </c>
       <c r="U30">
-        <v>55.4490381932255</v>
+        <v>55.29364877043441</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2368,16 +2368,16 @@
         <v>57.42857142857143</v>
       </c>
       <c r="R31">
-        <v>155.3653245479013</v>
+        <v>154.9299314574185</v>
       </c>
       <c r="S31">
-        <v>173.417414504002</v>
+        <v>172.3168380462725</v>
       </c>
       <c r="T31">
-        <v>72.76255154014068</v>
+        <v>72.30077120822622</v>
       </c>
       <c r="U31">
-        <v>59.94977181280549</v>
+        <v>59.78176961219045</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2433,16 +2433,16 @@
         <v>65.85714285714286</v>
       </c>
       <c r="R32">
-        <v>165.6269972005437</v>
+        <v>165.1628469766223</v>
       </c>
       <c r="S32">
-        <v>187.1614520171396</v>
+        <v>185.9736503856041</v>
       </c>
       <c r="T32">
-        <v>81.65575228393564</v>
+        <v>81.13753213367609</v>
       </c>
       <c r="U32">
-        <v>68.41115101761588</v>
+        <v>68.2194367946918</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2498,16 +2498,16 @@
         <v>75.28571428571429</v>
       </c>
       <c r="R33">
-        <v>176.4287578875357</v>
+        <v>175.9343369968368</v>
       </c>
       <c r="S33">
-        <v>200.0970167353869</v>
+        <v>198.8271208226221</v>
       </c>
       <c r="T33">
-        <v>72.76255154014068</v>
+        <v>72.30077120822622</v>
       </c>
       <c r="U33">
-        <v>65.17062281151829</v>
+        <v>64.98798978862746</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2563,16 +2563,16 @@
         <v>77.85714285714286</v>
       </c>
       <c r="R34">
-        <v>194.6117217106388</v>
+        <v>194.0663451975312</v>
       </c>
       <c r="S34">
-        <v>224.3512005821004</v>
+        <v>222.9273778920308</v>
       </c>
       <c r="T34">
-        <v>81.25151588649042</v>
+        <v>80.73586118251929</v>
       </c>
       <c r="U34">
-        <v>69.67135643109826</v>
+        <v>69.4761106303835</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2628,16 +2628,16 @@
         <v>80.28571428571429</v>
       </c>
       <c r="R35">
-        <v>207.9338932245956</v>
+        <v>207.351182889129</v>
       </c>
       <c r="S35">
-        <v>243.350311262026</v>
+        <v>241.805912596401</v>
       </c>
       <c r="T35">
-        <v>91.35742582262107</v>
+        <v>90.77763496143959</v>
       </c>
       <c r="U35">
-        <v>73.63200201632866</v>
+        <v>73.42565697112882</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2693,16 +2693,16 @@
         <v>48.57142857142857</v>
       </c>
       <c r="R36">
-        <v>218.3755952220212</v>
+        <v>217.7636232420031</v>
       </c>
       <c r="S36">
-        <v>255.8816395828281</v>
+        <v>254.2577120822622</v>
       </c>
       <c r="T36">
-        <v>94.59131700218288</v>
+        <v>93.99100257069409</v>
       </c>
       <c r="U36">
-        <v>76.69250087764306</v>
+        <v>76.47757914352292</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2758,16 +2758,16 @@
         <v>47.85714285714285</v>
       </c>
       <c r="R37">
-        <v>226.6569450820484</v>
+        <v>226.0217655908342</v>
       </c>
       <c r="S37">
-        <v>263.1578947368421</v>
+        <v>261.4877892030848</v>
       </c>
       <c r="T37">
-        <v>98.63368097663513</v>
+        <v>98.0077120822622</v>
       </c>
       <c r="U37">
-        <v>78.31276498069185</v>
+        <v>78.09330264655509</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2823,16 +2823,16 @@
         <v>45.71428571428572</v>
       </c>
       <c r="R38">
-        <v>228.99732656423</v>
+        <v>228.3555884285473</v>
       </c>
       <c r="S38">
-        <v>265.9875495189587</v>
+        <v>264.2994858611825</v>
       </c>
       <c r="T38">
-        <v>92.57013501495675</v>
+        <v>91.98264781491002</v>
       </c>
       <c r="U38">
-        <v>73.63200201632866</v>
+        <v>73.42565697112882</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2888,16 +2888,16 @@
         <v>47.42857142857143</v>
       </c>
       <c r="R39">
-        <v>233.1380014942436</v>
+        <v>232.4846596029629</v>
       </c>
       <c r="S39">
-        <v>272.4553318780823</v>
+        <v>270.7262210796915</v>
       </c>
       <c r="T39">
-        <v>85.29387986094268</v>
+        <v>84.7525706940874</v>
       </c>
       <c r="U39">
-        <v>67.51100429369987</v>
+        <v>67.3218126263406</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2953,16 +2953,16 @@
         <v>42</v>
       </c>
       <c r="R40">
-        <v>246.100114318634</v>
+        <v>245.4104476272203</v>
       </c>
       <c r="S40">
-        <v>285.3908965963295</v>
+        <v>283.5796915167095</v>
       </c>
       <c r="T40">
-        <v>85.29387986094268</v>
+        <v>84.7525706940874</v>
       </c>
       <c r="U40">
-        <v>69.67135643109826</v>
+        <v>69.4761106303835</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3018,16 +3018,16 @@
         <v>28.42857142857143</v>
       </c>
       <c r="R41">
-        <v>256.7218456608427</v>
+        <v>256.0024128137645</v>
       </c>
       <c r="S41">
-        <v>297.9222249171315</v>
+        <v>296.0314910025707</v>
       </c>
       <c r="T41">
-        <v>73.57102433503113</v>
+        <v>73.10411311053984</v>
       </c>
       <c r="U41">
-        <v>62.11012395020389</v>
+        <v>61.93606761623335</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3083,16 +3083,16 @@
         <v>46.71428571428572</v>
       </c>
       <c r="R42">
-        <v>263.7429901073875</v>
+        <v>263.003881326904</v>
       </c>
       <c r="S42">
-        <v>304.3900072762552</v>
+        <v>302.4582262210797</v>
       </c>
       <c r="T42">
-        <v>61.03969601422912</v>
+        <v>60.65231362467866</v>
       </c>
       <c r="U42">
-        <v>55.8090968827919</v>
+        <v>55.6526984377749</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3148,16 +3148,16 @@
         <v>41</v>
       </c>
       <c r="R43">
-        <v>271.4842519330651</v>
+        <v>270.7234491747244</v>
       </c>
       <c r="S43">
-        <v>311.262026032824</v>
+        <v>309.2866323907455</v>
       </c>
       <c r="T43">
-        <v>55.38038644999595</v>
+        <v>55.02892030848329</v>
       </c>
       <c r="U43">
-        <v>53.1086567110439</v>
+        <v>52.95982593272127</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3213,16 +3213,16 @@
         <v>44.28571428571428</v>
       </c>
       <c r="R44">
-        <v>275.8049562078619</v>
+        <v>275.0320451828102</v>
       </c>
       <c r="S44">
-        <v>314.0916808149406</v>
+        <v>312.0983290488432</v>
       </c>
       <c r="T44">
-        <v>50.93378607809847</v>
+        <v>50.61053984575835</v>
       </c>
       <c r="U44">
-        <v>49.1480111258135</v>
+        <v>49.01027959197595</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3278,16 +3278,16 @@
         <v>43.28571428571428</v>
       </c>
       <c r="R45">
-        <v>278.5053963796099</v>
+        <v>277.7249176878638</v>
       </c>
       <c r="S45">
-        <v>315.3043900072763</v>
+        <v>313.3033419023137</v>
       </c>
       <c r="T45">
-        <v>49.31684048831757</v>
+        <v>49.0038560411311</v>
       </c>
       <c r="U45">
-        <v>49.5080698153799</v>
+        <v>49.36932925931644</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3343,16 +3343,16 @@
         <v>40.85714285714285</v>
       </c>
       <c r="R46">
-        <v>280.3056898274419</v>
+        <v>279.5201660245662</v>
       </c>
       <c r="S46">
-        <v>317.3255719945024</v>
+        <v>315.3116966580977</v>
       </c>
       <c r="T46">
-        <v>44.87024011642008</v>
+        <v>44.58547557840618</v>
       </c>
       <c r="U46">
-        <v>47.16768833319831</v>
+        <v>47.0355064216033</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3408,16 +3408,16 @@
         <v>43.57142857142857</v>
       </c>
       <c r="R47">
-        <v>284.986452791805</v>
+        <v>284.1878116999924</v>
       </c>
       <c r="S47">
-        <v>322.9848815587355</v>
+        <v>320.935089974293</v>
       </c>
       <c r="T47">
-        <v>37.59398496240602</v>
+        <v>37.35539845758355</v>
       </c>
       <c r="U47">
-        <v>38.88633847317113</v>
+        <v>38.77736407277219</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3473,16 +3473,16 @@
         <v>59.71428571428572</v>
       </c>
       <c r="R48">
-        <v>292.187626583133</v>
+        <v>291.3688050468021</v>
       </c>
       <c r="S48">
-        <v>327.431481930633</v>
+        <v>325.353470437018</v>
       </c>
       <c r="T48">
-        <v>29.50925701350149</v>
+        <v>29.3219794344473</v>
       </c>
       <c r="U48">
-        <v>35.46578092229034</v>
+        <v>35.36639223303759</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3538,16 +3538,16 @@
         <v>39.85714285714285</v>
       </c>
       <c r="R49">
-        <v>297.0484188922794</v>
+        <v>296.2159755558986</v>
       </c>
       <c r="S49">
-        <v>332.686555097421</v>
+        <v>330.5751928020565</v>
       </c>
       <c r="T49">
-        <v>28.29654782116582</v>
+        <v>28.11696658097686</v>
       </c>
       <c r="U49">
-        <v>33.30542878489194</v>
+        <v>33.21209422899469</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3603,16 +3603,16 @@
         <v>43.85714285714285</v>
       </c>
       <c r="R50">
-        <v>300.4689764431602</v>
+        <v>299.6269473956332</v>
       </c>
       <c r="S50">
-        <v>335.9204462769828</v>
+        <v>333.7885604113111</v>
       </c>
       <c r="T50">
-        <v>24.65842024415878</v>
+        <v>24.50192802056555</v>
       </c>
       <c r="U50">
-        <v>28.98472451009514</v>
+        <v>28.9034982209089</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3668,16 +3668,16 @@
         <v>38.85714285714285</v>
       </c>
       <c r="R51">
-        <v>304.789680717957</v>
+        <v>303.9355434037191</v>
       </c>
       <c r="S51">
-        <v>337.9416282642089</v>
+        <v>335.7969151670951</v>
       </c>
       <c r="T51">
-        <v>23.84994744926833</v>
+        <v>23.69858611825193</v>
       </c>
       <c r="U51">
-        <v>28.98472451009514</v>
+        <v>28.9034982209089</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3733,16 +3733,16 @@
         <v>38</v>
       </c>
       <c r="R52">
-        <v>307.3100915449218</v>
+        <v>306.4488910751024</v>
       </c>
       <c r="S52">
-        <v>338.7501010590993</v>
+        <v>336.6002570694087</v>
       </c>
       <c r="T52">
-        <v>23.4457110518231</v>
+        <v>23.29691516709511</v>
       </c>
       <c r="U52">
-        <v>28.80469516531194</v>
+        <v>28.72397338723866</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3798,16 +3798,16 @@
         <v>35</v>
       </c>
       <c r="R53">
-        <v>309.4704436823203</v>
+        <v>308.6031890791453</v>
       </c>
       <c r="S53">
-        <v>341.1755194437707</v>
+        <v>339.0102827763496</v>
       </c>
       <c r="T53">
-        <v>23.84994744926833</v>
+        <v>23.69858611825193</v>
       </c>
       <c r="U53">
-        <v>29.16475385487835</v>
+        <v>29.08302305457914</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3863,16 +3863,16 @@
         <v>36.14285714285715</v>
       </c>
       <c r="R54">
-        <v>315.7714707497322</v>
+        <v>314.8865582576038</v>
       </c>
       <c r="S54">
-        <v>347.2390654054491</v>
+        <v>345.0353470437018</v>
       </c>
       <c r="T54">
-        <v>24.25418384671356</v>
+        <v>24.10025706940874</v>
       </c>
       <c r="U54">
-        <v>30.78501795792714</v>
+        <v>30.69874655761132</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3928,16 +3928,16 @@
         <v>32.14285714285715</v>
       </c>
       <c r="R55">
-        <v>323.5127325754098</v>
+        <v>322.6061261054242</v>
       </c>
       <c r="S55">
-        <v>358.5576845339154</v>
+        <v>356.2821336760925</v>
       </c>
       <c r="T55">
-        <v>31.1262026032824</v>
+        <v>30.92866323907455</v>
       </c>
       <c r="U55">
-        <v>31.32510599227674</v>
+        <v>31.23732105862204</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3993,16 +3993,16 @@
         <v>33.42857142857143</v>
       </c>
       <c r="R56">
-        <v>326.2131727471578</v>
+        <v>325.2989986104778</v>
       </c>
       <c r="S56">
-        <v>362.6000485083677</v>
+        <v>360.2988431876607</v>
       </c>
       <c r="T56">
-        <v>29.91349341094672</v>
+        <v>29.72365038560411</v>
       </c>
       <c r="U56">
-        <v>29.16475385487835</v>
+        <v>29.08302305457914</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4058,16 +4058,16 @@
         <v>30.14285714285714</v>
       </c>
       <c r="R57">
-        <v>328.3735248845562</v>
+        <v>327.4532966145207</v>
       </c>
       <c r="S57">
-        <v>366.2381760853747</v>
+        <v>363.913881748072</v>
       </c>
       <c r="T57">
-        <v>30.31772980839195</v>
+        <v>30.12532133676093</v>
       </c>
       <c r="U57">
-        <v>27.90454844139595</v>
+        <v>27.82634921888745</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4123,16 +4123,16 @@
         <v>29.85714285714286</v>
       </c>
       <c r="R58">
-        <v>330.3538476771714</v>
+        <v>329.4280697848934</v>
       </c>
       <c r="S58">
-        <v>367.8551216751557</v>
+        <v>365.5205655526992</v>
       </c>
       <c r="T58">
-        <v>29.91349341094672</v>
+        <v>29.72365038560411</v>
       </c>
       <c r="U58">
-        <v>25.56416695921435</v>
+        <v>25.49252638117431</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4188,16 +4188,16 @@
         <v>30.14285714285714</v>
       </c>
       <c r="R59">
-        <v>331.0739650563042</v>
+        <v>330.1461691195743</v>
       </c>
       <c r="S59">
-        <v>369.0678308674913</v>
+        <v>366.7255784061696</v>
       </c>
       <c r="T59">
-        <v>30.31772980839195</v>
+        <v>30.12532133676093</v>
       </c>
       <c r="U59">
-        <v>23.76387351138235</v>
+        <v>23.69727804447189</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4253,16 +4253,16 @@
         <v>33.42857142857143</v>
       </c>
       <c r="R60">
-        <v>332.1541411250034</v>
+        <v>331.2233181215958</v>
       </c>
       <c r="S60">
-        <v>370.6847764572722</v>
+        <v>368.3322622107969</v>
       </c>
       <c r="T60">
-        <v>29.50925701350149</v>
+        <v>29.3219794344473</v>
       </c>
       <c r="U60">
-        <v>22.68369744268316</v>
+        <v>22.62012904245044</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4318,16 +4318,16 @@
         <v>25.57142857142857</v>
       </c>
       <c r="R61">
-        <v>333.594375883269</v>
+        <v>332.6595167909577</v>
       </c>
       <c r="S61">
-        <v>372.7059584444983</v>
+        <v>370.340616966581</v>
       </c>
       <c r="T61">
-        <v>25.46689303904924</v>
+        <v>25.30526992287918</v>
       </c>
       <c r="U61">
-        <v>17.82290513353677</v>
+        <v>17.77295853335392</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4383,16 +4383,16 @@
         <v>25.42857142857143</v>
       </c>
       <c r="R62">
-        <v>335.9347573654506</v>
+        <v>334.9933396286708</v>
       </c>
       <c r="S62">
-        <v>374.3229040342792</v>
+        <v>371.9473007712082</v>
       </c>
       <c r="T62">
-        <v>15.76521950036381</v>
+        <v>15.66516709511568</v>
       </c>
       <c r="U62">
-        <v>12.42202479004078</v>
+        <v>12.38721352324667</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4448,16 +4448,16 @@
         <v>23.28571428571428</v>
       </c>
       <c r="R63">
-        <v>338.6351975371986</v>
+        <v>337.6862121337244</v>
       </c>
       <c r="S63">
-        <v>378.7695044061767</v>
+        <v>376.3656812339331</v>
       </c>
       <c r="T63">
-        <v>16.16945589780904</v>
+        <v>16.06683804627249</v>
       </c>
       <c r="U63">
-        <v>12.42202479004078</v>
+        <v>12.38721352324667</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4513,16 +4513,16 @@
         <v>24.14285714285714</v>
       </c>
       <c r="R64">
-        <v>338.6351975371986</v>
+        <v>337.6862121337244</v>
       </c>
       <c r="S64">
-        <v>378.7695044061767</v>
+        <v>376.3656812339331</v>
       </c>
       <c r="T64">
-        <v>12.53132832080201</v>
+        <v>12.45179948586118</v>
       </c>
       <c r="U64">
-        <v>10.26167265264238</v>
+        <v>10.23291551920377</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4578,16 +4578,16 @@
         <v>24.85714285714286</v>
       </c>
       <c r="R65">
-        <v>339.3553149163314</v>
+        <v>338.4043114684054</v>
       </c>
       <c r="S65">
-        <v>377.5567952138411</v>
+        <v>375.1606683804627</v>
       </c>
       <c r="T65">
-        <v>9.701673538685423</v>
+        <v>9.640102827763497</v>
       </c>
       <c r="U65">
-        <v>9.001467239159982</v>
+        <v>8.976241683512081</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4643,16 +4643,16 @@
         <v>21</v>
       </c>
       <c r="R66">
-        <v>339.3553149163314</v>
+        <v>338.4043114684054</v>
       </c>
       <c r="S66">
-        <v>377.5567952138411</v>
+        <v>375.1606683804627</v>
       </c>
       <c r="T66">
-        <v>8.488964346349746</v>
+        <v>8.43508997429306</v>
       </c>
       <c r="U66">
-        <v>8.281349860027184</v>
+        <v>8.258142348831115</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4708,16 +4708,16 @@
         <v>15.85714285714286</v>
       </c>
       <c r="R67">
-        <v>340.2554616402473</v>
+        <v>339.3019356367566</v>
       </c>
       <c r="S67">
-        <v>377.9610316112863</v>
+        <v>375.5623393316195</v>
       </c>
       <c r="T67">
-        <v>7.276255154014067</v>
+        <v>7.230077120822623</v>
       </c>
       <c r="U67">
-        <v>8.101320515243984</v>
+        <v>8.078617515160872</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4773,16 +4773,16 @@
         <v>15.85714285714286</v>
       </c>
       <c r="R68">
-        <v>341.1556083641634</v>
+        <v>340.1995598051078</v>
       </c>
       <c r="S68">
-        <v>379.173740803622</v>
+        <v>376.76735218509</v>
       </c>
       <c r="T68">
-        <v>6.467782359123615</v>
+        <v>6.426735218508997</v>
       </c>
       <c r="U68">
-        <v>7.561232480894385</v>
+        <v>7.540043014150147</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4838,16 +4838,16 @@
         <v>17.57142857142857</v>
       </c>
       <c r="R69">
-        <v>342.595843122429</v>
+        <v>341.6357584744698</v>
       </c>
       <c r="S69">
-        <v>381.5991591882933</v>
+        <v>379.1773778920308</v>
       </c>
       <c r="T69">
-        <v>7.276255154014067</v>
+        <v>7.230077120822623</v>
       </c>
       <c r="U69">
-        <v>6.661085756978387</v>
+        <v>6.642418845798939</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4903,16 +4903,16 @@
         <v>17.57142857142857</v>
       </c>
       <c r="R70">
-        <v>343.6760191911281</v>
+        <v>342.7129074764912</v>
       </c>
       <c r="S70">
-        <v>382.811868380629</v>
+        <v>380.3823907455013</v>
       </c>
       <c r="T70">
-        <v>4.04236397445226</v>
+        <v>4.016709511568124</v>
       </c>
       <c r="U70">
-        <v>5.040821653929591</v>
+        <v>5.026695342766765</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4968,16 +4968,16 @@
         <v>14.28571428571429</v>
       </c>
       <c r="R71">
-        <v>343.6760191911281</v>
+        <v>342.7129074764912</v>
       </c>
       <c r="S71">
-        <v>382.811868380629</v>
+        <v>380.3823907455013</v>
       </c>
       <c r="T71">
-        <v>4.04236397445226</v>
+        <v>4.016709511568124</v>
       </c>
       <c r="U71">
-        <v>5.040821653929591</v>
+        <v>5.026695342766765</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5033,16 +5033,16 @@
         <v>11.28571428571429</v>
       </c>
       <c r="R72">
-        <v>346.3764593628761</v>
+        <v>345.4057799815449</v>
       </c>
       <c r="S72">
-        <v>386.449995957636</v>
+        <v>383.9974293059126</v>
       </c>
       <c r="T72">
-        <v>8.893200743794972</v>
+        <v>8.836760925449871</v>
       </c>
       <c r="U72">
-        <v>7.021144446544787</v>
+        <v>7.001468513139423</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5098,16 +5098,16 @@
         <v>10.14285714285714</v>
       </c>
       <c r="R73">
-        <v>346.3764593628761</v>
+        <v>345.4057799815449</v>
       </c>
       <c r="S73">
-        <v>386.449995957636</v>
+        <v>383.9974293059126</v>
       </c>
       <c r="T73">
-        <v>8.893200743794972</v>
+        <v>8.836760925449871</v>
       </c>
       <c r="U73">
-        <v>7.021144446544787</v>
+        <v>7.001468513139423</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5163,16 +5163,16 @@
         <v>8.857142857142858</v>
       </c>
       <c r="R74">
-        <v>347.2766060867921</v>
+        <v>346.303404149896</v>
       </c>
       <c r="S74">
-        <v>387.6627051499717</v>
+        <v>385.2024421593831</v>
       </c>
       <c r="T74">
-        <v>9.701673538685423</v>
+        <v>9.640102827763497</v>
       </c>
       <c r="U74">
-        <v>7.021144446544787</v>
+        <v>7.001468513139423</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5228,16 +5228,16 @@
         <v>8.857142857142858</v>
       </c>
       <c r="R75">
-        <v>348.1767528107081</v>
+        <v>347.2010283182473</v>
       </c>
       <c r="S75">
-        <v>388.0669415474169</v>
+        <v>385.6041131105399</v>
       </c>
       <c r="T75">
-        <v>8.893200743794972</v>
+        <v>8.836760925449871</v>
       </c>
       <c r="U75">
-        <v>7.021144446544787</v>
+        <v>7.001468513139423</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5293,16 +5293,16 @@
         <v>9</v>
       </c>
       <c r="R76">
-        <v>349.4369582241906</v>
+        <v>348.457702153939</v>
       </c>
       <c r="S76">
-        <v>389.6838871371978</v>
+        <v>387.2107969151671</v>
       </c>
       <c r="T76">
-        <v>8.08472794890452</v>
+        <v>8.033419023136247</v>
       </c>
       <c r="U76">
-        <v>6.841115101761587</v>
+        <v>6.821943679469181</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5358,16 +5358,16 @@
         <v>9</v>
       </c>
       <c r="R77">
-        <v>350.1570756033233</v>
+        <v>349.1758014886199</v>
       </c>
       <c r="S77">
-        <v>389.6838871371978</v>
+        <v>387.2107969151671</v>
       </c>
       <c r="T77">
-        <v>6.872018756568841</v>
+        <v>6.82840616966581</v>
       </c>
       <c r="U77">
-        <v>6.481056412195188</v>
+        <v>6.462894012128698</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5423,16 +5423,16 @@
         <v>7.857142857142857</v>
       </c>
       <c r="R78">
-        <v>350.1570756033233</v>
+        <v>349.1758014886199</v>
       </c>
       <c r="S78">
-        <v>389.6838871371978</v>
+        <v>387.2107969151671</v>
       </c>
       <c r="T78">
-        <v>6.872018756568841</v>
+        <v>6.82840616966581</v>
       </c>
       <c r="U78">
-        <v>6.481056412195188</v>
+        <v>6.462894012128698</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5488,16 +5488,16 @@
         <v>8.285714285714286</v>
       </c>
       <c r="R79">
-        <v>351.2372516720225</v>
+        <v>350.2529504906414</v>
       </c>
       <c r="S79">
-        <v>391.3008327269787</v>
+        <v>388.8174807197943</v>
       </c>
       <c r="T79">
-        <v>4.850836769342711</v>
+        <v>4.820051413881749</v>
       </c>
       <c r="U79">
-        <v>4.860792309146391</v>
+        <v>4.847170509096523</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5553,16 +5553,16 @@
         <v>8.714285714285714</v>
       </c>
       <c r="R80">
-        <v>351.2372516720225</v>
+        <v>350.2529504906414</v>
       </c>
       <c r="S80">
-        <v>391.3008327269787</v>
+        <v>388.8174807197943</v>
       </c>
       <c r="T80">
-        <v>4.850836769342711</v>
+        <v>4.820051413881749</v>
       </c>
       <c r="U80">
-        <v>4.860792309146391</v>
+        <v>4.847170509096523</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5618,16 +5618,16 @@
         <v>7.142857142857143</v>
       </c>
       <c r="R81">
-        <v>351.4172810168058</v>
+        <v>350.4324753243116</v>
       </c>
       <c r="S81">
-        <v>391.3008327269787</v>
+        <v>388.8174807197943</v>
       </c>
       <c r="T81">
-        <v>3.638127577007034</v>
+        <v>3.615038560411311</v>
       </c>
       <c r="U81">
-        <v>4.140674930013592</v>
+        <v>4.129071174415557</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5683,16 +5683,16 @@
         <v>7.142857142857143</v>
       </c>
       <c r="R82">
-        <v>352.4974570855049</v>
+        <v>351.509624326333</v>
       </c>
       <c r="S82">
-        <v>392.5135419193144</v>
+        <v>390.0224935732648</v>
       </c>
       <c r="T82">
-        <v>4.446600371897486</v>
+        <v>4.418380462724936</v>
       </c>
       <c r="U82">
-        <v>4.320704274796792</v>
+        <v>4.308596008085798</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5748,16 +5748,16 @@
         <v>6.428571428571429</v>
       </c>
       <c r="R83">
-        <v>352.8575157750714</v>
+        <v>351.8686739936736</v>
       </c>
       <c r="S83">
-        <v>392.5135419193144</v>
+        <v>390.0224935732648</v>
       </c>
       <c r="T83">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U83">
-        <v>3.420557550880793</v>
+        <v>3.410971839734591</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5813,16 +5813,16 @@
         <v>6.428571428571429</v>
       </c>
       <c r="R84">
-        <v>352.8575157750714</v>
+        <v>351.8686739936736</v>
       </c>
       <c r="S84">
-        <v>392.5135419193144</v>
+        <v>390.0224935732648</v>
       </c>
       <c r="T84">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U84">
-        <v>2.700440171747995</v>
+        <v>2.692872505053624</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5878,16 +5878,16 @@
         <v>6.857142857142857</v>
       </c>
       <c r="R85">
-        <v>352.8575157750714</v>
+        <v>351.8686739936736</v>
       </c>
       <c r="S85">
-        <v>392.5135419193144</v>
+        <v>390.0224935732648</v>
       </c>
       <c r="T85">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U85">
-        <v>2.700440171747995</v>
+        <v>2.692872505053624</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5943,16 +5943,16 @@
         <v>6.428571428571429</v>
       </c>
       <c r="R86">
-        <v>352.8575157750714</v>
+        <v>351.8686739936736</v>
       </c>
       <c r="S86">
-        <v>392.5135419193144</v>
+        <v>390.0224935732648</v>
       </c>
       <c r="T86">
-        <v>1.212709192335678</v>
+        <v>1.205012853470437</v>
       </c>
       <c r="U86">
-        <v>1.620264103048797</v>
+        <v>1.615723503032174</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -6008,16 +6008,16 @@
         <v>5</v>
       </c>
       <c r="R87">
-        <v>352.8575157750714</v>
+        <v>351.8686739936736</v>
       </c>
       <c r="S87">
-        <v>392.5135419193144</v>
+        <v>390.0224935732648</v>
       </c>
       <c r="T87">
-        <v>1.212709192335678</v>
+        <v>1.205012853470437</v>
       </c>
       <c r="U87">
-        <v>1.620264103048797</v>
+        <v>1.615723503032174</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -6073,16 +6073,16 @@
         <v>5.142857142857143</v>
       </c>
       <c r="R88">
-        <v>352.8575157750714</v>
+        <v>351.8686739936736</v>
       </c>
       <c r="S88">
-        <v>392.5135419193144</v>
+        <v>390.0224935732648</v>
       </c>
       <c r="T88">
-        <v>1.212709192335678</v>
+        <v>1.205012853470437</v>
       </c>
       <c r="U88">
-        <v>1.440234758265597</v>
+        <v>1.436198669361933</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -6138,16 +6138,16 @@
         <v>5.142857142857143</v>
       </c>
       <c r="R89">
-        <v>353.2175744646377</v>
+        <v>352.227723661014</v>
       </c>
       <c r="S89">
-        <v>393.3220147142049</v>
+        <v>390.8258354755784</v>
       </c>
       <c r="T89">
-        <v>0.8084727948904519</v>
+        <v>0.8033419023136246</v>
       </c>
       <c r="U89">
-        <v>0.7201173791327986</v>
+        <v>0.7180993346809664</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6203,16 +6203,16 @@
         <v>3.857142857142857</v>
       </c>
       <c r="R90">
-        <v>353.5776331542041</v>
+        <v>352.5867733283545</v>
       </c>
       <c r="S90">
-        <v>394.1304875090954</v>
+        <v>391.629177377892</v>
       </c>
       <c r="T90">
-        <v>1.616945589780904</v>
+        <v>1.606683804627249</v>
       </c>
       <c r="U90">
-        <v>0.7201173791327986</v>
+        <v>0.7180993346809664</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -6268,16 +6268,16 @@
         <v>3.857142857142857</v>
       </c>
       <c r="R91">
-        <v>354.1177211885537</v>
+        <v>353.1253478293652</v>
       </c>
       <c r="S91">
-        <v>395.343196701431</v>
+        <v>392.8341902313625</v>
       </c>
       <c r="T91">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U91">
-        <v>1.260205413482398</v>
+        <v>1.256673835691691</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6333,16 +6333,16 @@
         <v>2.428571428571428</v>
       </c>
       <c r="R92">
-        <v>354.1177211885537</v>
+        <v>353.1253478293652</v>
       </c>
       <c r="S92">
-        <v>395.343196701431</v>
+        <v>392.8341902313625</v>
       </c>
       <c r="T92">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U92">
-        <v>1.260205413482398</v>
+        <v>1.256673835691691</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6398,16 +6398,16 @@
         <v>1.714285714285714</v>
       </c>
       <c r="R93">
-        <v>354.8378385676866</v>
+        <v>353.8434471640462</v>
       </c>
       <c r="S93">
-        <v>396.9601422912119</v>
+        <v>394.4408740359897</v>
       </c>
       <c r="T93">
-        <v>4.446600371897486</v>
+        <v>4.418380462724936</v>
       </c>
       <c r="U93">
-        <v>1.980322792615196</v>
+        <v>1.974773170372658</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6463,16 +6463,16 @@
         <v>1.428571428571429</v>
       </c>
       <c r="R94">
-        <v>354.8378385676866</v>
+        <v>353.8434471640462</v>
       </c>
       <c r="S94">
-        <v>396.9601422912119</v>
+        <v>394.4408740359897</v>
       </c>
       <c r="T94">
-        <v>4.446600371897486</v>
+        <v>4.418380462724936</v>
       </c>
       <c r="U94">
-        <v>1.980322792615196</v>
+        <v>1.974773170372658</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6528,16 +6528,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R95">
-        <v>354.8378385676866</v>
+        <v>353.8434471640462</v>
       </c>
       <c r="S95">
-        <v>396.9601422912119</v>
+        <v>394.4408740359897</v>
       </c>
       <c r="T95">
-        <v>4.446600371897486</v>
+        <v>4.418380462724936</v>
       </c>
       <c r="U95">
-        <v>1.980322792615196</v>
+        <v>1.974773170372658</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6593,16 +6593,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R96">
-        <v>355.0178679124697</v>
+        <v>354.0229719977165</v>
       </c>
       <c r="S96">
-        <v>397.3643786886572</v>
+        <v>394.8425449871465</v>
       </c>
       <c r="T96">
-        <v>4.04236397445226</v>
+        <v>4.016709511568124</v>
       </c>
       <c r="U96">
-        <v>1.800293447831997</v>
+        <v>1.795248336702416</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6658,16 +6658,16 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="R97">
-        <v>355.5579559468193</v>
+        <v>354.5615464987272</v>
       </c>
       <c r="S97">
-        <v>397.3643786886572</v>
+        <v>394.8425449871465</v>
       </c>
       <c r="T97">
-        <v>3.233891179561807</v>
+        <v>3.213367609254498</v>
       </c>
       <c r="U97">
-        <v>1.980322792615196</v>
+        <v>1.974773170372658</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6723,16 +6723,16 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="R98">
-        <v>355.7379852916025</v>
+        <v>354.7410713323974</v>
       </c>
       <c r="S98">
-        <v>397.3643786886572</v>
+        <v>394.8425449871465</v>
       </c>
       <c r="T98">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
       <c r="U98">
-        <v>1.620264103048797</v>
+        <v>1.615723503032174</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6788,16 +6788,16 @@
         <v>1</v>
       </c>
       <c r="R99">
-        <v>355.7379852916025</v>
+        <v>354.7410713323974</v>
       </c>
       <c r="S99">
-        <v>397.3643786886572</v>
+        <v>394.8425449871465</v>
       </c>
       <c r="T99">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
       <c r="U99">
-        <v>1.620264103048797</v>
+        <v>1.615723503032174</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6853,16 +6853,16 @@
         <v>1</v>
       </c>
       <c r="R100">
-        <v>356.2780733259522</v>
+        <v>355.2796458334081</v>
       </c>
       <c r="S100">
-        <v>396.9601422912119</v>
+        <v>394.4408740359897</v>
       </c>
       <c r="T100">
         <v>0</v>
       </c>
       <c r="U100">
-        <v>1.440234758265597</v>
+        <v>1.436198669361933</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6918,16 +6918,16 @@
         <v>1.428571428571429</v>
       </c>
       <c r="R101">
-        <v>356.2780733259522</v>
+        <v>355.2796458334081</v>
       </c>
       <c r="S101">
-        <v>396.9601422912119</v>
+        <v>394.4408740359897</v>
       </c>
       <c r="T101">
         <v>0</v>
       </c>
       <c r="U101">
-        <v>1.440234758265597</v>
+        <v>1.436198669361933</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6983,16 +6983,16 @@
         <v>1.428571428571429</v>
       </c>
       <c r="R102">
-        <v>356.2780733259522</v>
+        <v>355.2796458334081</v>
       </c>
       <c r="S102">
-        <v>396.9601422912119</v>
+        <v>394.4408740359897</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>1.440234758265597</v>
+        <v>1.436198669361933</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -7048,16 +7048,16 @@
         <v>1.428571428571429</v>
       </c>
       <c r="R103">
-        <v>356.4581026707353</v>
+        <v>355.4591706670784</v>
       </c>
       <c r="S103">
-        <v>397.3643786886572</v>
+        <v>394.8425449871465</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>1.440234758265597</v>
+        <v>1.436198669361933</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -7113,16 +7113,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R104">
-        <v>356.8181613603018</v>
+        <v>355.8182203344189</v>
       </c>
       <c r="S104">
-        <v>397.7686150861023</v>
+        <v>395.2442159383033</v>
       </c>
       <c r="T104">
-        <v>0.4042363974452259</v>
+        <v>0.4016709511568123</v>
       </c>
       <c r="U104">
-        <v>1.260205413482398</v>
+        <v>1.256673835691691</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -7178,16 +7178,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R105">
-        <v>356.8181613603018</v>
+        <v>355.8182203344189</v>
       </c>
       <c r="S105">
-        <v>397.7686150861023</v>
+        <v>395.2442159383033</v>
       </c>
       <c r="T105">
-        <v>0.4042363974452259</v>
+        <v>0.4016709511568123</v>
       </c>
       <c r="U105">
-        <v>1.080176068699198</v>
+        <v>1.07714900202145</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -7243,16 +7243,16 @@
         <v>1.142857142857143</v>
       </c>
       <c r="R106">
-        <v>356.8181613603018</v>
+        <v>355.8182203344189</v>
       </c>
       <c r="S106">
-        <v>397.7686150861023</v>
+        <v>395.2442159383033</v>
       </c>
       <c r="T106">
-        <v>0.4042363974452259</v>
+        <v>0.4016709511568123</v>
       </c>
       <c r="U106">
-        <v>1.080176068699198</v>
+        <v>1.07714900202145</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -7308,16 +7308,16 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="R107">
-        <v>356.8181613603018</v>
+        <v>355.8182203344189</v>
       </c>
       <c r="S107">
-        <v>397.7686150861023</v>
+        <v>395.2442159383033</v>
       </c>
       <c r="T107">
-        <v>0.8084727948904519</v>
+        <v>0.8033419023136246</v>
       </c>
       <c r="U107">
-        <v>0.540088034349599</v>
+        <v>0.5385745010107248</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -7373,16 +7373,16 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="R108">
-        <v>356.8181613603018</v>
+        <v>355.8182203344189</v>
       </c>
       <c r="S108">
-        <v>397.7686150861023</v>
+        <v>395.2442159383033</v>
       </c>
       <c r="T108">
-        <v>0.8084727948904519</v>
+        <v>0.8033419023136246</v>
       </c>
       <c r="U108">
-        <v>0.540088034349599</v>
+        <v>0.5385745010107248</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7438,16 +7438,16 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="R109">
-        <v>357.3582493946513</v>
+        <v>356.3567948354296</v>
       </c>
       <c r="S109">
-        <v>398.1728514835476</v>
+        <v>395.6458868894601</v>
       </c>
       <c r="T109">
-        <v>1.212709192335678</v>
+        <v>1.205012853470437</v>
       </c>
       <c r="U109">
-        <v>1.080176068699198</v>
+        <v>1.07714900202145</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7503,16 +7503,16 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="R110">
-        <v>357.3582493946513</v>
+        <v>356.3567948354296</v>
       </c>
       <c r="S110">
-        <v>398.1728514835476</v>
+        <v>395.6458868894601</v>
       </c>
       <c r="T110">
-        <v>0.8084727948904519</v>
+        <v>0.8033419023136246</v>
       </c>
       <c r="U110">
-        <v>0.9001467239159983</v>
+        <v>0.8976241683512081</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7568,16 +7568,16 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="R111">
-        <v>358.4384254633505</v>
+        <v>357.4339438374511</v>
       </c>
       <c r="S111">
-        <v>399.3855606758833</v>
+        <v>396.8508997429306</v>
       </c>
       <c r="T111">
-        <v>1.616945589780904</v>
+        <v>1.606683804627249</v>
       </c>
       <c r="U111">
-        <v>1.620264103048797</v>
+        <v>1.615723503032174</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7633,16 +7633,16 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="R112">
-        <v>358.4384254633505</v>
+        <v>357.4339438374511</v>
       </c>
       <c r="S112">
-        <v>399.3855606758833</v>
+        <v>396.8508997429306</v>
       </c>
       <c r="T112">
-        <v>1.616945589780904</v>
+        <v>1.606683804627249</v>
       </c>
       <c r="U112">
-        <v>1.620264103048797</v>
+        <v>1.615723503032174</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7698,16 +7698,16 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="R113">
-        <v>358.4384254633505</v>
+        <v>357.4339438374511</v>
       </c>
       <c r="S113">
-        <v>399.3855606758833</v>
+        <v>396.8508997429306</v>
       </c>
       <c r="T113">
-        <v>1.616945589780904</v>
+        <v>1.606683804627249</v>
       </c>
       <c r="U113">
-        <v>1.620264103048797</v>
+        <v>1.615723503032174</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7763,16 +7763,16 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="R114">
-        <v>358.9785134977001</v>
+        <v>357.9725183384618</v>
       </c>
       <c r="S114">
-        <v>399.7897970733285</v>
+        <v>397.2525706940874</v>
       </c>
       <c r="T114">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
       <c r="U114">
-        <v>2.160352137398396</v>
+        <v>2.154298004042899</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7828,16 +7828,16 @@
         <v>1</v>
       </c>
       <c r="R115">
-        <v>358.9785134977001</v>
+        <v>357.9725183384618</v>
       </c>
       <c r="S115">
-        <v>399.7897970733285</v>
+        <v>397.2525706940874</v>
       </c>
       <c r="T115">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
       <c r="U115">
-        <v>2.160352137398396</v>
+        <v>2.154298004042899</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7893,16 +7893,16 @@
         <v>1</v>
       </c>
       <c r="R116">
-        <v>359.5186015320497</v>
+        <v>358.5110928394724</v>
       </c>
       <c r="S116">
-        <v>401.0025062656642</v>
+        <v>398.4575835475578</v>
       </c>
       <c r="T116">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U116">
-        <v>2.160352137398396</v>
+        <v>2.154298004042899</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7958,16 +7958,16 @@
         <v>1</v>
       </c>
       <c r="R117">
-        <v>359.5186015320497</v>
+        <v>358.5110928394724</v>
       </c>
       <c r="S117">
-        <v>401.0025062656642</v>
+        <v>398.4575835475578</v>
       </c>
       <c r="T117">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U117">
-        <v>2.160352137398396</v>
+        <v>2.154298004042899</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -8023,16 +8023,16 @@
         <v>1.142857142857143</v>
       </c>
       <c r="R118">
-        <v>359.8786602216161</v>
+        <v>358.870142506813</v>
       </c>
       <c r="S118">
-        <v>401.8109790605546</v>
+        <v>399.2609254498715</v>
       </c>
       <c r="T118">
-        <v>2.425418384671356</v>
+        <v>2.410025706940874</v>
       </c>
       <c r="U118">
-        <v>1.440234758265597</v>
+        <v>1.436198669361933</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -8088,16 +8088,16 @@
         <v>1.142857142857143</v>
       </c>
       <c r="R119">
-        <v>359.8786602216161</v>
+        <v>358.870142506813</v>
       </c>
       <c r="S119">
-        <v>401.8109790605546</v>
+        <v>399.2609254498715</v>
       </c>
       <c r="T119">
-        <v>2.425418384671356</v>
+        <v>2.410025706940874</v>
       </c>
       <c r="U119">
-        <v>1.440234758265597</v>
+        <v>1.436198669361933</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -8153,16 +8153,16 @@
         <v>2</v>
       </c>
       <c r="R120">
-        <v>359.8786602216161</v>
+        <v>358.870142506813</v>
       </c>
       <c r="S120">
-        <v>401.8109790605546</v>
+        <v>399.2609254498715</v>
       </c>
       <c r="T120">
-        <v>2.425418384671356</v>
+        <v>2.410025706940874</v>
       </c>
       <c r="U120">
-        <v>1.440234758265597</v>
+        <v>1.436198669361933</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -8218,16 +8218,16 @@
         <v>2</v>
       </c>
       <c r="R121">
-        <v>360.2387189111825</v>
+        <v>359.2291921741535</v>
       </c>
       <c r="S121">
-        <v>402.619451855445</v>
+        <v>400.0642673521851</v>
       </c>
       <c r="T121">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U121">
-        <v>1.260205413482398</v>
+        <v>1.256673835691691</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -8283,16 +8283,16 @@
         <v>2.571428571428572</v>
       </c>
       <c r="R122">
-        <v>360.2387189111825</v>
+        <v>359.2291921741535</v>
       </c>
       <c r="S122">
-        <v>402.619451855445</v>
+        <v>400.0642673521851</v>
       </c>
       <c r="T122">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U122">
-        <v>1.260205413482398</v>
+        <v>1.256673835691691</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -8348,16 +8348,16 @@
         <v>2.571428571428572</v>
       </c>
       <c r="R123">
-        <v>360.7788069455321</v>
+        <v>359.7677666751642</v>
       </c>
       <c r="S123">
-        <v>403.4279246503355</v>
+        <v>400.8676092544987</v>
       </c>
       <c r="T123">
-        <v>2.425418384671356</v>
+        <v>2.410025706940874</v>
       </c>
       <c r="U123">
-        <v>1.260205413482398</v>
+        <v>1.256673835691691</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -8413,16 +8413,16 @@
         <v>2.571428571428572</v>
       </c>
       <c r="R124">
-        <v>360.7788069455321</v>
+        <v>359.7677666751642</v>
       </c>
       <c r="S124">
-        <v>403.4279246503355</v>
+        <v>400.8676092544987</v>
       </c>
       <c r="T124">
-        <v>2.425418384671356</v>
+        <v>2.410025706940874</v>
       </c>
       <c r="U124">
-        <v>1.260205413482398</v>
+        <v>1.256673835691691</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -8478,16 +8478,16 @@
         <v>2.428571428571428</v>
       </c>
       <c r="R125">
-        <v>361.6789536694481</v>
+        <v>360.6653908435154</v>
       </c>
       <c r="S125">
-        <v>403.8321610477807</v>
+        <v>401.2692802056555</v>
       </c>
       <c r="T125">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
       <c r="U125">
-        <v>1.800293447831997</v>
+        <v>1.795248336702416</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8543,16 +8543,16 @@
         <v>2.428571428571428</v>
       </c>
       <c r="R126">
-        <v>361.6789536694481</v>
+        <v>360.6653908435154</v>
       </c>
       <c r="S126">
-        <v>403.8321610477807</v>
+        <v>401.2692802056555</v>
       </c>
       <c r="T126">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
       <c r="U126">
-        <v>1.800293447831997</v>
+        <v>1.795248336702416</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8608,16 +8608,16 @@
         <v>1.428571428571429</v>
       </c>
       <c r="R127">
-        <v>361.6789536694481</v>
+        <v>360.6653908435154</v>
       </c>
       <c r="S127">
-        <v>403.8321610477807</v>
+        <v>401.2692802056555</v>
       </c>
       <c r="T127">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
       <c r="U127">
-        <v>1.800293447831997</v>
+        <v>1.795248336702416</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8673,16 +8673,16 @@
         <v>1.428571428571429</v>
       </c>
       <c r="R128">
-        <v>361.8589830142313</v>
+        <v>360.8449156771857</v>
       </c>
       <c r="S128">
-        <v>403.8321610477807</v>
+        <v>401.2692802056555</v>
       </c>
       <c r="T128">
-        <v>1.212709192335678</v>
+        <v>1.205012853470437</v>
       </c>
       <c r="U128">
-        <v>1.620264103048797</v>
+        <v>1.615723503032174</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8738,16 +8738,16 @@
         <v>1.428571428571429</v>
       </c>
       <c r="R129">
-        <v>361.8589830142313</v>
+        <v>360.8449156771857</v>
       </c>
       <c r="S129">
-        <v>403.8321610477807</v>
+        <v>401.2692802056555</v>
       </c>
       <c r="T129">
-        <v>1.212709192335678</v>
+        <v>1.205012853470437</v>
       </c>
       <c r="U129">
-        <v>1.620264103048797</v>
+        <v>1.615723503032174</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8803,16 +8803,16 @@
         <v>1.428571428571429</v>
       </c>
       <c r="R130">
-        <v>361.8589830142313</v>
+        <v>360.8449156771857</v>
       </c>
       <c r="S130">
-        <v>403.8321610477807</v>
+        <v>401.2692802056555</v>
       </c>
       <c r="T130">
-        <v>0.4042363974452259</v>
+        <v>0.4016709511568123</v>
       </c>
       <c r="U130">
-        <v>1.080176068699198</v>
+        <v>1.07714900202145</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8868,16 +8868,16 @@
         <v>1.428571428571429</v>
       </c>
       <c r="R131">
-        <v>361.8589830142313</v>
+        <v>360.8449156771857</v>
       </c>
       <c r="S131">
-        <v>403.8321610477807</v>
+        <v>401.2692802056555</v>
       </c>
       <c r="T131">
-        <v>0.4042363974452259</v>
+        <v>0.4016709511568123</v>
       </c>
       <c r="U131">
-        <v>1.080176068699198</v>
+        <v>1.07714900202145</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8933,16 +8933,16 @@
         <v>1.142857142857143</v>
       </c>
       <c r="R132">
-        <v>362.0390123590145</v>
+        <v>361.0244405108559</v>
       </c>
       <c r="S132">
-        <v>403.8321610477807</v>
+        <v>401.2692802056555</v>
       </c>
       <c r="T132">
         <v>0</v>
       </c>
       <c r="U132">
-        <v>0.3600586895663993</v>
+        <v>0.3590496673404832</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8998,16 +8998,16 @@
         <v>1.142857142857143</v>
       </c>
       <c r="R133">
-        <v>362.0390123590145</v>
+        <v>361.0244405108559</v>
       </c>
       <c r="S133">
-        <v>403.8321610477807</v>
+        <v>401.2692802056555</v>
       </c>
       <c r="T133">
         <v>0</v>
       </c>
       <c r="U133">
-        <v>0.3600586895663993</v>
+        <v>0.3590496673404832</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -9063,16 +9063,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R134">
-        <v>362.0390123590145</v>
+        <v>361.0244405108559</v>
       </c>
       <c r="S134">
-        <v>403.8321610477807</v>
+        <v>401.2692802056555</v>
       </c>
       <c r="T134">
         <v>0</v>
       </c>
       <c r="U134">
-        <v>0.3600586895663993</v>
+        <v>0.3590496673404832</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -9128,16 +9128,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R135">
-        <v>363.8393058068465</v>
+        <v>362.8196888475583</v>
       </c>
       <c r="S135">
-        <v>405.0448702401164</v>
+        <v>402.474293059126</v>
       </c>
       <c r="T135">
-        <v>1.212709192335678</v>
+        <v>1.205012853470437</v>
       </c>
       <c r="U135">
-        <v>1.980322792615196</v>
+        <v>1.974773170372658</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -9193,16 +9193,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R136">
-        <v>363.8393058068465</v>
+        <v>362.8196888475583</v>
       </c>
       <c r="S136">
-        <v>405.0448702401164</v>
+        <v>402.474293059126</v>
       </c>
       <c r="T136">
-        <v>1.212709192335678</v>
+        <v>1.205012853470437</v>
       </c>
       <c r="U136">
-        <v>1.980322792615196</v>
+        <v>1.974773170372658</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -9258,16 +9258,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R137">
-        <v>364.5594231859793</v>
+        <v>363.5377881822392</v>
       </c>
       <c r="S137">
-        <v>405.8533430350068</v>
+        <v>403.2776349614396</v>
       </c>
       <c r="T137">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
       <c r="U137">
-        <v>2.700440171747995</v>
+        <v>2.692872505053624</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -9323,16 +9323,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R138">
-        <v>364.5594231859793</v>
+        <v>363.5377881822392</v>
       </c>
       <c r="S138">
-        <v>405.8533430350068</v>
+        <v>403.2776349614396</v>
       </c>
       <c r="T138">
-        <v>2.02118198722613</v>
+        <v>2.008354755784062</v>
       </c>
       <c r="U138">
-        <v>2.700440171747995</v>
+        <v>2.692872505053624</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -9388,16 +9388,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R139">
-        <v>365.4595699098953</v>
+        <v>364.4354123505905</v>
       </c>
       <c r="S139">
-        <v>407.0660522273425</v>
+        <v>404.4826478149101</v>
       </c>
       <c r="T139">
-        <v>3.233891179561807</v>
+        <v>3.213367609254498</v>
       </c>
       <c r="U139">
-        <v>3.420557550880793</v>
+        <v>3.410971839734591</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -9453,16 +9453,16 @@
         <v>1.285714285714286</v>
       </c>
       <c r="R140">
-        <v>365.4595699098953</v>
+        <v>364.4354123505905</v>
       </c>
       <c r="S140">
-        <v>407.0660522273425</v>
+        <v>404.4826478149101</v>
       </c>
       <c r="T140">
-        <v>3.233891179561807</v>
+        <v>3.213367609254498</v>
       </c>
       <c r="U140">
-        <v>3.420557550880793</v>
+        <v>3.410971839734591</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -9518,16 +9518,16 @@
         <v>1.571428571428571</v>
       </c>
       <c r="R141">
-        <v>365.4595699098953</v>
+        <v>364.4354123505905</v>
       </c>
       <c r="S141">
-        <v>407.0660522273425</v>
+        <v>404.4826478149101</v>
       </c>
       <c r="T141">
-        <v>3.233891179561807</v>
+        <v>3.213367609254498</v>
       </c>
       <c r="U141">
-        <v>3.420557550880793</v>
+        <v>3.410971839734591</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -9583,16 +9583,16 @@
         <v>1.571428571428571</v>
       </c>
       <c r="R142">
-        <v>366.7197753233777</v>
+        <v>365.6920861862822</v>
       </c>
       <c r="S142">
-        <v>407.4702886247878</v>
+        <v>404.8843187660668</v>
       </c>
       <c r="T142">
-        <v>2.425418384671356</v>
+        <v>2.410025706940874</v>
       </c>
       <c r="U142">
-        <v>2.880469516531194</v>
+        <v>2.872397338723866</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9648,16 +9648,16 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="R143">
-        <v>366.7197753233777</v>
+        <v>365.6920861862822</v>
       </c>
       <c r="S143">
-        <v>407.4702886247878</v>
+        <v>404.8843187660668</v>
       </c>
       <c r="T143">
-        <v>2.425418384671356</v>
+        <v>2.410025706940874</v>
       </c>
       <c r="U143">
-        <v>2.880469516531194</v>
+        <v>2.872397338723866</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9713,16 +9713,16 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="R144">
-        <v>367.9799807368601</v>
+        <v>366.9487600219738</v>
       </c>
       <c r="S144">
-        <v>408.2787614196782</v>
+        <v>405.6876606683805</v>
       </c>
       <c r="T144">
-        <v>2.425418384671356</v>
+        <v>2.410025706940874</v>
       </c>
       <c r="U144">
-        <v>3.420557550880793</v>
+        <v>3.410971839734591</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9778,16 +9778,16 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="R145">
-        <v>367.9799807368601</v>
+        <v>366.9487600219738</v>
       </c>
       <c r="S145">
-        <v>408.2787614196782</v>
+        <v>405.6876606683805</v>
       </c>
       <c r="T145">
-        <v>2.425418384671356</v>
+        <v>2.410025706940874</v>
       </c>
       <c r="U145">
-        <v>3.420557550880793</v>
+        <v>3.410971839734591</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9843,16 +9843,16 @@
         <v>1.571428571428571</v>
       </c>
       <c r="R146">
-        <v>370.5003915638249</v>
+        <v>369.4621076933572</v>
       </c>
       <c r="S146">
-        <v>409.8957070094591</v>
+        <v>407.2943444730078</v>
       </c>
       <c r="T146">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U146">
-        <v>5.040821653929591</v>
+        <v>5.026695342766765</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9908,16 +9908,16 @@
         <v>1.571428571428571</v>
       </c>
       <c r="R147">
-        <v>370.5003915638249</v>
+        <v>369.4621076933572</v>
       </c>
       <c r="S147">
-        <v>409.8957070094591</v>
+        <v>407.2943444730078</v>
       </c>
       <c r="T147">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U147">
-        <v>5.040821653929591</v>
+        <v>5.026695342766765</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9973,16 +9973,16 @@
         <v>2.428571428571428</v>
       </c>
       <c r="R148">
-        <v>370.5003915638249</v>
+        <v>369.4621076933572</v>
       </c>
       <c r="S148">
-        <v>409.8957070094591</v>
+        <v>407.2943444730078</v>
       </c>
       <c r="T148">
-        <v>2.829654782116582</v>
+        <v>2.811696658097687</v>
       </c>
       <c r="U148">
-        <v>5.040821653929591</v>
+        <v>5.026695342766765</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -10038,16 +10038,16 @@
         <v>2.428571428571428</v>
       </c>
       <c r="R149">
-        <v>372.1206556668737</v>
+        <v>371.0778311963894</v>
       </c>
       <c r="S149">
-        <v>410.7041798043496</v>
+        <v>408.0976863753213</v>
       </c>
       <c r="T149">
-        <v>3.233891179561807</v>
+        <v>3.213367609254498</v>
       </c>
       <c r="U149">
-        <v>5.40088034349599</v>
+        <v>5.385745010107247</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -10103,16 +10103,16 @@
         <v>2.857142857142857</v>
       </c>
       <c r="R150">
-        <v>372.1206556668737</v>
+        <v>371.0778311963894</v>
       </c>
       <c r="S150">
-        <v>410.7041798043496</v>
+        <v>408.0976863753213</v>
       </c>
       <c r="T150">
-        <v>3.233891179561807</v>
+        <v>3.213367609254498</v>
       </c>
       <c r="U150">
-        <v>5.40088034349599</v>
+        <v>5.385745010107247</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -10168,16 +10168,16 @@
         <v>2.857142857142857</v>
       </c>
       <c r="R151">
-        <v>373.7409197699225</v>
+        <v>372.6935546994216</v>
       </c>
       <c r="S151">
-        <v>413.1295981890209</v>
+        <v>410.5077120822622</v>
       </c>
       <c r="T151">
-        <v>4.850836769342711</v>
+        <v>4.820051413881749</v>
       </c>
       <c r="U151">
-        <v>5.760939033062389</v>
+        <v>5.744794677447731</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -10233,16 +10233,16 @@
         <v>2.857142857142857</v>
       </c>
       <c r="R152">
-        <v>373.7409197699225</v>
+        <v>372.6935546994216</v>
       </c>
       <c r="S152">
-        <v>413.1295981890209</v>
+        <v>410.5077120822622</v>
       </c>
       <c r="T152">
-        <v>4.850836769342711</v>
+        <v>4.820051413881749</v>
       </c>
       <c r="U152">
-        <v>5.760939033062389</v>
+        <v>5.744794677447731</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -10298,16 +10298,16 @@
         <v>3.714285714285714</v>
       </c>
       <c r="R153">
-        <v>377.1614773208033</v>
+        <v>376.1045265391562</v>
       </c>
       <c r="S153">
-        <v>416.767725766028</v>
+        <v>414.1227506426736</v>
       </c>
       <c r="T153">
-        <v>6.872018756568841</v>
+        <v>6.82840616966581</v>
       </c>
       <c r="U153">
-        <v>6.661085756978387</v>
+        <v>6.642418845798939</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -10363,16 +10363,16 @@
         <v>3.714285714285714</v>
       </c>
       <c r="R154">
-        <v>377.1614773208033</v>
+        <v>376.1045265391562</v>
       </c>
       <c r="S154">
-        <v>416.767725766028</v>
+        <v>414.1227506426736</v>
       </c>
       <c r="T154">
-        <v>6.872018756568841</v>
+        <v>6.82840616966581</v>
       </c>
       <c r="U154">
-        <v>6.661085756978387</v>
+        <v>6.642418845798939</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -10428,16 +10428,16 @@
         <v>3</v>
       </c>
       <c r="R155">
-        <v>377.1614773208033</v>
+        <v>376.1045265391562</v>
       </c>
       <c r="S155">
-        <v>416.767725766028</v>
+        <v>414.1227506426736</v>
       </c>
       <c r="T155">
-        <v>6.872018756568841</v>
+        <v>6.82840616966581</v>
       </c>
       <c r="U155">
-        <v>6.661085756978387</v>
+        <v>6.642418845798939</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -10493,16 +10493,16 @@
         <v>3</v>
       </c>
       <c r="R156">
-        <v>379.5018588029849</v>
+        <v>378.4383493768693</v>
       </c>
       <c r="S156">
-        <v>420.4058533430351</v>
+        <v>417.7377892030848</v>
       </c>
       <c r="T156">
-        <v>9.701673538685423</v>
+        <v>9.640102827763497</v>
       </c>
       <c r="U156">
-        <v>7.381203136111186</v>
+        <v>7.360518180479906</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -10558,16 +10558,16 @@
         <v>4.714285714285714</v>
       </c>
       <c r="R157">
-        <v>379.5018588029849</v>
+        <v>378.4383493768693</v>
       </c>
       <c r="S157">
-        <v>420.4058533430351</v>
+        <v>417.7377892030848</v>
       </c>
       <c r="T157">
-        <v>9.701673538685423</v>
+        <v>9.640102827763497</v>
       </c>
       <c r="U157">
-        <v>7.381203136111186</v>
+        <v>7.360518180479906</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -10623,16 +10623,16 @@
         <v>4.714285714285714</v>
       </c>
       <c r="R158">
-        <v>385.0827684912641</v>
+        <v>384.0036192206468</v>
       </c>
       <c r="S158">
-        <v>425.660926509823</v>
+        <v>422.9595115681234</v>
       </c>
       <c r="T158">
-        <v>12.53132832080201</v>
+        <v>12.45179948586118</v>
       </c>
       <c r="U158">
-        <v>11.34184872134158</v>
+        <v>11.31006452122522</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -10688,16 +10688,16 @@
         <v>4.714285714285714</v>
       </c>
       <c r="R159">
-        <v>385.0827684912641</v>
+        <v>384.0036192206468</v>
       </c>
       <c r="S159">
-        <v>425.660926509823</v>
+        <v>422.9595115681234</v>
       </c>
       <c r="T159">
-        <v>12.53132832080201</v>
+        <v>12.45179948586118</v>
       </c>
       <c r="U159">
-        <v>11.34184872134158</v>
+        <v>11.31006452122522</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10753,16 +10753,16 @@
         <v>6.428571428571429</v>
       </c>
       <c r="R160">
-        <v>388.3232966973616</v>
+        <v>387.2350662267111</v>
       </c>
       <c r="S160">
-        <v>428.4905812919395</v>
+        <v>425.7712082262211</v>
       </c>
       <c r="T160">
-        <v>11.72285552591155</v>
+        <v>11.64845758354756</v>
       </c>
       <c r="U160">
-        <v>11.16181937655838</v>
+        <v>11.13053968755498</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10818,16 +10818,16 @@
         <v>6.428571428571429</v>
       </c>
       <c r="R161">
-        <v>388.3232966973616</v>
+        <v>387.2350662267111</v>
       </c>
       <c r="S161">
-        <v>428.4905812919395</v>
+        <v>425.7712082262211</v>
       </c>
       <c r="T161">
-        <v>11.72285552591155</v>
+        <v>11.64845758354756</v>
       </c>
       <c r="U161">
-        <v>11.16181937655838</v>
+        <v>11.13053968755498</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10883,16 +10883,16 @@
         <v>7.142857142857143</v>
       </c>
       <c r="R162">
-        <v>388.3232966973616</v>
+        <v>387.2350662267111</v>
       </c>
       <c r="S162">
-        <v>428.4905812919395</v>
+        <v>425.7712082262211</v>
       </c>
       <c r="T162">
-        <v>11.72285552591155</v>
+        <v>11.64845758354756</v>
       </c>
       <c r="U162">
-        <v>11.16181937655838</v>
+        <v>11.13053968755498</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10948,16 +10948,16 @@
         <v>7.142857142857143</v>
       </c>
       <c r="R163">
-        <v>390.6636781795433</v>
+        <v>389.5688890644243</v>
       </c>
       <c r="S163">
-        <v>431.7244724715013</v>
+        <v>428.9845758354756</v>
       </c>
       <c r="T163">
-        <v>11.31861912846633</v>
+        <v>11.24678663239075</v>
       </c>
       <c r="U163">
-        <v>11.16181937655838</v>
+        <v>11.13053968755498</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -11013,16 +11013,16 @@
         <v>7.571428571428571</v>
       </c>
       <c r="R164">
-        <v>390.6636781795433</v>
+        <v>389.5688890644243</v>
       </c>
       <c r="S164">
-        <v>431.7244724715013</v>
+        <v>428.9845758354756</v>
       </c>
       <c r="T164">
-        <v>11.31861912846633</v>
+        <v>11.24678663239075</v>
       </c>
       <c r="U164">
-        <v>11.16181937655838</v>
+        <v>11.13053968755498</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -11078,16 +11078,16 @@
         <v>7.571428571428571</v>
       </c>
       <c r="R165">
-        <v>392.6440009721584</v>
+        <v>391.543662234797</v>
       </c>
       <c r="S165">
-        <v>432.5329452663918</v>
+        <v>429.7879177377892</v>
       </c>
       <c r="T165">
-        <v>6.872018756568841</v>
+        <v>6.82840616966581</v>
       </c>
       <c r="U165">
-        <v>7.561232480894385</v>
+        <v>7.540043014150147</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -11143,16 +11143,16 @@
         <v>7.571428571428571</v>
       </c>
       <c r="R166">
-        <v>392.6440009721584</v>
+        <v>391.543662234797</v>
       </c>
       <c r="S166">
-        <v>432.5329452663918</v>
+        <v>429.7879177377892</v>
       </c>
       <c r="T166">
-        <v>6.872018756568841</v>
+        <v>6.82840616966581</v>
       </c>
       <c r="U166">
-        <v>7.561232480894385</v>
+        <v>7.540043014150147</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -11208,16 +11208,16 @@
         <v>7.714285714285714</v>
       </c>
       <c r="R167">
-        <v>398.2249106604377</v>
+        <v>397.1089320785744</v>
       </c>
       <c r="S167">
-        <v>439.8092004204058</v>
+        <v>437.0179948586119</v>
       </c>
       <c r="T167">
-        <v>11.31861912846633</v>
+        <v>11.24678663239075</v>
       </c>
       <c r="U167">
-        <v>9.901613963075981</v>
+        <v>9.873865851863288</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -11273,16 +11273,16 @@
         <v>7.714285714285714</v>
       </c>
       <c r="R168">
-        <v>398.2249106604377</v>
+        <v>397.1089320785744</v>
       </c>
       <c r="S168">
-        <v>439.8092004204058</v>
+        <v>437.0179948586119</v>
       </c>
       <c r="T168">
-        <v>11.31861912846633</v>
+        <v>11.24678663239075</v>
       </c>
       <c r="U168">
-        <v>9.901613963075981</v>
+        <v>9.873865851863288</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -11338,16 +11338,16 @@
         <v>7.714285714285714</v>
       </c>
       <c r="R169">
-        <v>398.2249106604377</v>
+        <v>397.1089320785744</v>
       </c>
       <c r="S169">
-        <v>439.8092004204058</v>
+        <v>437.0179948586119</v>
       </c>
       <c r="T169">
-        <v>11.31861912846633</v>
+        <v>11.24678663239075</v>
       </c>
       <c r="U169">
-        <v>9.901613963075981</v>
+        <v>9.873865851863288</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -11403,16 +11403,16 @@
         <v>9.428571428571429</v>
       </c>
       <c r="R170">
-        <v>401.8254975561017</v>
+        <v>400.6994287519793</v>
       </c>
       <c r="S170">
-        <v>441.8303824076319</v>
+        <v>439.0263496143958</v>
       </c>
       <c r="T170">
-        <v>10.10590993613065</v>
+        <v>10.04177377892031</v>
       </c>
       <c r="U170">
-        <v>11.16181937655838</v>
+        <v>11.13053968755498</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -11468,16 +11468,16 @@
         <v>7</v>
       </c>
       <c r="R171">
-        <v>401.8254975561017</v>
+        <v>400.6994287519793</v>
       </c>
       <c r="S171">
-        <v>441.8303824076319</v>
+        <v>439.0263496143958</v>
       </c>
       <c r="T171">
-        <v>10.10590993613065</v>
+        <v>10.04177377892031</v>
       </c>
       <c r="U171">
-        <v>11.16181937655838</v>
+        <v>11.13053968755498</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -11533,16 +11533,16 @@
         <v>8.428571428571429</v>
       </c>
       <c r="R172">
-        <v>404.7059670726328</v>
+        <v>403.5718260907031</v>
       </c>
       <c r="S172">
-        <v>445.4685099846391</v>
+        <v>442.6413881748072</v>
       </c>
       <c r="T172">
-        <v>12.93556471824723</v>
+        <v>12.85347043701799</v>
       </c>
       <c r="U172">
-        <v>12.06196610047438</v>
+        <v>12.02816385590619</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -11598,16 +11598,16 @@
         <v>8.428571428571429</v>
       </c>
       <c r="R173">
-        <v>407.0463485548144</v>
+        <v>405.9056489284163</v>
       </c>
       <c r="S173">
-        <v>447.0854555744199</v>
+        <v>444.2480719794344</v>
       </c>
       <c r="T173">
-        <v>14.55251030802813</v>
+        <v>14.46015424164525</v>
       </c>
       <c r="U173">
-        <v>14.40234758265597</v>
+        <v>14.36198669361933</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -11663,16 +11663,16 @@
         <v>9.571428571428571</v>
       </c>
       <c r="R174">
-        <v>409.386730036996</v>
+        <v>408.2394717661294</v>
       </c>
       <c r="S174">
-        <v>449.5108739590913</v>
+        <v>446.6580976863754</v>
       </c>
       <c r="T174">
-        <v>9.701673538685423</v>
+        <v>9.640102827763497</v>
       </c>
       <c r="U174">
-        <v>11.16181937655838</v>
+        <v>11.13053968755498</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -11728,16 +11728,16 @@
         <v>9.571428571428571</v>
       </c>
       <c r="R175">
-        <v>410.6469354504785</v>
+        <v>409.4961456018211</v>
       </c>
       <c r="S175">
-        <v>450.3193467539817</v>
+        <v>447.4614395886889</v>
       </c>
       <c r="T175">
-        <v>10.51014633357588</v>
+        <v>10.44344473007712</v>
       </c>
       <c r="U175">
-        <v>12.42202479004078</v>
+        <v>12.38721352324667</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -11793,16 +11793,16 @@
         <v>11.57142857142857</v>
       </c>
       <c r="R176">
-        <v>410.6469354504785</v>
+        <v>409.4961456018211</v>
       </c>
       <c r="S176">
-        <v>450.3193467539817</v>
+        <v>447.4614395886889</v>
       </c>
       <c r="T176">
-        <v>10.51014633357588</v>
+        <v>10.44344473007712</v>
       </c>
       <c r="U176">
-        <v>12.42202479004078</v>
+        <v>12.38721352324667</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11858,16 +11858,16 @@
         <v>10.71428571428571</v>
       </c>
       <c r="R177">
-        <v>416.0478157939744</v>
+        <v>414.8818906119283</v>
       </c>
       <c r="S177">
-        <v>455.1701835233245</v>
+        <v>452.2814910025706</v>
       </c>
       <c r="T177">
-        <v>13.33980111569246</v>
+        <v>13.25514138817481</v>
       </c>
       <c r="U177">
-        <v>14.22231823787277</v>
+        <v>14.18246185994909</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11923,16 +11923,16 @@
         <v>11.28571428571429</v>
       </c>
       <c r="R178">
-        <v>416.0478157939744</v>
+        <v>414.8818906119283</v>
       </c>
       <c r="S178">
-        <v>455.1701835233245</v>
+        <v>452.2814910025706</v>
       </c>
       <c r="T178">
-        <v>13.33980111569246</v>
+        <v>13.25514138817481</v>
       </c>
       <c r="U178">
-        <v>14.22231823787277</v>
+        <v>14.18246185994909</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11988,16 +11988,16 @@
         <v>10.85714285714286</v>
       </c>
       <c r="R179">
-        <v>416.9479625178905</v>
+        <v>415.7795147802796</v>
       </c>
       <c r="S179">
-        <v>455.9786563182149</v>
+        <v>453.0848329048844</v>
       </c>
       <c r="T179">
-        <v>10.51014633357588</v>
+        <v>10.44344473007712</v>
       </c>
       <c r="U179">
-        <v>12.24199544525758</v>
+        <v>12.20768868957643</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -12053,16 +12053,16 @@
         <v>10.85714285714286</v>
       </c>
       <c r="R180">
-        <v>418.388197276156</v>
+        <v>417.2157134496415</v>
       </c>
       <c r="S180">
-        <v>457.1913655105506</v>
+        <v>454.2898457583548</v>
       </c>
       <c r="T180">
-        <v>10.10590993613065</v>
+        <v>10.04177377892031</v>
       </c>
       <c r="U180">
-        <v>11.34184872134158</v>
+        <v>11.31006452122522</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -12118,16 +12118,16 @@
         <v>10.42857142857143</v>
       </c>
       <c r="R181">
-        <v>420.0084613792048</v>
+        <v>418.8314369526737</v>
       </c>
       <c r="S181">
-        <v>459.2125474977767</v>
+        <v>456.2982005141388</v>
       </c>
       <c r="T181">
-        <v>9.701673538685423</v>
+        <v>9.640102827763497</v>
       </c>
       <c r="U181">
-        <v>10.62173134220878</v>
+        <v>10.59196518654426</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -12183,16 +12183,16 @@
         <v>10.42857142857143</v>
       </c>
       <c r="R182">
-        <v>422.7089015509528</v>
+        <v>421.5243094577273</v>
       </c>
       <c r="S182">
-        <v>460.8294930875576</v>
+        <v>457.9048843187661</v>
       </c>
       <c r="T182">
-        <v>10.51014633357588</v>
+        <v>10.44344473007712</v>
       </c>
       <c r="U182">
-        <v>12.06196610047438</v>
+        <v>12.02816385590619</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -12248,16 +12248,16 @@
         <v>8.571428571428571</v>
       </c>
       <c r="R183">
-        <v>422.7089015509528</v>
+        <v>421.5243094577273</v>
       </c>
       <c r="S183">
-        <v>460.8294930875576</v>
+        <v>457.9048843187661</v>
       </c>
       <c r="T183">
-        <v>10.51014633357588</v>
+        <v>10.44344473007712</v>
       </c>
       <c r="U183">
-        <v>12.06196610047438</v>
+        <v>12.02816385590619</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -12313,16 +12313,16 @@
         <v>9.571428571428571</v>
       </c>
       <c r="R184">
-        <v>423.6090482748688</v>
+        <v>422.4219336260785</v>
       </c>
       <c r="S184">
-        <v>462.4464386773385</v>
+        <v>459.5115681233933</v>
       </c>
       <c r="T184">
-        <v>7.276255154014067</v>
+        <v>7.230077120822623</v>
       </c>
       <c r="U184">
-        <v>7.561232480894385</v>
+        <v>7.540043014150147</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -12378,16 +12378,16 @@
         <v>9.714285714285714</v>
       </c>
       <c r="R185">
-        <v>423.6090482748688</v>
+        <v>422.4219336260785</v>
       </c>
       <c r="S185">
-        <v>462.4464386773385</v>
+        <v>459.5115681233933</v>
       </c>
       <c r="T185">
-        <v>7.276255154014067</v>
+        <v>7.230077120822623</v>
       </c>
       <c r="U185">
-        <v>7.561232480894385</v>
+        <v>7.540043014150147</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -12443,16 +12443,16 @@
         <v>10.28571428571429</v>
       </c>
       <c r="R186">
-        <v>425.4093417227008</v>
+        <v>424.217181962781</v>
       </c>
       <c r="S186">
-        <v>464.4676206645646</v>
+        <v>461.5199228791774</v>
       </c>
       <c r="T186">
-        <v>8.488964346349746</v>
+        <v>8.43508997429306</v>
       </c>
       <c r="U186">
-        <v>8.461379204810385</v>
+        <v>8.437667182501356</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -12508,16 +12508,16 @@
         <v>10.28571428571429</v>
       </c>
       <c r="R187">
-        <v>426.6695471361832</v>
+        <v>425.4738557984726</v>
       </c>
       <c r="S187">
-        <v>465.2760934594551</v>
+        <v>462.323264781491</v>
       </c>
       <c r="T187">
-        <v>8.08472794890452</v>
+        <v>8.033419023136247</v>
       </c>
       <c r="U187">
-        <v>8.281349860027184</v>
+        <v>8.258142348831115</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -12573,16 +12573,16 @@
         <v>7.714285714285714</v>
       </c>
       <c r="R188">
-        <v>428.1097818944488</v>
+        <v>426.9100544678345</v>
       </c>
       <c r="S188">
-        <v>467.7015118441264</v>
+        <v>464.7332904884319</v>
       </c>
       <c r="T188">
-        <v>8.488964346349746</v>
+        <v>8.43508997429306</v>
       </c>
       <c r="U188">
-        <v>8.101320515243984</v>
+        <v>8.078617515160872</v>
       </c>
     </row>
     <row r="189" spans="1:21">
@@ -12638,16 +12638,16 @@
         <v>7.714285714285714</v>
       </c>
       <c r="R189">
-        <v>429.189957963148</v>
+        <v>427.987203469856</v>
       </c>
       <c r="S189">
-        <v>469.3184574339073</v>
+        <v>466.3399742930591</v>
       </c>
       <c r="T189">
-        <v>8.488964346349746</v>
+        <v>8.43508997429306</v>
       </c>
       <c r="U189">
-        <v>6.481056412195188</v>
+        <v>6.462894012128698</v>
       </c>
     </row>
     <row r="190" spans="1:21">
@@ -12703,16 +12703,16 @@
         <v>7.857142857142857</v>
       </c>
       <c r="R190">
-        <v>429.189957963148</v>
+        <v>427.987203469856</v>
       </c>
       <c r="S190">
-        <v>469.3184574339073</v>
+        <v>466.3399742930591</v>
       </c>
       <c r="T190">
-        <v>8.488964346349746</v>
+        <v>8.43508997429306</v>
       </c>
       <c r="U190">
-        <v>6.481056412195188</v>
+        <v>6.462894012128698</v>
       </c>
     </row>
     <row r="191" spans="1:21">
@@ -12768,16 +12768,16 @@
         <v>6.285714285714286</v>
       </c>
       <c r="R191">
-        <v>430.090104687064</v>
+        <v>428.8848276382072</v>
       </c>
       <c r="S191">
-        <v>470.531166626243</v>
+        <v>467.5449871465296</v>
       </c>
       <c r="T191">
-        <v>8.08472794890452</v>
+        <v>8.033419023136247</v>
       </c>
       <c r="U191">
-        <v>6.481056412195188</v>
+        <v>6.462894012128698</v>
       </c>
     </row>
     <row r="192" spans="1:21">
@@ -12833,16 +12833,16 @@
         <v>5.571428571428571</v>
       </c>
       <c r="R192">
-        <v>430.090104687064</v>
+        <v>428.8848276382072</v>
       </c>
       <c r="S192">
-        <v>470.531166626243</v>
+        <v>467.5449871465296</v>
       </c>
       <c r="T192">
-        <v>8.08472794890452</v>
+        <v>8.033419023136247</v>
       </c>
       <c r="U192">
-        <v>6.481056412195188</v>
+        <v>6.462894012128698</v>
       </c>
     </row>
     <row r="193" spans="1:21">
@@ -12898,16 +12898,16 @@
         <v>4</v>
       </c>
       <c r="R193">
-        <v>430.8102220661968</v>
+        <v>429.6029269728882</v>
       </c>
       <c r="S193">
-        <v>471.3396394211334</v>
+        <v>468.3483290488431</v>
       </c>
       <c r="T193">
-        <v>6.872018756568841</v>
+        <v>6.82840616966581</v>
       </c>
       <c r="U193">
-        <v>5.40088034349599</v>
+        <v>5.385745010107247</v>
       </c>
     </row>
     <row r="194" spans="1:21">
@@ -12963,16 +12963,16 @@
         <v>5.142857142857143</v>
       </c>
       <c r="R194">
-        <v>432.0704274796792</v>
+        <v>430.8596008085798</v>
       </c>
       <c r="S194">
-        <v>473.3608214083596</v>
+        <v>470.3566838046272</v>
       </c>
       <c r="T194">
-        <v>8.08472794890452</v>
+        <v>8.033419023136247</v>
       </c>
       <c r="U194">
-        <v>5.40088034349599</v>
+        <v>5.385745010107247</v>
       </c>
     </row>
     <row r="195" spans="1:21">
@@ -13028,16 +13028,16 @@
         <v>3.428571428571428</v>
       </c>
       <c r="R195">
-        <v>434.2307796170776</v>
+        <v>433.0138988126228</v>
       </c>
       <c r="S195">
-        <v>476.1904761904763</v>
+        <v>473.1683804627249</v>
       </c>
       <c r="T195">
-        <v>8.488964346349746</v>
+        <v>8.43508997429306</v>
       </c>
       <c r="U195">
-        <v>6.120997722628789</v>
+        <v>6.103844344788214</v>
       </c>
     </row>
     <row r="196" spans="1:21">
@@ -13093,16 +13093,16 @@
         <v>3.428571428571428</v>
       </c>
       <c r="R196">
-        <v>434.2307796170776</v>
+        <v>433.0138988126228</v>
       </c>
       <c r="S196">
-        <v>476.1904761904763</v>
+        <v>473.1683804627249</v>
       </c>
       <c r="T196">
-        <v>6.872018756568841</v>
+        <v>6.82840616966581</v>
       </c>
       <c r="U196">
-        <v>5.040821653929591</v>
+        <v>5.026695342766765</v>
       </c>
     </row>
     <row r="197" spans="1:21">
@@ -13158,16 +13158,16 @@
         <v>4.285714285714286</v>
       </c>
       <c r="R197">
-        <v>437.291278478392</v>
+        <v>436.0658209850168</v>
       </c>
       <c r="S197">
-        <v>479.4243673700381</v>
+        <v>476.3817480719795</v>
       </c>
       <c r="T197">
-        <v>10.10590993613065</v>
+        <v>10.04177377892031</v>
       </c>
       <c r="U197">
-        <v>8.101320515243984</v>
+        <v>8.078617515160872</v>
       </c>
     </row>
     <row r="198" spans="1:21">
@@ -13223,16 +13223,16 @@
         <v>5.285714285714286</v>
       </c>
       <c r="R198">
-        <v>437.291278478392</v>
+        <v>436.0658209850168</v>
       </c>
       <c r="S198">
-        <v>479.4243673700381</v>
+        <v>476.3817480719795</v>
       </c>
       <c r="T198">
-        <v>8.893200743794972</v>
+        <v>8.836760925449871</v>
       </c>
       <c r="U198">
-        <v>7.201173791327986</v>
+        <v>7.180993346809665</v>
       </c>
     </row>
     <row r="199" spans="1:21">
@@ -13288,16 +13288,16 @@
         <v>6.571428571428571</v>
       </c>
       <c r="R199">
-        <v>437.291278478392</v>
+        <v>436.0658209850168</v>
       </c>
       <c r="S199">
-        <v>479.4243673700381</v>
+        <v>476.3817480719795</v>
       </c>
       <c r="T199">
-        <v>8.893200743794972</v>
+        <v>8.836760925449871</v>
       </c>
       <c r="U199">
-        <v>7.201173791327986</v>
+        <v>7.180993346809665</v>
       </c>
     </row>
     <row r="200" spans="1:21">
@@ -13353,16 +13353,16 @@
         <v>9</v>
       </c>
       <c r="R200">
-        <v>445.9326870279855</v>
+        <v>444.6830130011884</v>
       </c>
       <c r="S200">
-        <v>489.1260409087234</v>
+        <v>486.021850899743</v>
       </c>
       <c r="T200">
-        <v>17.78640148758994</v>
+        <v>17.67352185089974</v>
       </c>
       <c r="U200">
-        <v>15.12246496178877</v>
+        <v>15.08008602830029</v>
       </c>
     </row>
     <row r="201" spans="1:21">
@@ -13418,16 +13418,16 @@
         <v>7.857142857142857</v>
       </c>
       <c r="R201">
-        <v>450.6134499923487</v>
+        <v>449.3506586766147</v>
       </c>
       <c r="S201">
-        <v>494.7853504729566</v>
+        <v>491.6452442159383</v>
       </c>
       <c r="T201">
-        <v>21.42452906459697</v>
+        <v>21.28856041131105</v>
       </c>
       <c r="U201">
-        <v>18.54302251266957</v>
+        <v>18.49105786803489</v>
       </c>
     </row>
     <row r="202" spans="1:21">
@@ -13483,16 +13483,16 @@
         <v>11.28571428571429</v>
       </c>
       <c r="R202">
-        <v>454.0340075432295</v>
+        <v>452.7616305163493</v>
       </c>
       <c r="S202">
-        <v>498.0192416525184</v>
+        <v>494.8586118251928</v>
       </c>
       <c r="T202">
-        <v>21.8287654620422</v>
+        <v>21.69023136246787</v>
       </c>
       <c r="U202">
-        <v>19.80322792615196</v>
+        <v>19.74773170372658</v>
       </c>
     </row>
     <row r="203" spans="1:21">
@@ -13548,16 +13548,16 @@
         <v>11.28571428571429</v>
       </c>
       <c r="R203">
-        <v>459.0748291971591</v>
+        <v>457.7883258591161</v>
       </c>
       <c r="S203">
-        <v>504.4870240116419</v>
+        <v>501.2853470437018</v>
       </c>
       <c r="T203">
-        <v>28.29654782116582</v>
+        <v>28.11696658097686</v>
       </c>
       <c r="U203">
-        <v>24.84404958008156</v>
+        <v>24.77442704649334</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -13613,16 +13613,16 @@
         <v>11.57142857142857</v>
       </c>
       <c r="R204">
-        <v>459.0748291971591</v>
+        <v>457.7883258591161</v>
       </c>
       <c r="S204">
-        <v>504.4870240116419</v>
+        <v>501.2853470437018</v>
       </c>
       <c r="T204">
-        <v>25.06265664160401</v>
+        <v>24.90359897172236</v>
       </c>
       <c r="U204">
-        <v>21.78355071876716</v>
+        <v>21.72250487409923</v>
       </c>
     </row>
     <row r="205" spans="1:21">
@@ -13678,16 +13678,16 @@
         <v>12.85714285714286</v>
       </c>
       <c r="R205">
-        <v>462.3153574032568</v>
+        <v>461.0197728651805</v>
       </c>
       <c r="S205">
-        <v>506.1039696014229</v>
+        <v>502.892030848329</v>
       </c>
       <c r="T205">
-        <v>26.67960223138492</v>
+        <v>26.51028277634961</v>
       </c>
       <c r="U205">
-        <v>25.02407892486475</v>
+        <v>24.95395188016358</v>
       </c>
     </row>
     <row r="206" spans="1:21">
@@ -13743,16 +13743,16 @@
         <v>12.71428571428571</v>
       </c>
       <c r="R206">
-        <v>462.3153574032568</v>
+        <v>461.0197728651805</v>
       </c>
       <c r="S206">
-        <v>506.1039696014229</v>
+        <v>502.892030848329</v>
       </c>
       <c r="T206">
-        <v>26.67960223138492</v>
+        <v>26.51028277634961</v>
       </c>
       <c r="U206">
-        <v>25.02407892486475</v>
+        <v>24.95395188016358</v>
       </c>
     </row>
     <row r="207" spans="1:21">
@@ -13808,16 +13808,16 @@
         <v>12.71428571428571</v>
       </c>
       <c r="R207">
-        <v>465.195826919788</v>
+        <v>463.8921702039043</v>
       </c>
       <c r="S207">
-        <v>509.74209717843</v>
+        <v>506.5070694087403</v>
       </c>
       <c r="T207">
-        <v>20.61605626970652</v>
+        <v>20.48521850899743</v>
       </c>
       <c r="U207">
-        <v>19.26313989180236</v>
+        <v>19.20915720271585</v>
       </c>
     </row>
     <row r="208" spans="1:21">
@@ -13842,32 +13842,47 @@
       <c r="G208">
         <v>-2</v>
       </c>
+      <c r="H208">
+        <v>0.4285714285714285</v>
+      </c>
       <c r="I208">
         <v>-1.801801801801802</v>
       </c>
+      <c r="J208">
+        <v>0.4510696975374309</v>
+      </c>
       <c r="K208">
         <v>16</v>
       </c>
       <c r="L208">
         <v>7</v>
       </c>
+      <c r="M208">
+        <v>13.28571428571429</v>
+      </c>
       <c r="N208">
         <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0.1428571428571428</v>
       </c>
       <c r="P208">
         <v>18</v>
       </c>
+      <c r="Q208">
+        <v>12.71428571428571</v>
+      </c>
       <c r="R208">
-        <v>468.0762964363191</v>
+        <v>466.7645675426281</v>
       </c>
       <c r="S208">
-        <v>512.5717519605465</v>
+        <v>509.318766066838</v>
       </c>
       <c r="T208">
-        <v>17.78640148758994</v>
+        <v>17.67352185089974</v>
       </c>
       <c r="U208">
-        <v>17.46284644397037</v>
+        <v>17.41390886601344</v>
       </c>
     </row>
     <row r="209" spans="1:21">
@@ -13892,32 +13907,47 @@
       <c r="G209">
         <v>10</v>
       </c>
+      <c r="H209">
+        <v>6.571428571428571</v>
+      </c>
       <c r="I209">
         <v>9.174311926605505</v>
       </c>
+      <c r="J209">
+        <v>5.424981416317186</v>
+      </c>
       <c r="K209">
         <v>21</v>
       </c>
       <c r="L209">
         <v>11</v>
       </c>
+      <c r="M209">
+        <v>19.85714285714286</v>
+      </c>
       <c r="N209">
         <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0.1428571428571428</v>
       </c>
       <c r="P209">
         <v>11</v>
       </c>
+      <c r="Q209">
+        <v>13.14285714285714</v>
+      </c>
       <c r="R209">
-        <v>471.8569126767663</v>
+        <v>470.5345890497032</v>
       </c>
       <c r="S209">
-        <v>517.018352332444</v>
+        <v>513.737146529563</v>
       </c>
       <c r="T209">
-        <v>18.99911067992562</v>
+        <v>18.87853470437018</v>
       </c>
       <c r="U209">
-        <v>17.82290513353677</v>
+        <v>17.77295853335392</v>
       </c>
     </row>
     <row r="210" spans="1:21">
@@ -13942,32 +13972,847 @@
       <c r="G210">
         <v>5</v>
       </c>
+      <c r="H210">
+        <v>6.571428571428571</v>
+      </c>
       <c r="I210">
         <v>4.201680672268908</v>
       </c>
+      <c r="J210">
+        <v>5.424981416317186</v>
+      </c>
       <c r="K210">
         <v>22</v>
       </c>
       <c r="L210">
         <v>14</v>
       </c>
+      <c r="M210">
+        <v>19.85714285714286</v>
+      </c>
       <c r="N210">
         <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0.1428571428571428</v>
       </c>
       <c r="P210">
         <v>17</v>
       </c>
+      <c r="Q210">
+        <v>13.14285714285714</v>
+      </c>
       <c r="R210">
-        <v>475.8175582619967</v>
+        <v>474.4841353904485</v>
       </c>
       <c r="S210">
-        <v>522.6776618966771</v>
+        <v>519.3605398457584</v>
       </c>
       <c r="T210">
-        <v>18.19063788503517</v>
+        <v>18.07519280205656</v>
       </c>
       <c r="U210">
-        <v>16.74272906483757</v>
+        <v>16.69580953133247</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B211">
+        <v>2643</v>
+      </c>
+      <c r="C211">
+        <v>1293</v>
+      </c>
+      <c r="D211">
+        <v>104</v>
+      </c>
+      <c r="E211">
+        <v>2415</v>
+      </c>
+      <c r="F211">
+        <v>124</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>5.428571428571429</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>4.818778408798388</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>19.14285714285714</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>13.57142857142857</v>
+      </c>
+      <c r="R211">
+        <v>474.4841353904485</v>
+      </c>
+      <c r="S211">
+        <v>519.3605398457584</v>
+      </c>
+      <c r="T211">
+        <v>18.07519280205656</v>
+      </c>
+      <c r="U211">
+        <v>16.69580953133247</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" s="2">
+        <v>44101</v>
+      </c>
+      <c r="B212">
+        <v>2707</v>
+      </c>
+      <c r="C212">
+        <v>1325</v>
+      </c>
+      <c r="D212">
+        <v>105</v>
+      </c>
+      <c r="E212">
+        <v>2442</v>
+      </c>
+      <c r="F212">
+        <v>160</v>
+      </c>
+      <c r="G212">
+        <v>36</v>
+      </c>
+      <c r="H212">
+        <v>6.142857142857143</v>
+      </c>
+      <c r="I212">
+        <v>29.03225806451613</v>
+      </c>
+      <c r="J212">
+        <v>5.363810497454637</v>
+      </c>
+      <c r="K212">
+        <v>64</v>
+      </c>
+      <c r="L212">
+        <v>32</v>
+      </c>
+      <c r="M212">
+        <v>19.14285714285714</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P212">
+        <v>27</v>
+      </c>
+      <c r="Q212">
+        <v>12.71428571428571</v>
+      </c>
+      <c r="R212">
+        <v>485.973724745344</v>
+      </c>
+      <c r="S212">
+        <v>532.2140102827764</v>
+      </c>
+      <c r="T212">
+        <v>29.3219794344473</v>
+      </c>
+      <c r="U212">
+        <v>24.95395188016358</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B213">
+        <v>2707</v>
+      </c>
+      <c r="C213">
+        <v>1325</v>
+      </c>
+      <c r="D213">
+        <v>105</v>
+      </c>
+      <c r="E213">
+        <v>2442</v>
+      </c>
+      <c r="F213">
+        <v>160</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>8</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>6.214848643277911</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>22.14285714285714</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>13.85714285714286</v>
+      </c>
+      <c r="R213">
+        <v>485.973724745344</v>
+      </c>
+      <c r="S213">
+        <v>532.2140102827764</v>
+      </c>
+      <c r="T213">
+        <v>29.3219794344473</v>
+      </c>
+      <c r="U213">
+        <v>24.95395188016358</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B214">
+        <v>2718</v>
+      </c>
+      <c r="C214">
+        <v>1333</v>
+      </c>
+      <c r="D214">
+        <v>105</v>
+      </c>
+      <c r="E214">
+        <v>2464</v>
+      </c>
+      <c r="F214">
+        <v>149</v>
+      </c>
+      <c r="G214">
+        <v>-11</v>
+      </c>
+      <c r="H214">
+        <v>8.285714285714286</v>
+      </c>
+      <c r="I214">
+        <v>-6.875000000000001</v>
+      </c>
+      <c r="J214">
+        <v>6.186037118668067</v>
+      </c>
+      <c r="K214">
+        <v>11</v>
+      </c>
+      <c r="L214">
+        <v>8</v>
+      </c>
+      <c r="M214">
+        <v>24.14285714285714</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P214">
+        <v>22</v>
+      </c>
+      <c r="Q214">
+        <v>15.57142857142857</v>
+      </c>
+      <c r="R214">
+        <v>487.9484979157166</v>
+      </c>
+      <c r="S214">
+        <v>535.4273778920308</v>
+      </c>
+      <c r="T214">
+        <v>28.92030848329049</v>
+      </c>
+      <c r="U214">
+        <v>24.05632771181238</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B215">
+        <v>2734</v>
+      </c>
+      <c r="C215">
+        <v>1342</v>
+      </c>
+      <c r="D215">
+        <v>106</v>
+      </c>
+      <c r="E215">
+        <v>2476</v>
+      </c>
+      <c r="F215">
+        <v>152</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
+      <c r="H215">
+        <v>8.285714285714286</v>
+      </c>
+      <c r="I215">
+        <v>2.013422818791946</v>
+      </c>
+      <c r="J215">
+        <v>6.186037118668067</v>
+      </c>
+      <c r="K215">
+        <v>16</v>
+      </c>
+      <c r="L215">
+        <v>9</v>
+      </c>
+      <c r="M215">
+        <v>24.14285714285714</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P215">
+        <v>12</v>
+      </c>
+      <c r="Q215">
+        <v>15.57142857142857</v>
+      </c>
+      <c r="R215">
+        <v>490.8208952544405</v>
+      </c>
+      <c r="S215">
+        <v>539.0424164524421</v>
+      </c>
+      <c r="T215">
+        <v>29.72365038560411</v>
+      </c>
+      <c r="U215">
+        <v>24.05632771181238</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B216">
+        <v>2776</v>
+      </c>
+      <c r="C216">
+        <v>1371</v>
+      </c>
+      <c r="D216">
+        <v>106</v>
+      </c>
+      <c r="E216">
+        <v>2495</v>
+      </c>
+      <c r="F216">
+        <v>175</v>
+      </c>
+      <c r="G216">
+        <v>23</v>
+      </c>
+      <c r="H216">
+        <v>6.571428571428571</v>
+      </c>
+      <c r="I216">
+        <v>15.13157894736842</v>
+      </c>
+      <c r="J216">
+        <v>3.922402136139076</v>
+      </c>
+      <c r="K216">
+        <v>42</v>
+      </c>
+      <c r="L216">
+        <v>29</v>
+      </c>
+      <c r="M216">
+        <v>25.14285714285714</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P216">
+        <v>19</v>
+      </c>
+      <c r="Q216">
+        <v>18.42857142857143</v>
+      </c>
+      <c r="R216">
+        <v>498.3609382685907</v>
+      </c>
+      <c r="S216">
+        <v>550.6908740359897</v>
+      </c>
+      <c r="T216">
+        <v>36.95372750642673</v>
+      </c>
+      <c r="U216">
+        <v>27.82634921888745</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B217">
+        <v>2812</v>
+      </c>
+      <c r="C217">
+        <v>1395</v>
+      </c>
+      <c r="D217">
+        <v>106</v>
+      </c>
+      <c r="E217">
+        <v>2524</v>
+      </c>
+      <c r="F217">
+        <v>182</v>
+      </c>
+      <c r="G217">
+        <v>7</v>
+      </c>
+      <c r="H217">
+        <v>6.571428571428571</v>
+      </c>
+      <c r="I217">
+        <v>4</v>
+      </c>
+      <c r="J217">
+        <v>3.922402136139076</v>
+      </c>
+      <c r="K217">
+        <v>36</v>
+      </c>
+      <c r="L217">
+        <v>24</v>
+      </c>
+      <c r="M217">
+        <v>25.14285714285714</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P217">
+        <v>29</v>
+      </c>
+      <c r="Q217">
+        <v>18.42857142857143</v>
+      </c>
+      <c r="R217">
+        <v>504.8238322807194</v>
+      </c>
+      <c r="S217">
+        <v>560.3309768637532</v>
+      </c>
+      <c r="T217">
+        <v>40.97043701799486</v>
+      </c>
+      <c r="U217">
+        <v>30.33969689027083</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="A218" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B218">
+        <v>2812</v>
+      </c>
+      <c r="C218">
+        <v>1395</v>
+      </c>
+      <c r="D218">
+        <v>106</v>
+      </c>
+      <c r="E218">
+        <v>2524</v>
+      </c>
+      <c r="F218">
+        <v>182</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>3.309538058469172</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>24.71428571428572</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>19.57142857142857</v>
+      </c>
+      <c r="R218">
+        <v>504.8238322807194</v>
+      </c>
+      <c r="S218">
+        <v>560.3309768637532</v>
+      </c>
+      <c r="T218">
+        <v>40.97043701799486</v>
+      </c>
+      <c r="U218">
+        <v>30.33969689027083</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21">
+      <c r="A219" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B219">
+        <v>2883</v>
+      </c>
+      <c r="C219">
+        <v>1439</v>
+      </c>
+      <c r="D219">
+        <v>106</v>
+      </c>
+      <c r="E219">
+        <v>2571</v>
+      </c>
+      <c r="F219">
+        <v>206</v>
+      </c>
+      <c r="G219">
+        <v>24</v>
+      </c>
+      <c r="H219">
+        <v>8.571428571428571</v>
+      </c>
+      <c r="I219">
+        <v>13.18681318681319</v>
+      </c>
+      <c r="J219">
+        <v>5.285762589430199</v>
+      </c>
+      <c r="K219">
+        <v>71</v>
+      </c>
+      <c r="L219">
+        <v>44</v>
+      </c>
+      <c r="M219">
+        <v>28.85714285714286</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P219">
+        <v>47</v>
+      </c>
+      <c r="Q219">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="R219">
+        <v>517.5700954713066</v>
+      </c>
+      <c r="S219">
+        <v>578.004498714653</v>
+      </c>
+      <c r="T219">
+        <v>45.79048843187661</v>
+      </c>
+      <c r="U219">
+        <v>31.59637072596252</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21">
+      <c r="A220" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B220">
+        <v>2883</v>
+      </c>
+      <c r="C220">
+        <v>1439</v>
+      </c>
+      <c r="D220">
+        <v>106</v>
+      </c>
+      <c r="E220">
+        <v>2571</v>
+      </c>
+      <c r="F220">
+        <v>206</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>9.714285714285714</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>5.213057241153848</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>30.28571428571428</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>20.42857142857143</v>
+      </c>
+      <c r="R220">
+        <v>517.5700954713066</v>
+      </c>
+      <c r="S220">
+        <v>578.004498714653</v>
+      </c>
+      <c r="T220">
+        <v>45.79048843187661</v>
+      </c>
+      <c r="U220">
+        <v>31.59637072596252</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21">
+      <c r="A221" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B221">
+        <v>2891</v>
+      </c>
+      <c r="C221">
+        <v>1445</v>
+      </c>
+      <c r="D221">
+        <v>107</v>
+      </c>
+      <c r="E221">
+        <v>2601</v>
+      </c>
+      <c r="F221">
+        <v>183</v>
+      </c>
+      <c r="G221">
+        <v>-23</v>
+      </c>
+      <c r="I221">
+        <v>-11.16504854368932</v>
+      </c>
+      <c r="K221">
+        <v>8</v>
+      </c>
+      <c r="L221">
+        <v>6</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="P221">
+        <v>30</v>
+      </c>
+      <c r="R221">
+        <v>519.0062941406685</v>
+      </c>
+      <c r="S221">
+        <v>580.4145244215938</v>
+      </c>
+      <c r="T221">
+        <v>44.98714652956298</v>
+      </c>
+      <c r="U221">
+        <v>31.0577962249518</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21">
+      <c r="A222" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B222">
+        <v>2936</v>
+      </c>
+      <c r="C222">
+        <v>1468</v>
+      </c>
+      <c r="D222">
+        <v>107</v>
+      </c>
+      <c r="E222">
+        <v>2617</v>
+      </c>
+      <c r="F222">
+        <v>212</v>
+      </c>
+      <c r="G222">
+        <v>29</v>
+      </c>
+      <c r="I222">
+        <v>15.84699453551913</v>
+      </c>
+      <c r="K222">
+        <v>45</v>
+      </c>
+      <c r="L222">
+        <v>23</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>16</v>
+      </c>
+      <c r="R222">
+        <v>527.0849116558294</v>
+      </c>
+      <c r="S222">
+        <v>589.6529562982005</v>
+      </c>
+      <c r="T222">
+        <v>50.61053984575835</v>
+      </c>
+      <c r="U222">
+        <v>36.2640164013888</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21">
+      <c r="A223" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B223">
+        <v>2988</v>
+      </c>
+      <c r="C223">
+        <v>1496</v>
+      </c>
+      <c r="D223">
+        <v>107</v>
+      </c>
+      <c r="E223">
+        <v>2638</v>
+      </c>
+      <c r="F223">
+        <v>243</v>
+      </c>
+      <c r="G223">
+        <v>31</v>
+      </c>
+      <c r="I223">
+        <v>14.62264150943396</v>
+      </c>
+      <c r="K223">
+        <v>52</v>
+      </c>
+      <c r="L223">
+        <v>28</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>21</v>
+      </c>
+      <c r="R223">
+        <v>536.420203006682</v>
+      </c>
+      <c r="S223">
+        <v>600.8997429305912</v>
+      </c>
+      <c r="T223">
+        <v>50.20886889460154</v>
+      </c>
+      <c r="U223">
+        <v>38.05926473809122</v>
       </c>
     </row>
   </sheetData>

--- a/data/c19stats-ac-kennzahlen.xlsx
+++ b/data/c19stats-ac-kennzahlen.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U223"/>
+  <dimension ref="A1:U238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14687,20 +14687,35 @@
       <c r="G221">
         <v>-23</v>
       </c>
+      <c r="H221">
+        <v>10.28571428571429</v>
+      </c>
       <c r="I221">
         <v>-11.16504854368932</v>
       </c>
+      <c r="J221">
+        <v>5.288307094181478</v>
+      </c>
       <c r="K221">
         <v>8</v>
       </c>
       <c r="L221">
         <v>6</v>
       </c>
+      <c r="M221">
+        <v>30.71428571428572</v>
+      </c>
       <c r="N221">
         <v>1</v>
       </c>
+      <c r="O221">
+        <v>0.4285714285714285</v>
+      </c>
       <c r="P221">
         <v>30</v>
+      </c>
+      <c r="Q221">
+        <v>20</v>
       </c>
       <c r="R221">
         <v>519.0062941406685</v>
@@ -14737,20 +14752,35 @@
       <c r="G222">
         <v>29</v>
       </c>
+      <c r="H222">
+        <v>10.28571428571429</v>
+      </c>
       <c r="I222">
         <v>15.84699453551913</v>
       </c>
+      <c r="J222">
+        <v>5.288307094181478</v>
+      </c>
       <c r="K222">
         <v>45</v>
       </c>
       <c r="L222">
         <v>23</v>
       </c>
+      <c r="M222">
+        <v>30.71428571428572</v>
+      </c>
       <c r="N222">
         <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0.4285714285714285</v>
       </c>
       <c r="P222">
         <v>16</v>
+      </c>
+      <c r="Q222">
+        <v>20</v>
       </c>
       <c r="R222">
         <v>527.0849116558294</v>
@@ -14787,21 +14817,36 @@
       <c r="G223">
         <v>31</v>
       </c>
+      <c r="H223">
+        <v>18.42857142857143</v>
+      </c>
       <c r="I223">
         <v>14.62264150943396</v>
       </c>
+      <c r="J223">
+        <v>7.960157178854959</v>
+      </c>
       <c r="K223">
         <v>52</v>
       </c>
       <c r="L223">
         <v>28</v>
       </c>
+      <c r="M223">
+        <v>40.57142857142857</v>
+      </c>
       <c r="N223">
         <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0.4285714285714285</v>
       </c>
       <c r="P223">
         <v>21</v>
       </c>
+      <c r="Q223">
+        <v>21.71428571428572</v>
+      </c>
       <c r="R223">
         <v>536.420203006682</v>
       </c>
@@ -14813,6 +14858,936 @@
       </c>
       <c r="U223">
         <v>38.05926473809122</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21">
+      <c r="A224" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B224">
+        <v>3027</v>
+      </c>
+      <c r="C224">
+        <v>1515</v>
+      </c>
+      <c r="D224">
+        <v>109</v>
+      </c>
+      <c r="E224">
+        <v>2664</v>
+      </c>
+      <c r="F224">
+        <v>254</v>
+      </c>
+      <c r="G224">
+        <v>11</v>
+      </c>
+      <c r="H224">
+        <v>18.42857142857143</v>
+      </c>
+      <c r="I224">
+        <v>4.526748971193416</v>
+      </c>
+      <c r="J224">
+        <v>7.960157178854959</v>
+      </c>
+      <c r="K224">
+        <v>39</v>
+      </c>
+      <c r="L224">
+        <v>19</v>
+      </c>
+      <c r="M224">
+        <v>40.57142857142857</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="P224">
+        <v>26</v>
+      </c>
+      <c r="Q224">
+        <v>21.71428571428572</v>
+      </c>
+      <c r="R224">
+        <v>543.4216715198213</v>
+      </c>
+      <c r="S224">
+        <v>608.5314910025708</v>
+      </c>
+      <c r="T224">
+        <v>48.20051413881748</v>
+      </c>
+      <c r="U224">
+        <v>38.59783923910194</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21">
+      <c r="A225" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B225">
+        <v>3027</v>
+      </c>
+      <c r="C225">
+        <v>1515</v>
+      </c>
+      <c r="D225">
+        <v>109</v>
+      </c>
+      <c r="E225">
+        <v>2664</v>
+      </c>
+      <c r="F225">
+        <v>254</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>17.71428571428572</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>8.361134262921452</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>42.42857142857143</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>24.42857142857143</v>
+      </c>
+      <c r="R225">
+        <v>543.4216715198213</v>
+      </c>
+      <c r="S225">
+        <v>608.5314910025708</v>
+      </c>
+      <c r="T225">
+        <v>48.20051413881748</v>
+      </c>
+      <c r="U225">
+        <v>38.59783923910194</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21">
+      <c r="A226" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B226">
+        <v>3167</v>
+      </c>
+      <c r="C226">
+        <v>1585</v>
+      </c>
+      <c r="D226">
+        <v>109</v>
+      </c>
+      <c r="E226">
+        <v>2723</v>
+      </c>
+      <c r="F226">
+        <v>335</v>
+      </c>
+      <c r="G226">
+        <v>81</v>
+      </c>
+      <c r="H226">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="I226">
+        <v>31.88976377952756</v>
+      </c>
+      <c r="J226">
+        <v>7.72594239581844</v>
+      </c>
+      <c r="K226">
+        <v>140</v>
+      </c>
+      <c r="L226">
+        <v>70</v>
+      </c>
+      <c r="M226">
+        <v>45.85714285714285</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P226">
+        <v>59</v>
+      </c>
+      <c r="Q226">
+        <v>27</v>
+      </c>
+      <c r="R226">
+        <v>568.5551482336551</v>
+      </c>
+      <c r="S226">
+        <v>636.6484575835475</v>
+      </c>
+      <c r="T226">
+        <v>58.6439588688946</v>
+      </c>
+      <c r="U226">
+        <v>50.98505276234862</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21">
+      <c r="A227" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B227">
+        <v>3167</v>
+      </c>
+      <c r="C227">
+        <v>1585</v>
+      </c>
+      <c r="D227">
+        <v>109</v>
+      </c>
+      <c r="E227">
+        <v>2723</v>
+      </c>
+      <c r="F227">
+        <v>335</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>28</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>9.688789765815759</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>57.85714285714285</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>29.57142857142857</v>
+      </c>
+      <c r="R227">
+        <v>568.5551482336551</v>
+      </c>
+      <c r="S227">
+        <v>636.6484575835475</v>
+      </c>
+      <c r="T227">
+        <v>58.6439588688946</v>
+      </c>
+      <c r="U227">
+        <v>50.98505276234862</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21">
+      <c r="A228" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B228">
+        <v>3188</v>
+      </c>
+      <c r="C228">
+        <v>1594</v>
+      </c>
+      <c r="D228">
+        <v>109</v>
+      </c>
+      <c r="E228">
+        <v>2772</v>
+      </c>
+      <c r="F228">
+        <v>307</v>
+      </c>
+      <c r="G228">
+        <v>-28</v>
+      </c>
+      <c r="H228">
+        <v>36.42857142857143</v>
+      </c>
+      <c r="I228">
+        <v>-8.358208955223882</v>
+      </c>
+      <c r="J228">
+        <v>11.32001566937778</v>
+      </c>
+      <c r="K228">
+        <v>21</v>
+      </c>
+      <c r="L228">
+        <v>9</v>
+      </c>
+      <c r="M228">
+        <v>68.85714285714286</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>49</v>
+      </c>
+      <c r="Q228">
+        <v>32.42857142857143</v>
+      </c>
+      <c r="R228">
+        <v>572.3251697407302</v>
+      </c>
+      <c r="S228">
+        <v>640.2634961439588</v>
+      </c>
+      <c r="T228">
+        <v>59.84897172236504</v>
+      </c>
+      <c r="U228">
+        <v>53.31887560006176</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21">
+      <c r="A229" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B229">
+        <v>3257</v>
+      </c>
+      <c r="C229">
+        <v>1626</v>
+      </c>
+      <c r="D229">
+        <v>109</v>
+      </c>
+      <c r="E229">
+        <v>2806</v>
+      </c>
+      <c r="F229">
+        <v>342</v>
+      </c>
+      <c r="G229">
+        <v>35</v>
+      </c>
+      <c r="H229">
+        <v>36.42857142857143</v>
+      </c>
+      <c r="I229">
+        <v>11.40065146579805</v>
+      </c>
+      <c r="J229">
+        <v>11.32001566937778</v>
+      </c>
+      <c r="K229">
+        <v>69</v>
+      </c>
+      <c r="L229">
+        <v>32</v>
+      </c>
+      <c r="M229">
+        <v>68.85714285714286</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>34</v>
+      </c>
+      <c r="Q229">
+        <v>32.42857142857143</v>
+      </c>
+      <c r="R229">
+        <v>584.7123832639769</v>
+      </c>
+      <c r="S229">
+        <v>653.1169665809769</v>
+      </c>
+      <c r="T229">
+        <v>63.46401028277634</v>
+      </c>
+      <c r="U229">
+        <v>57.62747160814756</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21">
+      <c r="A230" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B230">
+        <v>3393</v>
+      </c>
+      <c r="C230">
+        <v>1672</v>
+      </c>
+      <c r="D230">
+        <v>109</v>
+      </c>
+      <c r="E230">
+        <v>2845</v>
+      </c>
+      <c r="F230">
+        <v>439</v>
+      </c>
+      <c r="G230">
+        <v>97</v>
+      </c>
+      <c r="H230">
+        <v>45.28571428571428</v>
+      </c>
+      <c r="I230">
+        <v>28.3625730994152</v>
+      </c>
+      <c r="J230">
+        <v>10.77780692287777</v>
+      </c>
+      <c r="K230">
+        <v>136</v>
+      </c>
+      <c r="L230">
+        <v>46</v>
+      </c>
+      <c r="M230">
+        <v>87.28571428571429</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P230">
+        <v>39</v>
+      </c>
+      <c r="Q230">
+        <v>41.85714285714285</v>
+      </c>
+      <c r="R230">
+        <v>609.1277606431297</v>
+      </c>
+      <c r="S230">
+        <v>671.5938303341902</v>
+      </c>
+      <c r="T230">
+        <v>70.69408740359897</v>
+      </c>
+      <c r="U230">
+        <v>72.70755763644785</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21">
+      <c r="A231" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B231">
+        <v>3509</v>
+      </c>
+      <c r="C231">
+        <v>1729</v>
+      </c>
+      <c r="D231">
+        <v>109</v>
+      </c>
+      <c r="E231">
+        <v>2891</v>
+      </c>
+      <c r="F231">
+        <v>509</v>
+      </c>
+      <c r="G231">
+        <v>70</v>
+      </c>
+      <c r="H231">
+        <v>45.28571428571428</v>
+      </c>
+      <c r="I231">
+        <v>15.94533029612756</v>
+      </c>
+      <c r="J231">
+        <v>10.77780692287777</v>
+      </c>
+      <c r="K231">
+        <v>116</v>
+      </c>
+      <c r="L231">
+        <v>57</v>
+      </c>
+      <c r="M231">
+        <v>87.28571428571429</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P231">
+        <v>46</v>
+      </c>
+      <c r="Q231">
+        <v>41.85714285714285</v>
+      </c>
+      <c r="R231">
+        <v>629.9526413488778</v>
+      </c>
+      <c r="S231">
+        <v>694.4890745501285</v>
+      </c>
+      <c r="T231">
+        <v>85.95758354755783</v>
+      </c>
+      <c r="U231">
+        <v>86.53096982905646</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21">
+      <c r="A232" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B232">
+        <v>3509</v>
+      </c>
+      <c r="C232">
+        <v>1729</v>
+      </c>
+      <c r="D232">
+        <v>109</v>
+      </c>
+      <c r="E232">
+        <v>2891</v>
+      </c>
+      <c r="F232">
+        <v>509</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>45</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>11.31451863164333</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>89.71428571428571</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>44.57142857142857</v>
+      </c>
+      <c r="R232">
+        <v>629.9526413488778</v>
+      </c>
+      <c r="S232">
+        <v>694.4890745501285</v>
+      </c>
+      <c r="T232">
+        <v>85.95758354755783</v>
+      </c>
+      <c r="U232">
+        <v>86.53096982905646</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21">
+      <c r="A233" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B233">
+        <v>3778</v>
+      </c>
+      <c r="C233">
+        <v>1838</v>
+      </c>
+      <c r="D233">
+        <v>110</v>
+      </c>
+      <c r="E233">
+        <v>3016</v>
+      </c>
+      <c r="F233">
+        <v>652</v>
+      </c>
+      <c r="G233">
+        <v>143</v>
+      </c>
+      <c r="H233">
+        <v>43.28571428571428</v>
+      </c>
+      <c r="I233">
+        <v>28.09430255402751</v>
+      </c>
+      <c r="J233">
+        <v>10.21410402169239</v>
+      </c>
+      <c r="K233">
+        <v>269</v>
+      </c>
+      <c r="L233">
+        <v>109</v>
+      </c>
+      <c r="M233">
+        <v>93.57142857142857</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P233">
+        <v>125</v>
+      </c>
+      <c r="Q233">
+        <v>50.14285714285715</v>
+      </c>
+      <c r="R233">
+        <v>678.2448216061728</v>
+      </c>
+      <c r="S233">
+        <v>738.271208226221</v>
+      </c>
+      <c r="T233">
+        <v>101.6227506426735</v>
+      </c>
+      <c r="U233">
+        <v>109.6896733725176</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21">
+      <c r="A234" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B234">
+        <v>3778</v>
+      </c>
+      <c r="C234">
+        <v>1838</v>
+      </c>
+      <c r="D234">
+        <v>110</v>
+      </c>
+      <c r="E234">
+        <v>3016</v>
+      </c>
+      <c r="F234">
+        <v>652</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>45.14285714285715</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>8.598631231188998</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>101.4285714285714</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>56</v>
+      </c>
+      <c r="R234">
+        <v>678.2448216061728</v>
+      </c>
+      <c r="S234">
+        <v>738.271208226221</v>
+      </c>
+      <c r="T234">
+        <v>101.6227506426735</v>
+      </c>
+      <c r="U234">
+        <v>109.6896733725176</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21">
+      <c r="A235" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B235">
+        <v>3816</v>
+      </c>
+      <c r="C235">
+        <v>1855</v>
+      </c>
+      <c r="D235">
+        <v>110</v>
+      </c>
+      <c r="E235">
+        <v>3084</v>
+      </c>
+      <c r="F235">
+        <v>622</v>
+      </c>
+      <c r="G235">
+        <v>-30</v>
+      </c>
+      <c r="H235">
+        <v>48.28571428571428</v>
+      </c>
+      <c r="I235">
+        <v>-4.601226993865031</v>
+      </c>
+      <c r="J235">
+        <v>8.061502683681653</v>
+      </c>
+      <c r="K235">
+        <v>38</v>
+      </c>
+      <c r="L235">
+        <v>17</v>
+      </c>
+      <c r="M235">
+        <v>111.2857142857143</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="P235">
+        <v>68</v>
+      </c>
+      <c r="Q235">
+        <v>62.71428571428572</v>
+      </c>
+      <c r="R235">
+        <v>685.066765285642</v>
+      </c>
+      <c r="S235">
+        <v>745.0996143958869</v>
+      </c>
+      <c r="T235">
+        <v>104.836118251928</v>
+      </c>
+      <c r="U235">
+        <v>112.7415955449117</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21">
+      <c r="A236" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B236">
+        <v>3912</v>
+      </c>
+      <c r="C236">
+        <v>1894</v>
+      </c>
+      <c r="D236">
+        <v>110</v>
+      </c>
+      <c r="E236">
+        <v>3157</v>
+      </c>
+      <c r="F236">
+        <v>645</v>
+      </c>
+      <c r="G236">
+        <v>23</v>
+      </c>
+      <c r="I236">
+        <v>3.697749196141479</v>
+      </c>
+      <c r="K236">
+        <v>96</v>
+      </c>
+      <c r="L236">
+        <v>39</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>73</v>
+      </c>
+      <c r="R236">
+        <v>702.3011493179852</v>
+      </c>
+      <c r="S236">
+        <v>760.7647814910026</v>
+      </c>
+      <c r="T236">
+        <v>107.6478149100257</v>
+      </c>
+      <c r="U236">
+        <v>117.5887660540082</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21">
+      <c r="A237" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B237">
+        <v>4103</v>
+      </c>
+      <c r="C237">
+        <v>1973</v>
+      </c>
+      <c r="D237">
+        <v>111</v>
+      </c>
+      <c r="E237">
+        <v>3237</v>
+      </c>
+      <c r="F237">
+        <v>755</v>
+      </c>
+      <c r="G237">
+        <v>110</v>
+      </c>
+      <c r="I237">
+        <v>17.05426356589147</v>
+      </c>
+      <c r="K237">
+        <v>191</v>
+      </c>
+      <c r="L237">
+        <v>79</v>
+      </c>
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="P237">
+        <v>80</v>
+      </c>
+      <c r="R237">
+        <v>736.5903925490013</v>
+      </c>
+      <c r="S237">
+        <v>792.4967866323908</v>
+      </c>
+      <c r="T237">
+        <v>120.9029562982005</v>
+      </c>
+      <c r="U237">
+        <v>127.4626319058715</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21">
+      <c r="A238" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B238">
+        <v>4288</v>
+      </c>
+      <c r="C238">
+        <v>2031</v>
+      </c>
+      <c r="D238">
+        <v>111</v>
+      </c>
+      <c r="E238">
+        <v>3330</v>
+      </c>
+      <c r="F238">
+        <v>847</v>
+      </c>
+      <c r="G238">
+        <v>92</v>
+      </c>
+      <c r="I238">
+        <v>12.18543046357616</v>
+      </c>
+      <c r="K238">
+        <v>185</v>
+      </c>
+      <c r="L238">
+        <v>58</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>93</v>
+      </c>
+      <c r="R238">
+        <v>769.802486777996</v>
+      </c>
+      <c r="S238">
+        <v>815.7937017994858</v>
+      </c>
+      <c r="T238">
+        <v>121.3046272493573</v>
+      </c>
+      <c r="U238">
+        <v>139.8498454291182</v>
       </c>
     </row>
   </sheetData>

--- a/data/c19stats-ac-kennzahlen.xlsx
+++ b/data/c19stats-ac-kennzahlen.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U238"/>
+  <dimension ref="A1:U252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15662,20 +15662,35 @@
       <c r="G236">
         <v>23</v>
       </c>
+      <c r="H236">
+        <v>48.28571428571428</v>
+      </c>
       <c r="I236">
         <v>3.697749196141479</v>
       </c>
+      <c r="J236">
+        <v>8.061502683681653</v>
+      </c>
       <c r="K236">
         <v>96</v>
       </c>
       <c r="L236">
         <v>39</v>
       </c>
+      <c r="M236">
+        <v>111.2857142857143</v>
+      </c>
       <c r="N236">
         <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0.2857142857142857</v>
       </c>
       <c r="P236">
         <v>73</v>
+      </c>
+      <c r="Q236">
+        <v>62.71428571428572</v>
       </c>
       <c r="R236">
         <v>702.3011493179852</v>
@@ -15712,20 +15727,35 @@
       <c r="G237">
         <v>110</v>
       </c>
+      <c r="H237">
+        <v>78.85714285714286</v>
+      </c>
       <c r="I237">
         <v>17.05426356589147</v>
       </c>
+      <c r="J237">
+        <v>10.06928236604608</v>
+      </c>
       <c r="K237">
         <v>191</v>
       </c>
       <c r="L237">
         <v>79</v>
       </c>
+      <c r="M237">
+        <v>158.7142857142857</v>
+      </c>
       <c r="N237">
         <v>1</v>
       </c>
+      <c r="O237">
+        <v>0.1428571428571428</v>
+      </c>
       <c r="P237">
         <v>80</v>
+      </c>
+      <c r="Q237">
+        <v>79.71428571428571</v>
       </c>
       <c r="R237">
         <v>736.5903925490013</v>
@@ -15762,21 +15792,36 @@
       <c r="G238">
         <v>92</v>
       </c>
+      <c r="H238">
+        <v>78.85714285714286</v>
+      </c>
       <c r="I238">
         <v>12.18543046357616</v>
       </c>
+      <c r="J238">
+        <v>10.06928236604608</v>
+      </c>
       <c r="K238">
         <v>185</v>
       </c>
       <c r="L238">
         <v>58</v>
       </c>
+      <c r="M238">
+        <v>158.7142857142857</v>
+      </c>
       <c r="N238">
         <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0.1428571428571428</v>
       </c>
       <c r="P238">
         <v>93</v>
       </c>
+      <c r="Q238">
+        <v>79.71428571428571</v>
+      </c>
       <c r="R238">
         <v>769.802486777996</v>
       </c>
@@ -15788,6 +15833,871 @@
       </c>
       <c r="U238">
         <v>139.8498454291182</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21">
+      <c r="A239" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B239">
+        <v>4288</v>
+      </c>
+      <c r="C239">
+        <v>2031</v>
+      </c>
+      <c r="D239">
+        <v>111</v>
+      </c>
+      <c r="E239">
+        <v>3330</v>
+      </c>
+      <c r="F239">
+        <v>847</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>71</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>9.718057555962252</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>164.7142857142857</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="R239">
+        <v>769.802486777996</v>
+      </c>
+      <c r="S239">
+        <v>815.7937017994858</v>
+      </c>
+      <c r="T239">
+        <v>121.3046272493573</v>
+      </c>
+      <c r="U239">
+        <v>139.8498454291182</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21">
+      <c r="A240" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B240">
+        <v>4889</v>
+      </c>
+      <c r="C240">
+        <v>2252</v>
+      </c>
+      <c r="D240">
+        <v>111</v>
+      </c>
+      <c r="E240">
+        <v>3574</v>
+      </c>
+      <c r="F240">
+        <v>1204</v>
+      </c>
+      <c r="G240">
+        <v>357</v>
+      </c>
+      <c r="H240">
+        <v>68.28571428571429</v>
+      </c>
+      <c r="I240">
+        <v>42.14876033057851</v>
+      </c>
+      <c r="J240">
+        <v>9.240873673607817</v>
+      </c>
+      <c r="K240">
+        <v>601</v>
+      </c>
+      <c r="L240">
+        <v>221</v>
+      </c>
+      <c r="M240">
+        <v>167.1428571428571</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="P240">
+        <v>244</v>
+      </c>
+      <c r="Q240">
+        <v>97.57142857142857</v>
+      </c>
+      <c r="R240">
+        <v>877.6969118138111</v>
+      </c>
+      <c r="S240">
+        <v>904.5629820051413</v>
+      </c>
+      <c r="T240">
+        <v>166.2917737789203</v>
+      </c>
+      <c r="U240">
+        <v>199.4520902076384</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21">
+      <c r="A241" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B241">
+        <v>4889</v>
+      </c>
+      <c r="C241">
+        <v>2252</v>
+      </c>
+      <c r="D241">
+        <v>111</v>
+      </c>
+      <c r="E241">
+        <v>3574</v>
+      </c>
+      <c r="F241">
+        <v>1204</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>69.42857142857143</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>8.305631594419911</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>173.2857142857143</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>102.2857142857143</v>
+      </c>
+      <c r="R241">
+        <v>877.6969118138111</v>
+      </c>
+      <c r="S241">
+        <v>904.5629820051413</v>
+      </c>
+      <c r="T241">
+        <v>166.2917737789203</v>
+      </c>
+      <c r="U241">
+        <v>199.4520902076384</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21">
+      <c r="A242" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B242">
+        <v>4969</v>
+      </c>
+      <c r="C242">
+        <v>2278</v>
+      </c>
+      <c r="D242">
+        <v>116</v>
+      </c>
+      <c r="E242">
+        <v>3734</v>
+      </c>
+      <c r="F242">
+        <v>1119</v>
+      </c>
+      <c r="G242">
+        <v>-85</v>
+      </c>
+      <c r="H242">
+        <v>78.28571428571429</v>
+      </c>
+      <c r="I242">
+        <v>-7.059800664451828</v>
+      </c>
+      <c r="J242">
+        <v>8.337619713989612</v>
+      </c>
+      <c r="K242">
+        <v>80</v>
+      </c>
+      <c r="L242">
+        <v>26</v>
+      </c>
+      <c r="M242">
+        <v>189.1428571428571</v>
+      </c>
+      <c r="N242">
+        <v>5</v>
+      </c>
+      <c r="O242">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="P242">
+        <v>160</v>
+      </c>
+      <c r="Q242">
+        <v>109</v>
+      </c>
+      <c r="R242">
+        <v>892.0588985074305</v>
+      </c>
+      <c r="S242">
+        <v>915.0064267352185</v>
+      </c>
+      <c r="T242">
+        <v>169.9068123393316</v>
+      </c>
+      <c r="U242">
+        <v>206.9921332217886</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21">
+      <c r="A243" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B243">
+        <v>5082</v>
+      </c>
+      <c r="C243">
+        <v>2322</v>
+      </c>
+      <c r="D243">
+        <v>119</v>
+      </c>
+      <c r="E243">
+        <v>3840</v>
+      </c>
+      <c r="F243">
+        <v>1123</v>
+      </c>
+      <c r="G243">
+        <v>4</v>
+      </c>
+      <c r="H243">
+        <v>78.28571428571429</v>
+      </c>
+      <c r="I243">
+        <v>0.3574620196604111</v>
+      </c>
+      <c r="J243">
+        <v>8.337619713989612</v>
+      </c>
+      <c r="K243">
+        <v>113</v>
+      </c>
+      <c r="L243">
+        <v>44</v>
+      </c>
+      <c r="M243">
+        <v>189.1428571428571</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="O243">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="P243">
+        <v>106</v>
+      </c>
+      <c r="Q243">
+        <v>109</v>
+      </c>
+      <c r="R243">
+        <v>912.3452047121679</v>
+      </c>
+      <c r="S243">
+        <v>932.6799485861183</v>
+      </c>
+      <c r="T243">
+        <v>171.9151670951157</v>
+      </c>
+      <c r="U243">
+        <v>210.0440553941827</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21">
+      <c r="A244" s="2">
+        <v>44133</v>
+      </c>
+      <c r="B244">
+        <v>5316</v>
+      </c>
+      <c r="C244">
+        <v>2397</v>
+      </c>
+      <c r="D244">
+        <v>122</v>
+      </c>
+      <c r="E244">
+        <v>3953</v>
+      </c>
+      <c r="F244">
+        <v>1241</v>
+      </c>
+      <c r="G244">
+        <v>118</v>
+      </c>
+      <c r="H244">
+        <v>17.42857142857143</v>
+      </c>
+      <c r="I244">
+        <v>10.50756901157614</v>
+      </c>
+      <c r="J244">
+        <v>1.609763015458427</v>
+      </c>
+      <c r="K244">
+        <v>234</v>
+      </c>
+      <c r="L244">
+        <v>75</v>
+      </c>
+      <c r="M244">
+        <v>167.4285714285714</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="O244">
+        <v>2</v>
+      </c>
+      <c r="P244">
+        <v>113</v>
+      </c>
+      <c r="Q244">
+        <v>148</v>
+      </c>
+      <c r="R244">
+        <v>954.3540157910044</v>
+      </c>
+      <c r="S244">
+        <v>962.8052699228791</v>
+      </c>
+      <c r="T244">
+        <v>170.3084832904884</v>
+      </c>
+      <c r="U244">
+        <v>217.7636232420031</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21">
+      <c r="A245" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B245">
+        <v>5612</v>
+      </c>
+      <c r="C245">
+        <v>2512</v>
+      </c>
+      <c r="D245">
+        <v>124</v>
+      </c>
+      <c r="E245">
+        <v>4093</v>
+      </c>
+      <c r="F245">
+        <v>1395</v>
+      </c>
+      <c r="G245">
+        <v>154</v>
+      </c>
+      <c r="H245">
+        <v>17.42857142857143</v>
+      </c>
+      <c r="I245">
+        <v>12.40934730056406</v>
+      </c>
+      <c r="J245">
+        <v>1.609763015458427</v>
+      </c>
+      <c r="K245">
+        <v>296</v>
+      </c>
+      <c r="L245">
+        <v>115</v>
+      </c>
+      <c r="M245">
+        <v>167.4285714285714</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245">
+        <v>2</v>
+      </c>
+      <c r="P245">
+        <v>140</v>
+      </c>
+      <c r="Q245">
+        <v>148</v>
+      </c>
+      <c r="R245">
+        <v>1007.493366557396</v>
+      </c>
+      <c r="S245">
+        <v>1008.997429305913</v>
+      </c>
+      <c r="T245">
+        <v>193.2037275064267</v>
+      </c>
+      <c r="U245">
+        <v>237.6908797793999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21">
+      <c r="A246" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B246">
+        <v>5612</v>
+      </c>
+      <c r="C246">
+        <v>2512</v>
+      </c>
+      <c r="D246">
+        <v>124</v>
+      </c>
+      <c r="E246">
+        <v>4093</v>
+      </c>
+      <c r="F246">
+        <v>1395</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>-8.714285714285714</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>-0.2690028021387373</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>169.1428571428571</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>176</v>
+      </c>
+      <c r="R246">
+        <v>1007.493366557396</v>
+      </c>
+      <c r="S246">
+        <v>1008.997429305913</v>
+      </c>
+      <c r="T246">
+        <v>193.2037275064267</v>
+      </c>
+      <c r="U246">
+        <v>237.6908797793999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21">
+      <c r="A247" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B247">
+        <v>6061</v>
+      </c>
+      <c r="C247">
+        <v>2699</v>
+      </c>
+      <c r="D247">
+        <v>125</v>
+      </c>
+      <c r="E247">
+        <v>4610</v>
+      </c>
+      <c r="F247">
+        <v>1326</v>
+      </c>
+      <c r="G247">
+        <v>-69</v>
+      </c>
+      <c r="H247">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="I247">
+        <v>-4.946236559139785</v>
+      </c>
+      <c r="J247">
+        <v>0.7196287375857138</v>
+      </c>
+      <c r="K247">
+        <v>449</v>
+      </c>
+      <c r="L247">
+        <v>187</v>
+      </c>
+      <c r="M247">
+        <v>170.8571428571429</v>
+      </c>
+      <c r="N247">
+        <v>1</v>
+      </c>
+      <c r="O247">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="P247">
+        <v>517</v>
+      </c>
+      <c r="Q247">
+        <v>167.5714285714286</v>
+      </c>
+      <c r="R247">
+        <v>1088.100016875334</v>
+      </c>
+      <c r="S247">
+        <v>1084.109897172237</v>
+      </c>
+      <c r="T247">
+        <v>179.5469151670951</v>
+      </c>
+      <c r="U247">
+        <v>210.4031050615232</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21">
+      <c r="A248" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B248">
+        <v>6061</v>
+      </c>
+      <c r="C248">
+        <v>2699</v>
+      </c>
+      <c r="D248">
+        <v>125</v>
+      </c>
+      <c r="E248">
+        <v>4610</v>
+      </c>
+      <c r="F248">
+        <v>1326</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>-2.571428571428572</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0.3261623023259386</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>171.8571428571429</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <v>173.2857142857143</v>
+      </c>
+      <c r="R248">
+        <v>1088.100016875334</v>
+      </c>
+      <c r="S248">
+        <v>1084.109897172237</v>
+      </c>
+      <c r="T248">
+        <v>179.5469151670951</v>
+      </c>
+      <c r="U248">
+        <v>210.4031050615232</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21">
+      <c r="A249" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B249">
+        <v>6153</v>
+      </c>
+      <c r="C249">
+        <v>2743</v>
+      </c>
+      <c r="D249">
+        <v>129</v>
+      </c>
+      <c r="E249">
+        <v>4966</v>
+      </c>
+      <c r="F249">
+        <v>1058</v>
+      </c>
+      <c r="G249">
+        <v>-268</v>
+      </c>
+      <c r="H249">
+        <v>-19.85714285714286</v>
+      </c>
+      <c r="I249">
+        <v>-20.21116138763198</v>
+      </c>
+      <c r="J249">
+        <v>-1.061132610486799</v>
+      </c>
+      <c r="K249">
+        <v>92</v>
+      </c>
+      <c r="L249">
+        <v>44</v>
+      </c>
+      <c r="M249">
+        <v>162.2857142857143</v>
+      </c>
+      <c r="N249">
+        <v>4</v>
+      </c>
+      <c r="O249">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="P249">
+        <v>356</v>
+      </c>
+      <c r="Q249">
+        <v>181</v>
+      </c>
+      <c r="R249">
+        <v>1104.616301572996</v>
+      </c>
+      <c r="S249">
+        <v>1101.783419023136</v>
+      </c>
+      <c r="T249">
+        <v>186.7769922879177</v>
+      </c>
+      <c r="U249">
+        <v>212.5574030655661</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21">
+      <c r="A250" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B250">
+        <v>6278</v>
+      </c>
+      <c r="C250">
+        <v>2785</v>
+      </c>
+      <c r="D250">
+        <v>130</v>
+      </c>
+      <c r="E250">
+        <v>5013</v>
+      </c>
+      <c r="F250">
+        <v>1135</v>
+      </c>
+      <c r="G250">
+        <v>77</v>
+      </c>
+      <c r="I250">
+        <v>7.277882797731569</v>
+      </c>
+      <c r="K250">
+        <v>125</v>
+      </c>
+      <c r="L250">
+        <v>42</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="P250">
+        <v>47</v>
+      </c>
+      <c r="R250">
+        <v>1127.056905781777</v>
+      </c>
+      <c r="S250">
+        <v>1118.653598971722</v>
+      </c>
+      <c r="T250">
+        <v>185.9736503856041</v>
+      </c>
+      <c r="U250">
+        <v>214.7117010696089</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21">
+      <c r="A251" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B251">
+        <v>6519</v>
+      </c>
+      <c r="C251">
+        <v>2873</v>
+      </c>
+      <c r="D251">
+        <v>130</v>
+      </c>
+      <c r="E251">
+        <v>5166</v>
+      </c>
+      <c r="F251">
+        <v>1223</v>
+      </c>
+      <c r="G251">
+        <v>88</v>
+      </c>
+      <c r="I251">
+        <v>7.753303964757709</v>
+      </c>
+      <c r="K251">
+        <v>241</v>
+      </c>
+      <c r="L251">
+        <v>88</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>153</v>
+      </c>
+      <c r="R251">
+        <v>1170.322390696305</v>
+      </c>
+      <c r="S251">
+        <v>1154.000642673522</v>
+      </c>
+      <c r="T251">
+        <v>191.1953727506427</v>
+      </c>
+      <c r="U251">
+        <v>215.9683749053007</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21">
+      <c r="A252" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B252">
+        <v>6748</v>
+      </c>
+      <c r="C252">
+        <v>2957</v>
+      </c>
+      <c r="D252">
+        <v>132</v>
+      </c>
+      <c r="E252">
+        <v>5360</v>
+      </c>
+      <c r="F252">
+        <v>1256</v>
+      </c>
+      <c r="G252">
+        <v>33</v>
+      </c>
+      <c r="I252">
+        <v>2.698282910874898</v>
+      </c>
+      <c r="K252">
+        <v>229</v>
+      </c>
+      <c r="L252">
+        <v>84</v>
+      </c>
+      <c r="N252">
+        <v>2</v>
+      </c>
+      <c r="P252">
+        <v>194</v>
+      </c>
+      <c r="R252">
+        <v>1211.43357760679</v>
+      </c>
+      <c r="S252">
+        <v>1187.741002570694</v>
+      </c>
+      <c r="T252">
+        <v>178.7435732647815</v>
+      </c>
+      <c r="U252">
+        <v>203.9402110493945</v>
       </c>
     </row>
   </sheetData>

--- a/data/c19stats-ac-kennzahlen.xlsx
+++ b/data/c19stats-ac-kennzahlen.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U252"/>
+  <dimension ref="A1:U280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16572,20 +16572,35 @@
       <c r="G250">
         <v>77</v>
       </c>
+      <c r="H250">
+        <v>-19.85714285714286</v>
+      </c>
       <c r="I250">
         <v>7.277882797731569</v>
       </c>
+      <c r="J250">
+        <v>-1.061132610486799</v>
+      </c>
       <c r="K250">
         <v>125</v>
       </c>
       <c r="L250">
         <v>42</v>
       </c>
+      <c r="M250">
+        <v>162.2857142857143</v>
+      </c>
       <c r="N250">
         <v>1</v>
       </c>
+      <c r="O250">
+        <v>1.142857142857143</v>
+      </c>
       <c r="P250">
         <v>47</v>
+      </c>
+      <c r="Q250">
+        <v>181</v>
       </c>
       <c r="R250">
         <v>1127.056905781777</v>
@@ -16622,20 +16637,35 @@
       <c r="G251">
         <v>88</v>
       </c>
+      <c r="H251">
+        <v>-2.285714285714286</v>
+      </c>
       <c r="I251">
         <v>7.753303964757709</v>
       </c>
+      <c r="J251">
+        <v>0.2596673347224332</v>
+      </c>
       <c r="K251">
         <v>241</v>
       </c>
       <c r="L251">
         <v>88</v>
       </c>
+      <c r="M251">
+        <v>173.1428571428571</v>
+      </c>
       <c r="N251">
         <v>0</v>
+      </c>
+      <c r="O251">
+        <v>1</v>
       </c>
       <c r="P251">
         <v>153</v>
+      </c>
+      <c r="Q251">
+        <v>174.4285714285714</v>
       </c>
       <c r="R251">
         <v>1170.322390696305</v>
@@ -16672,21 +16702,36 @@
       <c r="G252">
         <v>33</v>
       </c>
+      <c r="H252">
+        <v>-2.285714285714286</v>
+      </c>
       <c r="I252">
         <v>2.698282910874898</v>
       </c>
+      <c r="J252">
+        <v>0.2596673347224332</v>
+      </c>
       <c r="K252">
         <v>229</v>
       </c>
       <c r="L252">
         <v>84</v>
       </c>
+      <c r="M252">
+        <v>173.1428571428571</v>
+      </c>
       <c r="N252">
         <v>2</v>
       </c>
+      <c r="O252">
+        <v>1</v>
+      </c>
       <c r="P252">
         <v>194</v>
       </c>
+      <c r="Q252">
+        <v>174.4285714285714</v>
+      </c>
       <c r="R252">
         <v>1211.43357760679</v>
       </c>
@@ -16698,6 +16743,1781 @@
       </c>
       <c r="U252">
         <v>203.9402110493945</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21">
+      <c r="A253" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B253">
+        <v>6748</v>
+      </c>
+      <c r="C253">
+        <v>2957</v>
+      </c>
+      <c r="D253">
+        <v>132</v>
+      </c>
+      <c r="E253">
+        <v>5360</v>
+      </c>
+      <c r="F253">
+        <v>1256</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>21.71428571428572</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>2.056463563489924</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>181.8571428571429</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>158.5714285714286</v>
+      </c>
+      <c r="R253">
+        <v>1211.43357760679</v>
+      </c>
+      <c r="S253">
+        <v>1187.741002570694</v>
+      </c>
+      <c r="T253">
+        <v>178.7435732647815</v>
+      </c>
+      <c r="U253">
+        <v>203.9402110493945</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21">
+      <c r="A254" s="2">
+        <v>44143</v>
+      </c>
+      <c r="B254">
+        <v>7273</v>
+      </c>
+      <c r="C254">
+        <v>3193</v>
+      </c>
+      <c r="D254">
+        <v>132</v>
+      </c>
+      <c r="E254">
+        <v>5831</v>
+      </c>
+      <c r="F254">
+        <v>1310</v>
+      </c>
+      <c r="G254">
+        <v>54</v>
+      </c>
+      <c r="H254">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="I254">
+        <v>4.29936305732484</v>
+      </c>
+      <c r="J254">
+        <v>1.831405926505839</v>
+      </c>
+      <c r="K254">
+        <v>525</v>
+      </c>
+      <c r="L254">
+        <v>236</v>
+      </c>
+      <c r="M254">
+        <v>197.1428571428571</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="P254">
+        <v>471</v>
+      </c>
+      <c r="Q254">
+        <v>174.8571428571429</v>
+      </c>
+      <c r="R254">
+        <v>1305.684115283667</v>
+      </c>
+      <c r="S254">
+        <v>1282.535347043702</v>
+      </c>
+      <c r="T254">
+        <v>198.4254498714653</v>
+      </c>
+      <c r="U254">
+        <v>217.5840984083328</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21">
+      <c r="A255" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B255">
+        <v>7273</v>
+      </c>
+      <c r="C255">
+        <v>3193</v>
+      </c>
+      <c r="D255">
+        <v>132</v>
+      </c>
+      <c r="E255">
+        <v>5831</v>
+      </c>
+      <c r="F255">
+        <v>1310</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>15.85714285714286</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>1.338110297004542</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>193.1428571428571</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>175.4285714285714</v>
+      </c>
+      <c r="R255">
+        <v>1305.684115283667</v>
+      </c>
+      <c r="S255">
+        <v>1282.535347043702</v>
+      </c>
+      <c r="T255">
+        <v>198.4254498714653</v>
+      </c>
+      <c r="U255">
+        <v>217.5840984083328</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21">
+      <c r="A256" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B256">
+        <v>7426</v>
+      </c>
+      <c r="C256">
+        <v>3248</v>
+      </c>
+      <c r="D256">
+        <v>140</v>
+      </c>
+      <c r="E256">
+        <v>6076</v>
+      </c>
+      <c r="F256">
+        <v>1210</v>
+      </c>
+      <c r="G256">
+        <v>-100</v>
+      </c>
+      <c r="H256">
+        <v>24.85714285714286</v>
+      </c>
+      <c r="I256">
+        <v>-7.633587786259542</v>
+      </c>
+      <c r="J256">
+        <v>1.980698709608193</v>
+      </c>
+      <c r="K256">
+        <v>153</v>
+      </c>
+      <c r="L256">
+        <v>55</v>
+      </c>
+      <c r="M256">
+        <v>209</v>
+      </c>
+      <c r="N256">
+        <v>8</v>
+      </c>
+      <c r="O256">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="P256">
+        <v>245</v>
+      </c>
+      <c r="Q256">
+        <v>182.5714285714286</v>
+      </c>
+      <c r="R256">
+        <v>1333.151414835214</v>
+      </c>
+      <c r="S256">
+        <v>1304.627249357326</v>
+      </c>
+      <c r="T256">
+        <v>202.8438303341902</v>
+      </c>
+      <c r="U256">
+        <v>228.5351132622175</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21">
+      <c r="A257" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B257">
+        <v>7658</v>
+      </c>
+      <c r="C257">
+        <v>3335</v>
+      </c>
+      <c r="D257">
+        <v>142</v>
+      </c>
+      <c r="E257">
+        <v>6237</v>
+      </c>
+      <c r="F257">
+        <v>1279</v>
+      </c>
+      <c r="G257">
+        <v>69</v>
+      </c>
+      <c r="H257">
+        <v>24.85714285714286</v>
+      </c>
+      <c r="I257">
+        <v>5.702479338842975</v>
+      </c>
+      <c r="J257">
+        <v>1.980698709608193</v>
+      </c>
+      <c r="K257">
+        <v>232</v>
+      </c>
+      <c r="L257">
+        <v>87</v>
+      </c>
+      <c r="M257">
+        <v>209</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="P257">
+        <v>161</v>
+      </c>
+      <c r="Q257">
+        <v>182.5714285714286</v>
+      </c>
+      <c r="R257">
+        <v>1374.80117624671</v>
+      </c>
+      <c r="S257">
+        <v>1339.572622107969</v>
+      </c>
+      <c r="T257">
+        <v>220.9190231362468</v>
+      </c>
+      <c r="U257">
+        <v>247.7442704649334</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21">
+      <c r="A258" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B258">
+        <v>7871</v>
+      </c>
+      <c r="C258">
+        <v>3417</v>
+      </c>
+      <c r="D258">
+        <v>143</v>
+      </c>
+      <c r="E258">
+        <v>6394</v>
+      </c>
+      <c r="F258">
+        <v>1334</v>
+      </c>
+      <c r="G258">
+        <v>55</v>
+      </c>
+      <c r="H258">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="I258">
+        <v>4.300234558248632</v>
+      </c>
+      <c r="J258">
+        <v>1.206663827293056</v>
+      </c>
+      <c r="K258">
+        <v>213</v>
+      </c>
+      <c r="L258">
+        <v>82</v>
+      </c>
+      <c r="M258">
+        <v>201.1428571428571</v>
+      </c>
+      <c r="N258">
+        <v>1</v>
+      </c>
+      <c r="O258">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="P258">
+        <v>157</v>
+      </c>
+      <c r="Q258">
+        <v>184.7142857142857</v>
+      </c>
+      <c r="R258">
+        <v>1413.039965818472</v>
+      </c>
+      <c r="S258">
+        <v>1372.509640102828</v>
+      </c>
+      <c r="T258">
+        <v>218.5089974293059</v>
+      </c>
+      <c r="U258">
+        <v>242.7175751221667</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21">
+      <c r="A259" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B259">
+        <v>8211</v>
+      </c>
+      <c r="C259">
+        <v>3552</v>
+      </c>
+      <c r="D259">
+        <v>143</v>
+      </c>
+      <c r="E259">
+        <v>6638</v>
+      </c>
+      <c r="F259">
+        <v>1430</v>
+      </c>
+      <c r="G259">
+        <v>96</v>
+      </c>
+      <c r="H259">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="I259">
+        <v>7.19640179910045</v>
+      </c>
+      <c r="J259">
+        <v>1.206663827293056</v>
+      </c>
+      <c r="K259">
+        <v>340</v>
+      </c>
+      <c r="L259">
+        <v>135</v>
+      </c>
+      <c r="M259">
+        <v>201.1428571428571</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+      <c r="O259">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="P259">
+        <v>244</v>
+      </c>
+      <c r="Q259">
+        <v>184.7142857142857</v>
+      </c>
+      <c r="R259">
+        <v>1474.078409266354</v>
+      </c>
+      <c r="S259">
+        <v>1426.735218508998</v>
+      </c>
+      <c r="T259">
+        <v>238.9942159383034</v>
+      </c>
+      <c r="U259">
+        <v>262.6448316595635</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21">
+      <c r="A260" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B260">
+        <v>8211</v>
+      </c>
+      <c r="C260">
+        <v>3552</v>
+      </c>
+      <c r="D260">
+        <v>143</v>
+      </c>
+      <c r="E260">
+        <v>6638</v>
+      </c>
+      <c r="F260">
+        <v>1430</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>6.857142857142857</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0.7211003932428427</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>186</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="Q260">
+        <v>178</v>
+      </c>
+      <c r="R260">
+        <v>1474.078409266354</v>
+      </c>
+      <c r="S260">
+        <v>1426.735218508998</v>
+      </c>
+      <c r="T260">
+        <v>238.9942159383034</v>
+      </c>
+      <c r="U260">
+        <v>262.6448316595635</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21">
+      <c r="A261" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B261">
+        <v>8681</v>
+      </c>
+      <c r="C261">
+        <v>3738</v>
+      </c>
+      <c r="D261">
+        <v>143</v>
+      </c>
+      <c r="E261">
+        <v>7124</v>
+      </c>
+      <c r="F261">
+        <v>1414</v>
+      </c>
+      <c r="G261">
+        <v>-16</v>
+      </c>
+      <c r="H261">
+        <v>-0.7142857142857143</v>
+      </c>
+      <c r="I261">
+        <v>-1.118881118881119</v>
+      </c>
+      <c r="J261">
+        <v>0.08815478703520441</v>
+      </c>
+      <c r="K261">
+        <v>470</v>
+      </c>
+      <c r="L261">
+        <v>186</v>
+      </c>
+      <c r="M261">
+        <v>180.2857142857143</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P261">
+        <v>486</v>
+      </c>
+      <c r="Q261">
+        <v>180.1428571428571</v>
+      </c>
+      <c r="R261">
+        <v>1558.455081091367</v>
+      </c>
+      <c r="S261">
+        <v>1501.446015424165</v>
+      </c>
+      <c r="T261">
+        <v>218.9106683804627</v>
+      </c>
+      <c r="U261">
+        <v>252.7709658077002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21">
+      <c r="A262" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B262">
+        <v>8681</v>
+      </c>
+      <c r="C262">
+        <v>3738</v>
+      </c>
+      <c r="D262">
+        <v>143</v>
+      </c>
+      <c r="E262">
+        <v>7124</v>
+      </c>
+      <c r="F262">
+        <v>1414</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>8.285714285714286</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0.7970021937173353</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>186.8571428571429</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <v>176.7142857142857</v>
+      </c>
+      <c r="R262">
+        <v>1558.455081091367</v>
+      </c>
+      <c r="S262">
+        <v>1501.446015424165</v>
+      </c>
+      <c r="T262">
+        <v>218.9106683804627</v>
+      </c>
+      <c r="U262">
+        <v>252.7709658077002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21">
+      <c r="A263" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B263">
+        <v>8728</v>
+      </c>
+      <c r="C263">
+        <v>3768</v>
+      </c>
+      <c r="D263">
+        <v>148</v>
+      </c>
+      <c r="E263">
+        <v>7322</v>
+      </c>
+      <c r="F263">
+        <v>1258</v>
+      </c>
+      <c r="G263">
+        <v>-156</v>
+      </c>
+      <c r="H263">
+        <v>-18.57142857142857</v>
+      </c>
+      <c r="I263">
+        <v>-11.03253182461103</v>
+      </c>
+      <c r="J263">
+        <v>-1.175225977911136</v>
+      </c>
+      <c r="K263">
+        <v>47</v>
+      </c>
+      <c r="L263">
+        <v>30</v>
+      </c>
+      <c r="M263">
+        <v>157.1428571428571</v>
+      </c>
+      <c r="N263">
+        <v>5</v>
+      </c>
+      <c r="O263">
+        <v>2.714285714285714</v>
+      </c>
+      <c r="P263">
+        <v>198</v>
+      </c>
+      <c r="Q263">
+        <v>173</v>
+      </c>
+      <c r="R263">
+        <v>1566.892748273869</v>
+      </c>
+      <c r="S263">
+        <v>1513.496143958869</v>
+      </c>
+      <c r="T263">
+        <v>208.8688946015424</v>
+      </c>
+      <c r="U263">
+        <v>233.7413334386546</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21">
+      <c r="A264" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B264">
+        <v>8920</v>
+      </c>
+      <c r="C264">
+        <v>3840</v>
+      </c>
+      <c r="D264">
+        <v>148</v>
+      </c>
+      <c r="E264">
+        <v>7498</v>
+      </c>
+      <c r="F264">
+        <v>1274</v>
+      </c>
+      <c r="G264">
+        <v>16</v>
+      </c>
+      <c r="H264">
+        <v>-18.57142857142857</v>
+      </c>
+      <c r="I264">
+        <v>1.271860095389507</v>
+      </c>
+      <c r="J264">
+        <v>-1.175225977911136</v>
+      </c>
+      <c r="K264">
+        <v>192</v>
+      </c>
+      <c r="L264">
+        <v>72</v>
+      </c>
+      <c r="M264">
+        <v>157.1428571428571</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <v>2.714285714285714</v>
+      </c>
+      <c r="P264">
+        <v>176</v>
+      </c>
+      <c r="Q264">
+        <v>173</v>
+      </c>
+      <c r="R264">
+        <v>1601.361516338555</v>
+      </c>
+      <c r="S264">
+        <v>1542.416452442159</v>
+      </c>
+      <c r="T264">
+        <v>202.8438303341902</v>
+      </c>
+      <c r="U264">
+        <v>226.5603400918449</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21">
+      <c r="A265" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B265">
+        <v>9179</v>
+      </c>
+      <c r="C265">
+        <v>3950</v>
+      </c>
+      <c r="D265">
+        <v>156</v>
+      </c>
+      <c r="E265">
+        <v>7631</v>
+      </c>
+      <c r="F265">
+        <v>1392</v>
+      </c>
+      <c r="G265">
+        <v>118</v>
+      </c>
+      <c r="H265">
+        <v>-34.71428571428572</v>
+      </c>
+      <c r="I265">
+        <v>9.262166405023548</v>
+      </c>
+      <c r="J265">
+        <v>-2.432968235653394</v>
+      </c>
+      <c r="K265">
+        <v>259</v>
+      </c>
+      <c r="L265">
+        <v>110</v>
+      </c>
+      <c r="M265">
+        <v>126.2857142857143</v>
+      </c>
+      <c r="N265">
+        <v>8</v>
+      </c>
+      <c r="O265">
+        <v>3</v>
+      </c>
+      <c r="P265">
+        <v>133</v>
+      </c>
+      <c r="Q265">
+        <v>158</v>
+      </c>
+      <c r="R265">
+        <v>1647.858448259148</v>
+      </c>
+      <c r="S265">
+        <v>1586.600257069409</v>
+      </c>
+      <c r="T265">
+        <v>214.090616966581</v>
+      </c>
+      <c r="U265">
+        <v>234.818482440676</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21">
+      <c r="A266" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B266">
+        <v>9311</v>
+      </c>
+      <c r="C266">
+        <v>3995</v>
+      </c>
+      <c r="D266">
+        <v>162</v>
+      </c>
+      <c r="E266">
+        <v>7849</v>
+      </c>
+      <c r="F266">
+        <v>1300</v>
+      </c>
+      <c r="G266">
+        <v>-92</v>
+      </c>
+      <c r="H266">
+        <v>-34.71428571428572</v>
+      </c>
+      <c r="I266">
+        <v>-6.609195402298851</v>
+      </c>
+      <c r="J266">
+        <v>-2.432968235653394</v>
+      </c>
+      <c r="K266">
+        <v>132</v>
+      </c>
+      <c r="L266">
+        <v>45</v>
+      </c>
+      <c r="M266">
+        <v>126.2857142857143</v>
+      </c>
+      <c r="N266">
+        <v>6</v>
+      </c>
+      <c r="O266">
+        <v>3</v>
+      </c>
+      <c r="P266">
+        <v>218</v>
+      </c>
+      <c r="Q266">
+        <v>158</v>
+      </c>
+      <c r="R266">
+        <v>1671.55572630362</v>
+      </c>
+      <c r="S266">
+        <v>1604.675449871465</v>
+      </c>
+      <c r="T266">
+        <v>177.9402313624679</v>
+      </c>
+      <c r="U266">
+        <v>197.4773170372658</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21">
+      <c r="A267" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B267">
+        <v>9311</v>
+      </c>
+      <c r="C267">
+        <v>3995</v>
+      </c>
+      <c r="D267">
+        <v>162</v>
+      </c>
+      <c r="E267">
+        <v>7849</v>
+      </c>
+      <c r="F267">
+        <v>1300</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>-28.14285714285714</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>-2.19884663426026</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>135.4285714285714</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267">
+        <v>160.7142857142857</v>
+      </c>
+      <c r="R267">
+        <v>1671.55572630362</v>
+      </c>
+      <c r="S267">
+        <v>1604.675449871465</v>
+      </c>
+      <c r="T267">
+        <v>177.9402313624679</v>
+      </c>
+      <c r="U267">
+        <v>197.4773170372658</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21">
+      <c r="A268" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B268">
+        <v>9565</v>
+      </c>
+      <c r="C268">
+        <v>4100</v>
+      </c>
+      <c r="D268">
+        <v>164</v>
+      </c>
+      <c r="E268">
+        <v>8230</v>
+      </c>
+      <c r="F268">
+        <v>1171</v>
+      </c>
+      <c r="G268">
+        <v>-129</v>
+      </c>
+      <c r="H268">
+        <v>-27.85714285714286</v>
+      </c>
+      <c r="I268">
+        <v>-9.923076923076923</v>
+      </c>
+      <c r="J268">
+        <v>-2.138181973052271</v>
+      </c>
+      <c r="K268">
+        <v>254</v>
+      </c>
+      <c r="L268">
+        <v>105</v>
+      </c>
+      <c r="M268">
+        <v>129.5714285714286</v>
+      </c>
+      <c r="N268">
+        <v>2</v>
+      </c>
+      <c r="O268">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="P268">
+        <v>381</v>
+      </c>
+      <c r="Q268">
+        <v>154</v>
+      </c>
+      <c r="R268">
+        <v>1717.155034055861</v>
+      </c>
+      <c r="S268">
+        <v>1646.850899742931</v>
+      </c>
+      <c r="T268">
+        <v>145.4048843187661</v>
+      </c>
+      <c r="U268">
+        <v>158.6999529644936</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21">
+      <c r="A269" s="2">
+        <v>44158</v>
+      </c>
+      <c r="B269">
+        <v>9565</v>
+      </c>
+      <c r="C269">
+        <v>4100</v>
+      </c>
+      <c r="D269">
+        <v>164</v>
+      </c>
+      <c r="E269">
+        <v>8230</v>
+      </c>
+      <c r="F269">
+        <v>1171</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>-56.85714285714285</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>-4.586729245794282</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>98.28571428571429</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>2.714285714285714</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+      <c r="Q269">
+        <v>152.4285714285714</v>
+      </c>
+      <c r="R269">
+        <v>1717.155034055861</v>
+      </c>
+      <c r="S269">
+        <v>1646.850899742931</v>
+      </c>
+      <c r="T269">
+        <v>145.4048843187661</v>
+      </c>
+      <c r="U269">
+        <v>158.6999529644936</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21">
+      <c r="A270" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B270">
+        <v>9676</v>
+      </c>
+      <c r="C270">
+        <v>4159</v>
+      </c>
+      <c r="D270">
+        <v>168</v>
+      </c>
+      <c r="E270">
+        <v>8447</v>
+      </c>
+      <c r="F270">
+        <v>1061</v>
+      </c>
+      <c r="G270">
+        <v>-110</v>
+      </c>
+      <c r="H270">
+        <v>-32.28571428571428</v>
+      </c>
+      <c r="I270">
+        <v>-9.393680614859095</v>
+      </c>
+      <c r="J270">
+        <v>-2.492802797118649</v>
+      </c>
+      <c r="K270">
+        <v>111</v>
+      </c>
+      <c r="L270">
+        <v>59</v>
+      </c>
+      <c r="M270">
+        <v>103.8571428571429</v>
+      </c>
+      <c r="N270">
+        <v>4</v>
+      </c>
+      <c r="O270">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="P270">
+        <v>217</v>
+      </c>
+      <c r="Q270">
+        <v>133.8571428571429</v>
+      </c>
+      <c r="R270">
+        <v>1737.082290593258</v>
+      </c>
+      <c r="S270">
+        <v>1670.549485861183</v>
+      </c>
+      <c r="T270">
+        <v>157.0533419023136</v>
+      </c>
+      <c r="U270">
+        <v>170.189542319389</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21">
+      <c r="A271" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B271">
+        <v>9827</v>
+      </c>
+      <c r="C271">
+        <v>4226</v>
+      </c>
+      <c r="D271">
+        <v>172</v>
+      </c>
+      <c r="E271">
+        <v>8576</v>
+      </c>
+      <c r="F271">
+        <v>1079</v>
+      </c>
+      <c r="G271">
+        <v>18</v>
+      </c>
+      <c r="H271">
+        <v>-32.28571428571428</v>
+      </c>
+      <c r="I271">
+        <v>1.696512723845429</v>
+      </c>
+      <c r="J271">
+        <v>-2.492802797118649</v>
+      </c>
+      <c r="K271">
+        <v>151</v>
+      </c>
+      <c r="L271">
+        <v>67</v>
+      </c>
+      <c r="M271">
+        <v>103.8571428571429</v>
+      </c>
+      <c r="N271">
+        <v>4</v>
+      </c>
+      <c r="O271">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="P271">
+        <v>129</v>
+      </c>
+      <c r="Q271">
+        <v>133.8571428571429</v>
+      </c>
+      <c r="R271">
+        <v>1764.190540477464</v>
+      </c>
+      <c r="S271">
+        <v>1697.461439588689</v>
+      </c>
+      <c r="T271">
+        <v>155.0449871465296</v>
+      </c>
+      <c r="U271">
+        <v>162.8290241389091</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21">
+      <c r="A272" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B272">
+        <v>9867</v>
+      </c>
+      <c r="C272">
+        <v>4241</v>
+      </c>
+      <c r="D272">
+        <v>175</v>
+      </c>
+      <c r="E272">
+        <v>8698</v>
+      </c>
+      <c r="F272">
+        <v>994</v>
+      </c>
+      <c r="G272">
+        <v>-85</v>
+      </c>
+      <c r="H272">
+        <v>9.714285714285714</v>
+      </c>
+      <c r="I272">
+        <v>-7.877664504170529</v>
+      </c>
+      <c r="J272">
+        <v>1.119512262123785</v>
+      </c>
+      <c r="K272">
+        <v>40</v>
+      </c>
+      <c r="L272">
+        <v>15</v>
+      </c>
+      <c r="M272">
+        <v>103.4285714285714</v>
+      </c>
+      <c r="N272">
+        <v>3</v>
+      </c>
+      <c r="O272">
+        <v>2.571428571428572</v>
+      </c>
+      <c r="P272">
+        <v>122</v>
+      </c>
+      <c r="Q272">
+        <v>91.14285714285714</v>
+      </c>
+      <c r="R272">
+        <v>1771.371533824274</v>
+      </c>
+      <c r="S272">
+        <v>1703.486503856041</v>
+      </c>
+      <c r="T272">
+        <v>116.8862467866324</v>
+      </c>
+      <c r="U272">
+        <v>123.5130855651262</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21">
+      <c r="A273" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B273">
+        <v>10038</v>
+      </c>
+      <c r="C273">
+        <v>4325</v>
+      </c>
+      <c r="D273">
+        <v>178</v>
+      </c>
+      <c r="E273">
+        <v>8786</v>
+      </c>
+      <c r="F273">
+        <v>1074</v>
+      </c>
+      <c r="G273">
+        <v>80</v>
+      </c>
+      <c r="H273">
+        <v>9.714285714285714</v>
+      </c>
+      <c r="I273">
+        <v>8.048289738430583</v>
+      </c>
+      <c r="J273">
+        <v>1.119512262123785</v>
+      </c>
+      <c r="K273">
+        <v>171</v>
+      </c>
+      <c r="L273">
+        <v>84</v>
+      </c>
+      <c r="M273">
+        <v>103.4285714285714</v>
+      </c>
+      <c r="N273">
+        <v>3</v>
+      </c>
+      <c r="O273">
+        <v>2.571428571428572</v>
+      </c>
+      <c r="P273">
+        <v>88</v>
+      </c>
+      <c r="Q273">
+        <v>91.14285714285714</v>
+      </c>
+      <c r="R273">
+        <v>1802.070280381885</v>
+      </c>
+      <c r="S273">
+        <v>1737.226863753213</v>
+      </c>
+      <c r="T273">
+        <v>132.5514138817481</v>
+      </c>
+      <c r="U273">
+        <v>130.5145540782656</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21">
+      <c r="A274" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B274">
+        <v>10038</v>
+      </c>
+      <c r="C274">
+        <v>4325</v>
+      </c>
+      <c r="D274">
+        <v>178</v>
+      </c>
+      <c r="E274">
+        <v>8786</v>
+      </c>
+      <c r="F274">
+        <v>1074</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>14.71428571428571</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>1.596713954941774</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>91.42857142857143</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+      <c r="O274">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+      <c r="Q274">
+        <v>74.42857142857143</v>
+      </c>
+      <c r="R274">
+        <v>1802.070280381885</v>
+      </c>
+      <c r="S274">
+        <v>1737.226863753213</v>
+      </c>
+      <c r="T274">
+        <v>132.5514138817481</v>
+      </c>
+      <c r="U274">
+        <v>130.5145540782656</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21">
+      <c r="A275" s="2">
+        <v>44164</v>
+      </c>
+      <c r="B275">
+        <v>10289</v>
+      </c>
+      <c r="C275">
+        <v>4425</v>
+      </c>
+      <c r="D275">
+        <v>182</v>
+      </c>
+      <c r="E275">
+        <v>8868</v>
+      </c>
+      <c r="F275">
+        <v>1239</v>
+      </c>
+      <c r="G275">
+        <v>165</v>
+      </c>
+      <c r="H275">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="I275">
+        <v>15.36312849162011</v>
+      </c>
+      <c r="J275">
+        <v>0.29888125850632</v>
+      </c>
+      <c r="K275">
+        <v>251</v>
+      </c>
+      <c r="L275">
+        <v>100</v>
+      </c>
+      <c r="M275">
+        <v>90.42857142857143</v>
+      </c>
+      <c r="N275">
+        <v>4</v>
+      </c>
+      <c r="O275">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="P275">
+        <v>82</v>
+      </c>
+      <c r="Q275">
+        <v>88.28571428571429</v>
+      </c>
+      <c r="R275">
+        <v>1847.131013633116</v>
+      </c>
+      <c r="S275">
+        <v>1777.393958868895</v>
+      </c>
+      <c r="T275">
+        <v>130.543059125964</v>
+      </c>
+      <c r="U275">
+        <v>129.9759795772549</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21">
+      <c r="A276" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B276">
+        <v>10289</v>
+      </c>
+      <c r="C276">
+        <v>4425</v>
+      </c>
+      <c r="D276">
+        <v>182</v>
+      </c>
+      <c r="E276">
+        <v>8868</v>
+      </c>
+      <c r="F276">
+        <v>1239</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>15.14285714285714</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>1.715807091463626</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>105.4285714285714</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+      <c r="O276">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+      <c r="Q276">
+        <v>88</v>
+      </c>
+      <c r="R276">
+        <v>1847.131013633116</v>
+      </c>
+      <c r="S276">
+        <v>1777.393958868895</v>
+      </c>
+      <c r="T276">
+        <v>130.543059125964</v>
+      </c>
+      <c r="U276">
+        <v>129.9759795772549</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21">
+      <c r="A277" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B277">
+        <v>10316</v>
+      </c>
+      <c r="C277">
+        <v>4441</v>
+      </c>
+      <c r="D277">
+        <v>184</v>
+      </c>
+      <c r="E277">
+        <v>8968</v>
+      </c>
+      <c r="F277">
+        <v>1164</v>
+      </c>
+      <c r="G277">
+        <v>-75</v>
+      </c>
+      <c r="H277">
+        <v>-7.714285714285714</v>
+      </c>
+      <c r="I277">
+        <v>-6.053268765133172</v>
+      </c>
+      <c r="J277">
+        <v>-0.4729096244160678</v>
+      </c>
+      <c r="K277">
+        <v>27</v>
+      </c>
+      <c r="L277">
+        <v>16</v>
+      </c>
+      <c r="M277">
+        <v>103.7142857142857</v>
+      </c>
+      <c r="N277">
+        <v>2</v>
+      </c>
+      <c r="O277">
+        <v>2.571428571428572</v>
+      </c>
+      <c r="P277">
+        <v>100</v>
+      </c>
+      <c r="Q277">
+        <v>108.8571428571429</v>
+      </c>
+      <c r="R277">
+        <v>1851.978184142213</v>
+      </c>
+      <c r="S277">
+        <v>1783.820694087404</v>
+      </c>
+      <c r="T277">
+        <v>113.2712082262211</v>
+      </c>
+      <c r="U277">
+        <v>114.8958935489546</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21">
+      <c r="A278" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B278">
+        <v>10460</v>
+      </c>
+      <c r="C278">
+        <v>4487</v>
+      </c>
+      <c r="D278">
+        <v>188</v>
+      </c>
+      <c r="E278">
+        <v>9194</v>
+      </c>
+      <c r="F278">
+        <v>1078</v>
+      </c>
+      <c r="G278">
+        <v>-86</v>
+      </c>
+      <c r="I278">
+        <v>-7.38831615120275</v>
+      </c>
+      <c r="K278">
+        <v>144</v>
+      </c>
+      <c r="L278">
+        <v>46</v>
+      </c>
+      <c r="N278">
+        <v>4</v>
+      </c>
+      <c r="P278">
+        <v>226</v>
+      </c>
+      <c r="R278">
+        <v>1877.829760190727</v>
+      </c>
+      <c r="S278">
+        <v>1802.297557840617</v>
+      </c>
+      <c r="T278">
+        <v>104.836118251928</v>
+      </c>
+      <c r="U278">
+        <v>113.6392197132629</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21">
+      <c r="A279" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B279">
+        <v>10605</v>
+      </c>
+      <c r="C279">
+        <v>4550</v>
+      </c>
+      <c r="D279">
+        <v>191</v>
+      </c>
+      <c r="E279">
+        <v>9314</v>
+      </c>
+      <c r="F279">
+        <v>1100</v>
+      </c>
+      <c r="G279">
+        <v>22</v>
+      </c>
+      <c r="I279">
+        <v>2.040816326530612</v>
+      </c>
+      <c r="K279">
+        <v>145</v>
+      </c>
+      <c r="L279">
+        <v>63</v>
+      </c>
+      <c r="N279">
+        <v>3</v>
+      </c>
+      <c r="P279">
+        <v>120</v>
+      </c>
+      <c r="R279">
+        <v>1903.860861072912</v>
+      </c>
+      <c r="S279">
+        <v>1827.602827763496</v>
+      </c>
+      <c r="T279">
+        <v>124.116323907455</v>
+      </c>
+      <c r="U279">
+        <v>132.4893272486383</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21">
+      <c r="A280" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B280">
+        <v>10764</v>
+      </c>
+      <c r="C280">
+        <v>4627</v>
+      </c>
+      <c r="D280">
+        <v>196</v>
+      </c>
+      <c r="E280">
+        <v>9548</v>
+      </c>
+      <c r="F280">
+        <v>1020</v>
+      </c>
+      <c r="G280">
+        <v>-80</v>
+      </c>
+      <c r="I280">
+        <v>-7.272727272727272</v>
+      </c>
+      <c r="K280">
+        <v>159</v>
+      </c>
+      <c r="L280">
+        <v>77</v>
+      </c>
+      <c r="N280">
+        <v>5</v>
+      </c>
+      <c r="P280">
+        <v>234</v>
+      </c>
+      <c r="R280">
+        <v>1932.405309626481</v>
+      </c>
+      <c r="S280">
+        <v>1858.531491002571</v>
+      </c>
+      <c r="T280">
+        <v>121.3046272493573</v>
+      </c>
+      <c r="U280">
+        <v>130.3350292445954</v>
       </c>
     </row>
   </sheetData>
